--- a/check_sheet.xlsx
+++ b/check_sheet.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="14820"/>
+    <workbookView windowWidth="28695" windowHeight="14820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Target" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87">
   <si>
     <t>#</t>
   </si>
   <si>
-    <t>サーバ名</t>
+    <t>Server</t>
   </si>
   <si>
     <t>IP</t>
@@ -30,32 +30,16 @@
     <t>OS</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>v</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>Center</t>
-    </r>
-  </si>
-  <si>
-    <t>VM名</t>
-  </si>
-  <si>
-    <t>win2012</t>
+    <t>OSAccountID</t>
+  </si>
+  <si>
+    <t>vCenterID</t>
+  </si>
+  <si>
+    <t>VM</t>
+  </si>
+  <si>
+    <t>testwin2012</t>
   </si>
   <si>
     <t>192.168.0.12</t>
@@ -70,13 +54,16 @@
     <t>win2012.ostrich</t>
   </si>
   <si>
+    <t>testcent65</t>
+  </si>
+  <si>
+    <t>192.168.10.1</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
     <t>ostrich</t>
-  </si>
-  <si>
-    <t>192.168.10.1</t>
-  </si>
-  <si>
-    <t>Linux</t>
   </si>
   <si>
     <t>ID</t>
@@ -302,12 +289,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -315,48 +308,361 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="メイリオ"/>
-      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="メイリオ"/>
-      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -379,65 +685,347 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="27">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="43" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="43" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="2"/>
-    <cellStyle name="標準 3" xfId="1"/>
+  <cellStyles count="52">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Comma[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
+    <cellStyle name="Currency[0]" xfId="6" builtinId="7"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="標準" xfId="27"/>
+    <cellStyle name="Linked Cell" xfId="28" builtinId="24"/>
+    <cellStyle name="Total" xfId="29" builtinId="25"/>
+    <cellStyle name="Bad" xfId="30" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="31" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="32" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
+    <cellStyle name="標準 2" xfId="40"/>
+    <cellStyle name="20% - Accent3" xfId="41" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="42" builtinId="41"/>
+    <cellStyle name="標準 3" xfId="43"/>
+    <cellStyle name="20% - Accent4" xfId="44" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="45" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="46" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="47" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="48" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="49" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="50" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="51" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -727,191 +1315,214 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B2:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
     <col min="3" max="4" width="26" customWidth="1"/>
-    <col min="5" max="7" width="16.875" customWidth="1"/>
+    <col min="5" max="8" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="9" t="s">
+    <row r="2" ht="16.5" spans="2:8">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B3" s="9">
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" spans="2:8">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B4" s="9">
+      <c r="G3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="2:8">
+      <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="2:8">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" ht="16.5" spans="2:8">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" ht="16.5" spans="2:8">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" ht="16.5" spans="2:8">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" ht="16.5" spans="2:8">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" ht="16.5" spans="2:8">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" ht="16.5" spans="2:8">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" ht="16.5" spans="2:8">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" ht="16.5" spans="2:8">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" ht="16.5" spans="2:8">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" ht="16.5" spans="2:8">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" ht="16.5" spans="2:8">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A4:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
@@ -920,355 +1531,355 @@
     <col min="6" max="9" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" ht="18.75" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" ht="18.75" spans="1:5">
+      <c r="A5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" ht="18.75" spans="1:5">
+      <c r="A6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" ht="18.75" spans="1:5">
+      <c r="A7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" ht="18.75" spans="1:5">
+      <c r="A8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="E8" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" ht="18.75" spans="1:5">
       <c r="A9" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" ht="18.75" spans="1:5">
       <c r="A10" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" ht="42" customHeight="1" spans="1:5">
       <c r="A11" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="56.25" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" ht="56.25" spans="1:5">
       <c r="A12" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" ht="37.5" spans="1:5">
       <c r="A13" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" ht="37.5" spans="1:5">
       <c r="A14" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" ht="37.5" spans="1:5">
       <c r="A15" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="56.25" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" ht="56.25" spans="1:5">
       <c r="A16" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="75" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" ht="75" spans="1:5">
       <c r="A17" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="93.75" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" ht="93.75" spans="1:5">
       <c r="A18" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="56.25" x14ac:dyDescent="0.15">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" ht="56.25" spans="1:5">
       <c r="A19" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" ht="37.5" spans="1:5">
       <c r="A20" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" ht="18.75" spans="1:5">
       <c r="A21" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" ht="18.75" spans="1:5">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="23" ht="18.75" spans="1:5">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="24" ht="18.75" spans="1:5">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="25" ht="18.75" spans="1:5">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="26" ht="18.75" spans="1:5">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="27" ht="18.75" spans="1:5">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="28" ht="18.75" spans="1:5">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1276,19 +1887,22 @@
       <c r="E28" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A4:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="17.625" customWidth="1"/>
     <col min="3" max="3" width="27.25" customWidth="1"/>
@@ -1297,250 +1911,250 @@
     <col min="6" max="6" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" ht="16.5" spans="1:5">
       <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="33" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" ht="33" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="1:5">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" ht="16.5" spans="1:5">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" ht="16.5" spans="1:5">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" ht="16.5" spans="1:5">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" ht="16.5" spans="1:5">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" ht="16.5" spans="1:5">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" ht="16.5" spans="1:5">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" ht="16.5" spans="1:5">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" ht="16.5" spans="1:5">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1548,8 +2162,8 @@
       <c r="E23" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/check_sheet.xlsx
+++ b/check_sheet.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="170">
   <si>
     <t>#</t>
   </si>
@@ -518,6 +518,195 @@
   </si>
   <si>
     <t>RuleAP2</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>mount_iso</t>
+  </si>
+  <si>
+    <t>ISOマウントの有無</t>
+    <rPh sb="8" eb="10">
+      <t>ウム</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>mount コマンドで.isoファイルのマウント情報取得</t>
+    <rPh sb="24" eb="26">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>oracle</t>
+  </si>
+  <si>
+    <t>Oracleの有無</t>
+    <rPh sb="7" eb="9">
+      <t>ウム</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>"ls -d /opt/oracle/app/product/*/*" でOracleのバージョン、サーバ/クライアントを検索</t>
+    <rPh sb="61" eb="63">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>yum_proxy</t>
+  </si>
+  <si>
+    <t>yumコマンドプロキシ設定有無</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /etc/yum.conf から、proxyサーバ定義を検索</t>
+    <rPh sb="26" eb="28">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>kdump</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>クラッシュリカバリ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>kdump クラッシュリカバリーサービスの自動起動設定</t>
+    <rPh sb="21" eb="23">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>crash_size</t>
+  </si>
+  <si>
+    <t>クラッシュダンプサイズ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>/sys/kernel/kexec_crash_size を検索</t>
+    <rPh sb="30" eb="32">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>sestatus</t>
+  </si>
+  <si>
+    <t>SELinuxステータス</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>sestatus コマンドからステータス検索</t>
+    <rPh sb="20" eb="22">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>iptables</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>iptablesステータス</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>chkconfig --list コマンドで、iptables ファイヤーウォールの自動起動設定を検索</t>
+    <rPh sb="42" eb="44">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>vncserver</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>vncserverステータス</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> chkconfig --listコマンドで、vncserver ファイヤーウォールの自動起動設定を検索</t>
+    <rPh sb="43" eb="45">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>runlevel</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ランレベル</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve">OS起動時のランレベルからコンソール設定(3 : CUIコンソール、5 : GUIコンソール)を検索
+</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>resolve_conf</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>DNSサーバ名</t>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve">/etc/resolve.conf から nameserver を検索
+</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>nameservers</t>
+  </si>
+  <si>
+    <t>DNS設定</t>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -571,7 +760,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -592,17 +781,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -679,19 +857,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1218,10 +1396,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:E40"/>
+  <dimension ref="A4:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1722,53 +1900,189 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="8"/>
-    </row>
-    <row r="35" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="8"/>
+      <c r="A34" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A35" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="8"/>
+      <c r="A36" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="37" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="8"/>
+      <c r="A37" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="38" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="8"/>
+      <c r="A38" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="39" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="8"/>
-    </row>
-    <row r="40" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="8"/>
+      <c r="A39" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A40" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A41" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A42" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A43" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>167</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
@@ -2241,7 +2555,7 @@
   <dimension ref="A4:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2292,6 +2606,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
@@ -2311,6 +2626,7 @@
       <c r="G6" s="7" t="s">
         <v>133</v>
       </c>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
@@ -2330,6 +2646,7 @@
       <c r="G7" s="7" t="s">
         <v>133</v>
       </c>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
@@ -2345,6 +2662,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
@@ -2360,6 +2678,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
@@ -2375,6 +2694,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
@@ -2390,6 +2710,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
@@ -2407,6 +2728,7 @@
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
+      <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
@@ -2422,6 +2744,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
+      <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
@@ -2437,6 +2760,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
+      <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
@@ -2452,6 +2776,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
+      <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
@@ -2469,8 +2794,9 @@
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="13" t="s">
         <v>38</v>
@@ -2484,8 +2810,9 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="13" t="s">
         <v>73</v>
@@ -2499,8 +2826,9 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="13" t="s">
         <v>75</v>
@@ -2514,8 +2842,9 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="13" t="s">
         <v>60</v>
@@ -2529,8 +2858,9 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="13" t="s">
         <v>63</v>
@@ -2544,8 +2874,9 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="13" t="s">
         <v>47</v>
@@ -2559,8 +2890,9 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="13" t="s">
         <v>84</v>
@@ -2574,6 +2906,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
+      <c r="H23" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>

--- a/check_sheet.xlsx
+++ b/check_sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="14820" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="14820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Target" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="181">
   <si>
     <t>testtestdb</t>
   </si>
@@ -686,6 +686,25 @@
       <t>ケンサク</t>
     </rPh>
     <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>net_route</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>デフォルトゲートウェイ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Linux</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ip route コマンドでデフォルトゲートウェイのアドレスを検索</t>
   </si>
 </sst>
 </file>
@@ -1514,10 +1533,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:F52"/>
+  <dimension ref="A4:F53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F32" sqref="A32:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1984,96 +2003,96 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
-        <v>73</v>
+        <v>176</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>74</v>
+        <v>177</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>75</v>
+        <v>178</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>1</v>
+        <v>179</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="10" t="s">
-        <v>76</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A34" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A34" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="9" t="s">
+    <row r="35" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="A35" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C35" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="10" t="s">
+      <c r="D35" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A35" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="9" t="s">
+    <row r="36" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A36" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C36" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A36" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>87</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -2081,115 +2100,115 @@
         <v>12</v>
       </c>
       <c r="B37" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A38" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C38" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D37" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="10" t="s">
+      <c r="D38" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9" t="s">
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="10"/>
-    </row>
-    <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" s="9" t="s">
+      <c r="C39" s="9"/>
+      <c r="D39" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A40" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C40" s="11" t="s">
         <v>94</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="33" x14ac:dyDescent="0.15">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>97</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A41" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" s="9" t="s">
+    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A42" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="10"/>
-    </row>
-    <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>101</v>
-      </c>
+      <c r="C42" s="9"/>
       <c r="D42" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E42" s="13"/>
-      <c r="F42" s="12" t="s">
-        <v>102</v>
-      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="10"/>
     </row>
     <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E43" s="13"/>
       <c r="F43" s="12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
@@ -2197,150 +2216,168 @@
         <v>12</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E44" s="13"/>
       <c r="F44" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E45" s="13"/>
       <c r="F45" s="12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A46" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E46" s="13"/>
       <c r="F46" s="12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A47" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E47" s="13"/>
       <c r="F47" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+      <c r="A48" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" s="13"/>
+      <c r="F48" s="12" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A48" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
     </row>
     <row r="49" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B49" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+    </row>
+    <row r="50" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A50" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C50" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D49" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E49" s="13"/>
-      <c r="F49" s="12" t="s">
+      <c r="D50" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" s="13"/>
+      <c r="F50" s="12" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13" t="s">
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A51" s="13"/>
+      <c r="B51" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-    </row>
-    <row r="51" spans="1:6" ht="33" x14ac:dyDescent="0.15">
-      <c r="A51" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B51" s="13" t="s">
+      <c r="C51" s="13"/>
+      <c r="D51" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+    </row>
+    <row r="52" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+      <c r="A52" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C52" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="D51" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E51" s="13"/>
-      <c r="F51" s="12" t="s">
+      <c r="D52" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" s="13"/>
+      <c r="F52" s="12" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A52" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B52" s="14" t="s">
+    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A53" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="C52" s="15"/>
-      <c r="D52" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8"/>
@@ -2353,8 +2390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/check_sheet.xlsx
+++ b/check_sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Target" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="360">
   <si>
     <t xml:space="preserve">* 5行目、D列以降のセルに検査対象サーバ接続情報を入力してください。'server_name'と'platform'は必須です。</t>
   </si>
@@ -1071,6 +1071,30 @@
   </si>
   <si>
     <t xml:space="preserve">RuleDB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compare_server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">結果を比較する対象サーバ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">win2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ostrich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compare_source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">結果を比較するソース。actual:実行結果から、local:nodeディレクトリから、db:データベースから </t>
+  </si>
+  <si>
+    <t xml:space="preserve">actual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">local</t>
   </si>
   <si>
     <t xml:space="preserve">VMWare リソース割り当て</t>
@@ -1156,11 +1180,11 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
       <family val="3"/>
-      <charset val="128"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1177,7 +1201,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1205,6 +1229,13 @@
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
+    </border>
+    <border diagonalUp="true" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal style="hair"/>
     </border>
   </borders>
   <cellStyleXfs count="21">
@@ -1236,7 +1267,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1297,11 +1328,27 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1325,18 +1372,18 @@
   </sheetPr>
   <dimension ref="B1:M18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.77319587628866"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.1855670103093"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.63917525773196"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.0463917525773"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.8247422680412"/>
     <col collapsed="false" hidden="false" max="8" min="4" style="0" width="13.3659793814433"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.2731958762887"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="7.77319587628866"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="7.63917525773196"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1679,19 +1726,19 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F61" activeCellId="0" sqref="F61"/>
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.77319587628866"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.63917525773196"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3659793814433"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.9587628865979"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.41237113402062"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.41237113402062"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="54.8247422680412"/>
     <col collapsed="false" hidden="false" max="10" min="7" style="0" width="13.3659793814433"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="7.77319587628866"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="7.63917525773196"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2816,14 +2863,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.77319587628866"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.63917525773196"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3659793814433"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.9123711340206"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.7783505154639"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.4123711340206"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.41237113402062"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="55.5103092783505"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.7731958762887"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="7.77319587628866"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.639175257732"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="7.63917525773196"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3694,13 +3741,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.91237113402062"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.77319587628866"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.2783505154639"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.319587628866"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.18556701030928"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.1855670103093"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.04639175257732"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.3659793814433"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.0515463917526"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.18556701030928"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="49.9175257731959"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.04639175257732"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4329,24 +4376,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A4:F23"/>
+  <dimension ref="A4:F25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.77319587628866"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.63917525773196"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3659793814433"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.9587628865979"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.41237113402062"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.0927835051546"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.2319587628866"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="7.77319587628866"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="7.63917525773196"/>
   </cols>
   <sheetData>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>23</v>
@@ -4364,41 +4411,45 @@
         <v>344</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="16.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15"/>
-      <c r="B5" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15"/>
-      <c r="B6" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15"/>
       <c r="B7" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>31</v>
@@ -4406,13 +4457,13 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="15"/>
       <c r="B8" s="16" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>31</v>
@@ -4420,13 +4471,13 @@
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="15"/>
       <c r="B9" s="16" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>31</v>
@@ -4434,13 +4485,13 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
     </row>
-    <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="15"/>
       <c r="B10" s="16" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>49</v>
+        <v>356</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>31</v>
@@ -4448,13 +4499,13 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="15"/>
       <c r="B11" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>52</v>
+        <v>357</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>31</v>
@@ -4462,41 +4513,41 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
     </row>
-    <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="15"/>
       <c r="B12" s="16" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
     </row>
-    <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="15"/>
       <c r="B13" s="16" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
     </row>
-    <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="15"/>
       <c r="B14" s="16" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>11</v>
@@ -4504,13 +4555,13 @@
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
     </row>
-    <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="15"/>
       <c r="B15" s="16" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>11</v>
@@ -4518,41 +4569,41 @@
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
     </row>
-    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="15"/>
       <c r="B16" s="16" t="s">
-        <v>350</v>
+        <v>68</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>351</v>
+        <v>69</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>214</v>
+        <v>11</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
     </row>
-    <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="15"/>
       <c r="B17" s="16" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>214</v>
+        <v>11</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
     </row>
-    <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="15"/>
       <c r="B18" s="16" t="s">
-        <v>217</v>
+        <v>358</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>93</v>
+        <v>359</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>214</v>
@@ -4560,13 +4611,13 @@
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
     </row>
-    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="15"/>
       <c r="B19" s="16" t="s">
-        <v>256</v>
+        <v>71</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>257</v>
+        <v>72</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>214</v>
@@ -4574,13 +4625,13 @@
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
     </row>
-    <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="15"/>
       <c r="B20" s="16" t="s">
-        <v>120</v>
+        <v>217</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>259</v>
+        <v>93</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>214</v>
@@ -4588,13 +4639,13 @@
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
     </row>
-    <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="15"/>
       <c r="B21" s="16" t="s">
-        <v>138</v>
+        <v>256</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>214</v>
@@ -4602,13 +4653,13 @@
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
     </row>
-    <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="15"/>
       <c r="B22" s="16" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>214</v>
@@ -4616,19 +4667,47 @@
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
     </row>
-    <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="15"/>
       <c r="B23" s="16" t="s">
-        <v>284</v>
+        <v>138</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>142</v>
+        <v>275</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>214</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/check_sheet.xlsx
+++ b/check_sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Target" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,16 +24,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="412">
   <si>
     <t xml:space="preserve">* 5行目、D列以降のセルに検査対象サーバ接続情報を入力してください。'server_name'と'platform'は必須です。</t>
   </si>
   <si>
-    <t xml:space="preserve">* 項目IDが1番以降のセルを編集します。 
-* 'server_name'と'platform'は必須です。  
-* Windows, Linux サーバに接続して構成チェックをする場合、ip, os_account_id を入力して下さい。 
-* vCenter から構成チェックをする場合は、'remote_account_id', 'remote_alias' を入力して下さい。 
-* セルの入力が空白の場合はチェックを行いません。  
+    <t xml:space="preserve">* はじめに 1行目の「platform」,2行目の「virtualization」のセルを選択してください 
+* 「～を入力してください」と表示されたセルの値を入力してください 
+* 空白のセルは値チェック用のオプションになります、空白の場合はチェックを行いません 
 </t>
   </si>
   <si>
@@ -43,211 +41,202 @@
     <t xml:space="preserve">定義</t>
   </si>
   <si>
+    <t xml:space="preserve">platform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">チェックシートのID。検査対象がESXiホストの場合は'VMHost'を、ゲストOSの場合は、'Windows'または'Linux'を記入。設定ファイル内evidence.sheet_name_specのIDを指定</t>
+  </si>
+  <si>
+    <t xml:space="preserve">virtualization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'VM’か’オンプレサーバ’かを選択</t>
+  </si>
+  <si>
     <t xml:space="preserve">server_name</t>
   </si>
   <si>
     <t xml:space="preserve">検査対象サーバ名。検査シート内で一意となる名称を記入してください。</t>
   </si>
   <si>
-    <t xml:space="preserve">host1</t>
-  </si>
-  <si>
     <t xml:space="preserve">ip</t>
   </si>
   <si>
     <t xml:space="preserve">SSH接続、PowerShell内コマンドで接続するIPアドレス</t>
   </si>
   <si>
-    <t xml:space="preserve">192.168.10.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">platform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">チェックシートのID。検査対象がESXiホストの場合は'VMHost'を、ゲストOSの場合は、'Windows'または'Linux'を記入。設定ファイル内evidence.sheet_name_specのIDを指定</t>
+    <t xml:space="preserve">os_account_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ローカル採取で使用するアカウントID。OSの情報採取の場合、対象サーバのOSアカウントを指定し、設定ファイル内パラメータaccount.{ドメイン}.{ID}のIDを指定する。リモート採取の場合は未記入</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remote_account_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">リモート採取で使用するアカウントID。vCenterサーバなどリモートから情報採取をする場合のリモートのアカウントIDを指定する。ローカル採取の場合は未記入</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remote_alias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">リモート採取をする場合の、検査対象サーバ名のエイリアス名。vCenterの場合、vm名。ローカル採取の場合は未記入</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">シート「検証ルール」のIDを指定。検証が不要な場合は未記入</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compare_server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比較対象サーバ名。verify_idの入力が必須。未記入の場合はverify_idで指定した検査ルールの比較対象サーバ設定が既定値になる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">以降の行はユーザ定義パラメータの指定行となり、検査コード、検査ルールからserver_info['項目ID']パラメータで値を参照します</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NumCpu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPU割り当て数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MemoryGB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メモリ割り当て</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESXiHost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESXiホスト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDDType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ストレージ構成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* IDが "filesystem.*", "user.*", "service.*", "packages.*" の行はカスタム項目となります。システム構成／要件に合わせて項目の削除、追加、変更をしてください。  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">項目</t>
+  </si>
+  <si>
+    <t xml:space="preserve">分類</t>
+  </si>
+  <si>
+    <t xml:space="preserve">デバイス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">採取情報</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VMWare リソース</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vCenter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VMWare CPU,メモリ割り当て、 電源On-Off、ホストIPの検索</t>
+  </si>
+  <si>
+    <t xml:space="preserve">├─CPU割り当て数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">仮想マシンのCPU仮想ソケット数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PowerState</t>
+  </si>
+  <si>
+    <t xml:space="preserve">├─電源状態</t>
+  </si>
+  <si>
+    <t xml:space="preserve">電源On/Off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">├─メモリ割り当て</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メモリ割り当てサイズ[GB]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VMHost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">├─ESXiホスト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESXiホスト名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cluster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">└─クラスター</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vCenterクラスタ名、vCenter構成でない場合は未記入</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vmwaretool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VMWare ツール</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VMWare ツールの有無、アップグレードの検索</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vm_timesync</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VMWare 時刻同期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VMWare 時刻同期の有無</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vm_iops_limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ストレージIOPS制限</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ストレージリソースのIOPS制限値を検索</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vm_storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ストレージ構成情報検索</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hostname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ホスト名</t>
   </si>
   <si>
     <t xml:space="preserve">Linux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">os_account_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ローカル採取で使用するアカウントID。OSの情報採取の場合、対象サーバのOSアカウントを指定し、設定ファイル内パラメータaccount.{ドメイン}.{ID}のIDを指定する。リモート採取の場合は未記入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remote_account_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">リモート採取で使用するアカウントID。vCenterサーバなどリモートから情報採取をする場合のリモートのアカウントIDを指定する。ローカル採取の場合は未記入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remote_alias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">リモート採取をする場合の、検査対象サーバ名のエイリアス名。vCenterの場合、vm名。ローカル採取の場合は未記入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">シート「検証ルール」のIDを指定。検証が不要な場合は未記入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RuleDB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compare_server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">比較対象サーバ名。verify_idの入力が必須。未記入の場合はverify_idで指定した検査ルールの比較対象サーバ設定が既定値になる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">以降の行はユーザ定義パラメータの指定行となり、検査コード、検査ルールからserver_info['項目ID']パラメータで値を参照します</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NumCpu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPU割り当て数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MemoryGB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メモリ割り当て</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESXiHost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESXiホスト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.10.100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HDDType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージ構成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Thick:40]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* IDが "filesystem.*", "user.*", "service.*", "packages.*" の行はカスタム項目となります。システム構成／要件に合わせて項目の削除、追加、変更をしてください。  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">項目</t>
-  </si>
-  <si>
-    <t xml:space="preserve">分類</t>
-  </si>
-  <si>
-    <t xml:space="preserve">デバイス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">採取情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare リソース</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vCenter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare CPU,メモリ割り当て、 電源On-Off、ホストIPの検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─CPU割り当て数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">仮想マシンのCPU仮想ソケット数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PowerState</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─電源状態</t>
-  </si>
-  <si>
-    <t xml:space="preserve">電源On/Off</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─メモリ割り当て</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メモリ割り当てサイズ[GB]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMHost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ESXiホスト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESXiホスト名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cluster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─クラスター</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vCenterクラスタ名、vCenter構成でない場合は未記入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vmwaretool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare ツール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare ツールの有無、アップグレードの検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vm_timesync</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare 時刻同期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare 時刻同期の有無</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vm_iops_limit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージIOPS制限</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージリソースのIOPS制限値を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vm_storage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージ構成情報検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hostname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ホスト名</t>
   </si>
   <si>
     <t xml:space="preserve">ホスト名の検索</t>
@@ -491,6 +480,15 @@
     <t xml:space="preserve">/etc/fstab から設定値が/dev/から始まるパスで、defaultになっている自動マウントされたデバイスを検索</t>
   </si>
   <si>
+    <t xml:space="preserve">lvm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">論理ボリューム情報</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mountコマンドで、/dev/mapper/{ボリュームグループ名}-{論理ボリューム名}を検索</t>
+  </si>
+  <si>
     <t xml:space="preserve">user</t>
   </si>
   <si>
@@ -764,6 +762,15 @@
     <t xml:space="preserve">/etc/sysconfig/ntpd から、OPTIONSを検索。設定しない＝「-u」、設定する「-x」</t>
   </si>
   <si>
+    <t xml:space="preserve">snmp_trap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNMPトラップ情報</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'/etc/snmp/snmpd.confから、trapsink &lt;管理サーバ&gt; &lt;コミュニティ名&gt; &lt;ポート番号&gt; 行を検索</t>
+  </si>
+  <si>
     <t xml:space="preserve">sestatus</t>
   </si>
   <si>
@@ -989,6 +996,9 @@
     <t xml:space="preserve">Windows Update サービス</t>
   </si>
   <si>
+    <t xml:space="preserve">パッケージ情報取得</t>
+  </si>
+  <si>
     <t xml:space="preserve">システム暗号化</t>
   </si>
   <si>
@@ -1214,6 +1224,9 @@
     <t xml:space="preserve">RuleAP</t>
   </si>
   <si>
+    <t xml:space="preserve">RuleDB</t>
+  </si>
+  <si>
     <t xml:space="preserve">結果を比較する対象サーバ</t>
   </si>
   <si>
@@ -1226,7 +1239,76 @@
     <t xml:space="preserve">compare_source</t>
   </si>
   <si>
-    <t xml:space="preserve">結果を比較するソース。actual:実行結果から、local:nodeディレクトリから、db:データベースから </t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">結果を比較するソース。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">actual:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">実行結果から、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">local:node</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ディレクトリから、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">db:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">データベースから </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">actual</t>
@@ -1266,7 +1348,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1305,6 +1387,20 @@
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1403,12 +1499,12 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1433,43 +1529,55 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1485,23 +1593,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1525,18 +1625,18 @@
   </sheetPr>
   <dimension ref="B1:M19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A42:F42 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.5"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.9123711340206"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.3659793814433"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7731958762887"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.8247422680412"/>
     <col collapsed="false" hidden="false" max="8" min="4" style="0" width="13.3659793814433"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.2731958762887"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="7.5"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="7.3659793814433"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1555,7 +1655,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="78" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="52.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1623,273 +1723,405 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="65.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="65.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="3" t="s">
+      <c r="D7" s="4" t="str">
+        <f aca="false">IF(OR(D$5="Linux",D$5="Windows",D$5="VMHost"),"サーバ名を入力してください","")</f>
+        <v/>
+      </c>
+      <c r="E7" s="4" t="str">
+        <f aca="false">IF(OR(E$5="Linux",E$5="Windows",E$5="VMHost"),"サーバ名を入力してください","")</f>
+        <v/>
+      </c>
+      <c r="F7" s="4" t="str">
+        <f aca="false">IF(OR(F$5="Linux",F$5="Windows",F$5="VMHost"),"サーバ名を入力してください","")</f>
+        <v/>
+      </c>
+      <c r="G7" s="4" t="str">
+        <f aca="false">IF(OR(G$5="Linux",G$5="Windows",G$5="VMHost"),"サーバ名を入力してください","")</f>
+        <v/>
+      </c>
+      <c r="H7" s="4" t="str">
+        <f aca="false">IF(OR(H$5="Linux",H$5="Windows",H$5="VMHost"),"サーバ名を入力してください","")</f>
+        <v/>
+      </c>
+      <c r="I7" s="4" t="str">
+        <f aca="false">IF(OR(I$5="Linux",I$5="Windows",I$5="VMHost"),"サーバ名を入力してください","")</f>
+        <v/>
+      </c>
+      <c r="J7" s="4" t="str">
+        <f aca="false">IF(OR(J$5="Linux",J$5="Windows",J$5="VMHost"),"サーバ名を入力してください","")</f>
+        <v/>
+      </c>
+      <c r="K7" s="4" t="str">
+        <f aca="false">IF(OR(K$5="Linux",K$5="Windows",K$5="VMHost"),"サーバ名を入力してください","")</f>
+        <v/>
+      </c>
+      <c r="L7" s="4" t="str">
+        <f aca="false">IF(OR(L$5="Linux",L$5="Windows",L$5="VMHost"),"サーバ名を入力してください","")</f>
+        <v/>
+      </c>
+      <c r="M7" s="4" t="str">
+        <f aca="false">IF(OR(M$5="Linux",M$5="Windows",M$5="VMHost"),"サーバ名を入力してください","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D8" s="4" t="str">
+        <f aca="false">IF(OR(D$5="Linux",D$5="Windows",D$5="VMHost"),"IPアドレスを入力してください","")</f>
+        <v/>
+      </c>
+      <c r="E8" s="4" t="str">
+        <f aca="false">IF(OR(E$5="Linux",E$5="Windows",E$5="VMHost"),"IPアドレスを入力してください","")</f>
+        <v/>
+      </c>
+      <c r="F8" s="4" t="str">
+        <f aca="false">IF(OR(F$5="Linux",F$5="Windows",F$5="VMHost"),"IPアドレスを入力してください","")</f>
+        <v/>
+      </c>
+      <c r="G8" s="4" t="str">
+        <f aca="false">IF(OR(G$5="Linux",G$5="Windows",G$5="VMHost"),"IPアドレスを入力してください","")</f>
+        <v/>
+      </c>
+      <c r="H8" s="4" t="str">
+        <f aca="false">IF(OR(H$5="Linux",H$5="Windows",H$5="VMHost"),"IPアドレスを入力してください","")</f>
+        <v/>
+      </c>
+      <c r="I8" s="4" t="str">
+        <f aca="false">IF(OR(I$5="Linux",I$5="Windows",I$5="VMHost"),"IPアドレスを入力してください","")</f>
+        <v/>
+      </c>
+      <c r="J8" s="4" t="str">
+        <f aca="false">IF(OR(J$5="Linux",J$5="Windows",J$5="VMHost"),"IPアドレスを入力してください","")</f>
+        <v/>
+      </c>
+      <c r="K8" s="4" t="str">
+        <f aca="false">IF(OR(K$5="Linux",K$5="Windows",K$5="VMHost"),"IPアドレスを入力してください","")</f>
+        <v/>
+      </c>
+      <c r="L8" s="4" t="str">
+        <f aca="false">IF(OR(L$5="Linux",L$5="Windows",L$5="VMHost"),"IPアドレスを入力してください","")</f>
+        <v/>
+      </c>
+      <c r="M8" s="4" t="str">
+        <f aca="false">IF(OR(M$5="Linux",M$5="Windows",M$5="VMHost"),"IPアドレスを入力してください","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="65.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="65.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D9" s="4" t="str">
+        <f aca="false">IF(OR(D$5="Linux",D$5="Windows",D$5="VMHost"),"OSアカウントIDを入力してください","")</f>
+        <v/>
+      </c>
+      <c r="E9" s="4" t="str">
+        <f aca="false">IF(OR(E$5="Linux",E$5="Windows",E$5="VMHost"),"OSアカウントIDを入力してください","")</f>
+        <v/>
+      </c>
+      <c r="F9" s="4" t="str">
+        <f aca="false">IF(OR(F$5="Linux",F$5="Windows",F$5="VMHost"),"OSアカウントIDを入力してください","")</f>
+        <v/>
+      </c>
+      <c r="G9" s="4" t="str">
+        <f aca="false">IF(OR(G$5="Linux",G$5="Windows",G$5="VMHost"),"OSアカウントIDを入力してください","")</f>
+        <v/>
+      </c>
+      <c r="H9" s="4" t="str">
+        <f aca="false">IF(OR(H$5="Linux",H$5="Windows",H$5="VMHost"),"OSアカウントIDを入力してください","")</f>
+        <v/>
+      </c>
+      <c r="I9" s="4" t="str">
+        <f aca="false">IF(OR(I$5="Linux",I$5="Windows",I$5="VMHost"),"OSアカウントIDを入力してください","")</f>
+        <v/>
+      </c>
+      <c r="J9" s="4" t="str">
+        <f aca="false">IF(OR(J$5="Linux",J$5="Windows",J$5="VMHost"),"OSアカウントIDを入力してください","")</f>
+        <v/>
+      </c>
+      <c r="K9" s="4" t="str">
+        <f aca="false">IF(OR(K$5="Linux",K$5="Windows",K$5="VMHost"),"OSアカウントIDを入力してください","")</f>
+        <v/>
+      </c>
+      <c r="L9" s="4" t="str">
+        <f aca="false">IF(OR(L$5="Linux",L$5="Windows",L$5="VMHost"),"OSアカウントIDを入力してください","")</f>
+        <v/>
+      </c>
+      <c r="M9" s="4" t="str">
+        <f aca="false">IF(OR(M$5="Linux",M$5="Windows",M$5="VMHost"),"OSアカウントIDを入力してください","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="52.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" customFormat="false" ht="52.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="3" t="s">
+      <c r="D10" s="4" t="str">
+        <f aca="false">IF(OR(D$6="VM"),"vCenterアカウントIDを入力してください","")</f>
+        <v/>
+      </c>
+      <c r="E10" s="4" t="str">
+        <f aca="false">IF(OR(E$6="VM"),"vCenterアカウントIDを入力してください","")</f>
+        <v/>
+      </c>
+      <c r="F10" s="4" t="str">
+        <f aca="false">IF(OR(F$6="VM"),"vCenterアカウントIDを入力してください","")</f>
+        <v/>
+      </c>
+      <c r="G10" s="4" t="str">
+        <f aca="false">IF(OR(G$6="VM"),"vCenterアカウントIDを入力してください","")</f>
+        <v/>
+      </c>
+      <c r="H10" s="4" t="str">
+        <f aca="false">IF(OR(H$6="VM"),"vCenterアカウントIDを入力してください","")</f>
+        <v/>
+      </c>
+      <c r="I10" s="4" t="str">
+        <f aca="false">IF(OR(I$6="VM"),"vCenterアカウントIDを入力してください","")</f>
+        <v/>
+      </c>
+      <c r="J10" s="4" t="str">
+        <f aca="false">IF(OR(J$6="VM"),"vCenterアカウントIDを入力してください","")</f>
+        <v/>
+      </c>
+      <c r="K10" s="4" t="str">
+        <f aca="false">IF(OR(K$6="VM"),"vCenterアカウントIDを入力してください","")</f>
+        <v/>
+      </c>
+      <c r="L10" s="4" t="str">
+        <f aca="false">IF(OR(L$6="VM"),"vCenterアカウントIDを入力してください","")</f>
+        <v/>
+      </c>
+      <c r="M10" s="4" t="str">
+        <f aca="false">IF(OR(M$6="VM"),"vCenterアカウントIDを入力してください","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="3" t="s">
+      <c r="D11" s="4" t="str">
+        <f aca="false">IF(OR(D$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
+        <v/>
+      </c>
+      <c r="E11" s="4" t="str">
+        <f aca="false">IF(OR(E$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
+        <v/>
+      </c>
+      <c r="F11" s="4" t="str">
+        <f aca="false">IF(OR(F$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
+        <v/>
+      </c>
+      <c r="G11" s="4" t="str">
+        <f aca="false">IF(OR(G$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
+        <v/>
+      </c>
+      <c r="H11" s="4" t="str">
+        <f aca="false">IF(OR(H$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
+        <v/>
+      </c>
+      <c r="I11" s="4" t="str">
+        <f aca="false">IF(OR(I$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
+        <v/>
+      </c>
+      <c r="J11" s="4" t="str">
+        <f aca="false">IF(OR(J$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
+        <v/>
+      </c>
+      <c r="K11" s="4" t="str">
+        <f aca="false">IF(OR(K$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
+        <v/>
+      </c>
+      <c r="L11" s="4" t="str">
+        <f aca="false">IF(OR(L$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
+        <v/>
+      </c>
+      <c r="M11" s="4" t="str">
+        <f aca="false">IF(OR(M$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="3" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="3"/>
+      <c r="C14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="3" t="s">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="3"/>
-      <c r="C13" s="4" t="s">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="6" t="s">
+      <c r="C16" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="6" t="s">
+      <c r="C17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="3" t="s">
+      <c r="C18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="3"/>
@@ -1909,6 +2141,16 @@
   <mergeCells count="1">
     <mergeCell ref="B2:M2"/>
   </mergeCells>
+  <dataValidations count="2">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D5:M5" type="list">
+      <formula1>"選択してください,Linux,Windows,VMHost"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D6:M6" type="list">
+      <formula1>"選択してください,オンプレ,VM"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1924,1290 +2166,1328 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C37" activeCellId="1" sqref="A42:F42 C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.5"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.3659793814433"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3659793814433"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.9587628865979"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.41237113402062"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.41237113402062"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="54.8247422680412"/>
     <col collapsed="false" hidden="false" max="10" min="7" style="0" width="13.3659793814433"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="7.5"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="7.3659793814433"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="F4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="8" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="D5" s="9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="8" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13"/>
+      <c r="B6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="8" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13"/>
+      <c r="B7" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9" t="s">
+      <c r="C7" s="9" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10"/>
-      <c r="B6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="D7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13"/>
+      <c r="B8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10"/>
-      <c r="B7" s="8" t="s">
+      <c r="D8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="8" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13"/>
+      <c r="B9" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9" t="s">
+      <c r="C9" s="9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10"/>
-      <c r="B8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="D9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13"/>
+      <c r="B10" s="9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10"/>
-      <c r="B9" s="8" t="s">
+      <c r="C10" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10"/>
-      <c r="B10" s="8" t="s">
+      <c r="C11" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="D11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="D12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="8" t="s">
+      <c r="C13" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="8" t="s">
+      <c r="C14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="8" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9" t="s">
+      <c r="C15" s="9" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="9" t="s">
+      <c r="D15" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="8" t="s">
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C16" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9" t="s">
+      <c r="D16" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="8" t="s">
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C17" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9" t="s">
+      <c r="D17" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="8" t="s">
+      <c r="C18" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="D18" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="8" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C19" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9" t="s">
+      <c r="D19" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="12" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="8" t="s">
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="13"/>
+      <c r="B20" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C20" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9" t="s">
+      <c r="D20" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="12" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10"/>
-      <c r="B20" s="8" t="s">
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13"/>
+      <c r="B21" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C21" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9" t="s">
+      <c r="D21" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10"/>
-      <c r="B21" s="8" t="s">
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="13"/>
+      <c r="B22" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C22" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9" t="s">
+      <c r="D22" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="12" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10"/>
-      <c r="B22" s="8" t="s">
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="13"/>
+      <c r="B23" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C23" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9" t="s">
+      <c r="D23" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10"/>
-      <c r="B23" s="8" t="s">
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="13"/>
+      <c r="B24" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C24" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9" t="s">
+      <c r="D24" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10"/>
-      <c r="B24" s="8" t="s">
+    <row r="25" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C25" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9" t="s">
+      <c r="D25" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="8" t="s">
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C26" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="9" t="s">
+      <c r="D26" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="12" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="8" t="s">
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="13"/>
+      <c r="B27" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C27" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="9" t="s">
+      <c r="D27" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10"/>
-      <c r="B27" s="8" t="s">
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="13"/>
+      <c r="B28" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C28" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="9" t="s">
+      <c r="D28" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10"/>
-      <c r="B28" s="8" t="s">
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C29" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="9" t="s">
+      <c r="D29" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="12" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="8" t="s">
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="13"/>
+      <c r="B30" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C30" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F29" s="9" t="s">
+      <c r="D30" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="12" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10"/>
-      <c r="B30" s="8" t="s">
+    <row r="31" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C31" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="9" t="s">
+      <c r="D31" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="12" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="8" t="s">
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C32" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="9" t="s">
+      <c r="D32" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="12" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="8" t="s">
+    <row r="33" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C33" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="9" t="s">
+      <c r="D33" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" s="8" t="s">
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="13"/>
+      <c r="B34" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C34" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F33" s="9" t="s">
+      <c r="D34" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="12" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10"/>
-      <c r="B34" s="8" t="s">
+    <row r="35" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="B35" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="9" t="s">
+      <c r="C35" s="9" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10" t="s">
+      <c r="D35" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="B35" s="8" t="s">
+    </row>
+    <row r="36" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C36" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D35" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="9" t="s">
+      <c r="D36" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="12" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="8" t="s">
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C37" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="D36" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="9" t="s">
+      <c r="D37" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" s="12" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="8" t="s">
+    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="13"/>
+      <c r="B38" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C38" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F37" s="9" t="s">
+      <c r="D38" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="12" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10"/>
-      <c r="B38" s="8" t="s">
+    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="13"/>
+      <c r="B39" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C39" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="9" t="s">
+      <c r="D39" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="12" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10"/>
-      <c r="B39" s="8" t="s">
+    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C40" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D39" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="9" t="s">
+      <c r="D40" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="12" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8" t="s">
+    <row r="41" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C41" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="9" t="s">
+      <c r="D41" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="12" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="8" t="s">
+    <row r="42" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C42" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="D41" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="9" t="s">
+      <c r="D42" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F42" s="12" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="8" t="s">
+    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C43" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="D42" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F42" s="9" t="s">
+      <c r="D43" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F43" s="12" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8" t="s">
+    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C44" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="9" t="s">
+      <c r="D44" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="9"/>
+      <c r="F44" s="12" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="3" t="s">
+    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="4" t="s">
+      <c r="D45" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" s="8" t="s">
+    <row r="46" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C46" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="D45" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" s="8"/>
-      <c r="F45" s="9" t="s">
+      <c r="D46" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="9"/>
+      <c r="F46" s="12" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46" s="8" t="s">
+    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C47" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="D46" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" s="8"/>
-      <c r="F46" s="9" t="s">
+      <c r="D47" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="9"/>
+      <c r="F47" s="12" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B47" s="8" t="s">
+    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C48" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="D47" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F47" s="9" t="s">
+      <c r="D48" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F48" s="12" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8" t="s">
+    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C49" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="D48" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" s="8"/>
-      <c r="F48" s="9" t="s">
+      <c r="D49" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="9"/>
+      <c r="F49" s="12" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8" t="s">
+    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="9"/>
+      <c r="B50" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C50" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="D49" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="9" t="s">
+      <c r="D50" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="9"/>
+      <c r="F50" s="12" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8" t="s">
+    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C51" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="D50" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="9" t="s">
+      <c r="D51" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="9"/>
+      <c r="F51" s="12" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8" t="s">
+    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="9"/>
+      <c r="B52" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C52" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="D51" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="9" t="s">
+      <c r="D52" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="9"/>
+      <c r="F52" s="12" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8" t="s">
+    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="9"/>
+      <c r="B53" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C53" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="D52" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="8"/>
-      <c r="F52" s="9" t="s">
+      <c r="D53" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="9"/>
+      <c r="F53" s="12" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8" t="s">
+    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C54" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="D53" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" s="8"/>
-      <c r="F53" s="9" t="s">
+      <c r="D54" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="9"/>
+      <c r="F54" s="12" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8" t="s">
+    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="9"/>
+      <c r="B55" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C55" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="D54" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" s="8"/>
-      <c r="F54" s="9" t="s">
+      <c r="D55" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="9"/>
+      <c r="F55" s="12" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B55" s="8" t="s">
+    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C56" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="D55" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F55" s="9" t="s">
+      <c r="D56" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F56" s="12" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8" t="s">
+    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C57" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="D56" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56" s="8"/>
-      <c r="F56" s="9" t="s">
+      <c r="D57" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="9"/>
+      <c r="F57" s="12" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8" t="s">
+    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C58" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="D57" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57" s="8"/>
-      <c r="F57" s="9" t="s">
+      <c r="D58" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="9"/>
+      <c r="F58" s="12" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8" t="s">
+    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="9"/>
+      <c r="B59" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C59" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="D58" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" s="8"/>
-      <c r="F58" s="9" t="s">
+      <c r="D59" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="9"/>
+      <c r="F59" s="12" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8" t="s">
+    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="9"/>
+      <c r="B60" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C60" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="D59" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" s="8"/>
-      <c r="F59" s="9" t="s">
+      <c r="D60" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="9"/>
+      <c r="F60" s="12" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8" t="s">
+    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="9"/>
+      <c r="B61" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C61" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="D60" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" s="8"/>
-      <c r="F60" s="9" t="s">
+      <c r="D61" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="9"/>
+      <c r="F61" s="12" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8" t="s">
+    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="9"/>
+      <c r="B62" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C62" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="D61" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" s="8"/>
-      <c r="F61" s="9" t="s">
+      <c r="D62" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="9"/>
+      <c r="F62" s="12" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10" t="s">
+    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="13"/>
+      <c r="B63" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C63" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="D62" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E62" s="10"/>
-      <c r="F62" s="9" t="s">
+      <c r="D63" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="13"/>
+      <c r="F63" s="12" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10" t="s">
+    <row r="64" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="13"/>
+      <c r="B64" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C64" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="D63" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E63" s="10"/>
-      <c r="F63" s="9" t="s">
+      <c r="D64" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="13"/>
+      <c r="F64" s="12" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B64" s="10" t="s">
+    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B65" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C65" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="D64" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E64" s="10"/>
-      <c r="F64" s="9" t="s">
+      <c r="D65" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="13"/>
+      <c r="F65" s="12" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B65" s="10" t="s">
+    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B66" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C66" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="D65" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E65" s="10"/>
-      <c r="F65" s="9" t="s">
+      <c r="D66" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="13"/>
+      <c r="F66" s="12" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B66" s="10" t="s">
+    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C67" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="D66" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E66" s="10"/>
-      <c r="F66" s="9" t="s">
+      <c r="D67" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="13"/>
+      <c r="F67" s="12" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B67" s="10" t="s">
+    <row r="68" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B68" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C68" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="D67" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E67" s="10"/>
-      <c r="F67" s="9" t="s">
+      <c r="D68" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="13"/>
+      <c r="F68" s="12" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B68" s="10" t="s">
+    <row r="69" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C69" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="D68" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E68" s="10"/>
-      <c r="F68" s="9" t="s">
+      <c r="D69" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="13"/>
+      <c r="F69" s="12" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="10"/>
-      <c r="B69" s="10" t="s">
+    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="13"/>
+      <c r="B70" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C70" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="D69" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E69" s="10"/>
-      <c r="F69" s="9" t="s">
+      <c r="D70" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="13"/>
+      <c r="F70" s="12" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B70" s="10" t="s">
+    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B71" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C71" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="D70" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E70" s="11"/>
-      <c r="F70" s="12" t="s">
+      <c r="D71" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="14"/>
+      <c r="F71" s="15" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B71" s="8" t="s">
+    <row r="72" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B72" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C72" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="D71" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E71" s="8"/>
-      <c r="F71" s="9" t="s">
+      <c r="D72" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="9"/>
+      <c r="F72" s="12" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B72" s="8" t="s">
+    <row r="73" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C73" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="D72" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E72" s="8"/>
-      <c r="F72" s="9" t="s">
+      <c r="D73" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="9"/>
+      <c r="F73" s="12" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="8"/>
-      <c r="B73" s="8" t="s">
+    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B74" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C74" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="D73" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E73" s="8"/>
-      <c r="F73" s="9" t="s">
+      <c r="D74" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="9"/>
+      <c r="F74" s="12" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B74" s="8" t="s">
+    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="9"/>
+      <c r="B75" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C75" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="D74" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E74" s="8"/>
-      <c r="F74" s="9" t="s">
+      <c r="D75" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="9"/>
+      <c r="F75" s="12" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B75" s="8" t="s">
+    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B76" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C76" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="D75" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E75" s="8"/>
-      <c r="F75" s="9" t="s">
+      <c r="D76" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="9"/>
+      <c r="F76" s="12" t="s">
         <v>253</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="9"/>
+      <c r="F77" s="12" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -3226,613 +3506,613 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A42" activeCellId="0" sqref="A42:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.5"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.3659793814433"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3659793814433"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.639175257732"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.5051546391753"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.4123711340206"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.41237113402062"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="55.3711340206186"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="7.5"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.3659793814433"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="7.3659793814433"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="A2" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="3" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="3" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13"/>
+      <c r="B6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="3" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13"/>
+      <c r="B7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="9" t="s">
+      <c r="C7" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10"/>
-      <c r="B6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="D7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="9" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13"/>
+      <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10"/>
-      <c r="B7" s="3" t="s">
+      <c r="D8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="3" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13"/>
+      <c r="B9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="9" t="s">
+      <c r="C9" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10"/>
-      <c r="B8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="D9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="9" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13"/>
+      <c r="B10" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10"/>
-      <c r="B9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="9" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10"/>
-      <c r="B10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="9" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="9" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="9" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="C14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
-        <v>42</v>
+      <c r="A15" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="12" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13"/>
+      <c r="B16" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="9" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10"/>
-      <c r="B16" s="3" t="s">
+      <c r="D16" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="13"/>
+      <c r="B17" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="9" t="s">
+      <c r="D17" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10"/>
-      <c r="B17" s="3" t="s">
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13"/>
+      <c r="B18" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="9" t="s">
+      <c r="C18" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="12" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10"/>
-      <c r="B18" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
-        <v>42</v>
+      <c r="A19" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>255</v>
-      </c>
       <c r="E19" s="3"/>
-      <c r="F19" s="9" t="s">
-        <v>259</v>
+      <c r="F19" s="12" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="3" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13"/>
+      <c r="B21" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="13"/>
+      <c r="B22" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10"/>
-      <c r="B21" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="9" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10"/>
-      <c r="B22" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10" t="s">
-        <v>42</v>
+      <c r="A23" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="9" t="s">
-        <v>269</v>
+      <c r="F23" s="12" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="3" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="4" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="3" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="4" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="3" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="4" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="4" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="9" t="s">
-        <v>284</v>
+      <c r="F28" s="12" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="4" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="4" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="4" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="4" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10" t="s">
-        <v>42</v>
+      <c r="A33" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>299</v>
+        <v>38</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10" t="s">
-        <v>42</v>
+      <c r="A34" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>301</v>
+        <v>38</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="15" t="s">
-        <v>304</v>
+      <c r="A35" s="16"/>
+      <c r="B35" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="E35" s="17"/>
+      <c r="F35" s="18" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="15" t="s">
-        <v>307</v>
+      <c r="A36" s="16"/>
+      <c r="B36" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="E36" s="17"/>
+      <c r="F36" s="18" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10" t="s">
-        <v>42</v>
+      <c r="A37" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>152</v>
@@ -3841,18 +4121,18 @@
         <v>153</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>308</v>
+        <v>38</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>158</v>
@@ -3861,16 +4141,16 @@
         <v>159</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10" t="s">
-        <v>42</v>
+      <c r="A39" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>167</v>
@@ -3879,254 +4159,274 @@
         <v>168</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>310</v>
+        <v>38</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="15" t="s">
-        <v>313</v>
+      <c r="A40" s="16"/>
+      <c r="B40" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="E40" s="17"/>
+      <c r="F40" s="18" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="13"/>
-      <c r="B41" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="E41" s="14"/>
-      <c r="F41" s="15" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="3" t="s">
+      <c r="A41" s="16"/>
+      <c r="B41" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="E41" s="17"/>
+      <c r="F41" s="18" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="9" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="C43" s="3" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="10" t="s">
-        <v>42</v>
+        <v>258</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="12" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>321</v>
+        <v>109</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>323</v>
+        <v>38</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="10" t="s">
-        <v>42</v>
+      <c r="A45" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="9" t="s">
-        <v>326</v>
+        <v>258</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="10" t="s">
-        <v>42</v>
+      <c r="A46" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>329</v>
+        <v>258</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="12" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="10" t="s">
-        <v>42</v>
+      <c r="A47" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="12" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="C48" s="3" t="s">
+    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="9" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>335</v>
-      </c>
       <c r="D49" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E49" s="3"/>
-      <c r="F49" s="9" t="s">
-        <v>336</v>
+      <c r="F49" s="12" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="10" t="s">
-        <v>42</v>
+      <c r="A50" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="12" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="9" t="s">
+      <c r="C51" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" s="12" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="10"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="9"/>
-    </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="9"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="12"/>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="9"/>
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="12"/>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="9"/>
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="12"/>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="9"/>
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="12"/>
+    </row>
+    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4147,420 +4447,420 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A42:F42 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.63917525773196"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.5"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.2783505154639"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.0463917525773"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.91237113402062"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.9123711340206"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.77319587628866"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.3659793814433"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="49.7783505154639"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="7.91237113402062"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="49.6443298969072"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="7.77319587628866"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5"/>
       <c r="B7" s="3" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5"/>
       <c r="B8" s="3" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5"/>
       <c r="B9" s="3" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4768,8 +5068,8 @@
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="17"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="20"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4790,365 +5090,365 @@
   <dimension ref="A4:F26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="A42:F42 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.5"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.3659793814433"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3659793814433"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.9587628865979"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.41237113402062"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.0927835051546"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.2319587628866"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="7.5"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="7.3659793814433"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="21"/>
+      <c r="B5" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="24" t="s">
+        <v>398</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="49.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="21"/>
+      <c r="B6" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="21"/>
+      <c r="B7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="18"/>
-      <c r="B5" s="20" t="s">
+      <c r="C7" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="52.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="21"/>
+      <c r="B8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>392</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23" t="s">
-        <v>393</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="49.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="18"/>
-      <c r="B6" s="20" t="s">
-        <v>395</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>396</v>
-      </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" customFormat="false" ht="52.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19" t="s">
+      <c r="C8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="52.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="21"/>
+      <c r="B9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="52.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19" t="s">
+      <c r="D9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="21"/>
+      <c r="B10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>402</v>
+      <c r="D10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="21"/>
+      <c r="B12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19" t="s">
+      <c r="D12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="21"/>
+      <c r="B13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+      <c r="D13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="52.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="18"/>
-      <c r="B14" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>404</v>
+      <c r="A14" s="21"/>
+      <c r="B14" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="21"/>
+      <c r="B17" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="18"/>
-      <c r="B17" s="19" t="s">
+      <c r="D17" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="21"/>
+      <c r="B18" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="21"/>
+      <c r="B19" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="21"/>
+      <c r="B20" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C20" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19" t="s">
-        <v>405</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="18"/>
-      <c r="B20" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="D20" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19" t="s">
+      <c r="A21" s="21"/>
+      <c r="B21" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19" t="s">
+      <c r="A24" s="21"/>
+      <c r="B24" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
+      <c r="C24" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="18"/>
-      <c r="B26" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="C26" s="8" t="s">
+      <c r="A26" s="21"/>
+      <c r="B26" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
+      <c r="D26" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/check_sheet.xlsx
+++ b/check_sheet.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Target" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="CheckSheet(Linux)" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="CheckSheet(Windows)" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="CheckSheet(VMHost)" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Rule" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Target" sheetId="1" r:id="rId1"/>
+    <sheet name="CheckSheet(Linux)" sheetId="2" r:id="rId2"/>
+    <sheet name="CheckSheet(Windows)" sheetId="3" r:id="rId3"/>
+    <sheet name="CheckSheet(VMHost)" sheetId="4" r:id="rId4"/>
+    <sheet name="Rule" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,9 +23,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="412">
-  <si>
-    <t xml:space="preserve">* 5行目、D列以降のセルに検査対象サーバ接続情報を入力してください。'server_name'と'platform'は必須です。</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="432">
+  <si>
+    <t>* 5行目、D列以降のセルに検査対象サーバ接続情報を入力してください。'server_name'と'platform'は必須です。</t>
   </si>
   <si>
     <t xml:space="preserve">* はじめに 1行目の「platform」,2行目の「virtualization」のセルを選択してください 
@@ -35,1208 +34,1208 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">項目ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">定義</t>
-  </si>
-  <si>
-    <t xml:space="preserve">platform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">チェックシートのID。検査対象がESXiホストの場合は'VMHost'を、ゲストOSの場合は、'Windows'または'Linux'を記入。設定ファイル内evidence.sheet_name_specのIDを指定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">virtualization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'VM’か’オンプレサーバ’かを選択</t>
-  </si>
-  <si>
-    <t xml:space="preserve">server_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">検査対象サーバ名。検査シート内で一意となる名称を記入してください。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSH接続、PowerShell内コマンドで接続するIPアドレス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">os_account_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ローカル採取で使用するアカウントID。OSの情報採取の場合、対象サーバのOSアカウントを指定し、設定ファイル内パラメータaccount.{ドメイン}.{ID}のIDを指定する。リモート採取の場合は未記入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remote_account_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">リモート採取で使用するアカウントID。vCenterサーバなどリモートから情報採取をする場合のリモートのアカウントIDを指定する。ローカル採取の場合は未記入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remote_alias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">リモート採取をする場合の、検査対象サーバ名のエイリアス名。vCenterの場合、vm名。ローカル採取の場合は未記入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">シート「検証ルール」のIDを指定。検証が不要な場合は未記入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compare_server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">比較対象サーバ名。verify_idの入力が必須。未記入の場合はverify_idで指定した検査ルールの比較対象サーバ設定が既定値になる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">以降の行はユーザ定義パラメータの指定行となり、検査コード、検査ルールからserver_info['項目ID']パラメータで値を参照します</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NumCpu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPU割り当て数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MemoryGB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メモリ割り当て</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESXiHost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESXiホスト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HDDType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージ構成</t>
+    <t>項目ID</t>
+  </si>
+  <si>
+    <t>定義</t>
+  </si>
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>チェックシートのID。検査対象がESXiホストの場合は'VMHost'を、ゲストOSの場合は、'Windows'または'Linux'を記入。設定ファイル内evidence.sheet_name_specのIDを指定</t>
+  </si>
+  <si>
+    <t>virtualization</t>
+  </si>
+  <si>
+    <t>'VM’か’オンプレサーバ’かを選択</t>
+  </si>
+  <si>
+    <t>server_name</t>
+  </si>
+  <si>
+    <t>検査対象サーバ名。検査シート内で一意となる名称を記入してください。</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>SSH接続、PowerShell内コマンドで接続するIPアドレス</t>
+  </si>
+  <si>
+    <t>os_account_id</t>
+  </si>
+  <si>
+    <t>ローカル採取で使用するアカウントID。OSの情報採取の場合、対象サーバのOSアカウントを指定し、設定ファイル内パラメータaccount.{ドメイン}.{ID}のIDを指定する。リモート採取の場合は未記入</t>
+  </si>
+  <si>
+    <t>remote_account_id</t>
+  </si>
+  <si>
+    <t>リモート採取で使用するアカウントID。vCenterサーバなどリモートから情報採取をする場合のリモートのアカウントIDを指定する。ローカル採取の場合は未記入</t>
+  </si>
+  <si>
+    <t>remote_alias</t>
+  </si>
+  <si>
+    <t>リモート採取をする場合の、検査対象サーバ名のエイリアス名。vCenterの場合、vm名。ローカル採取の場合は未記入</t>
+  </si>
+  <si>
+    <t>verify_id</t>
+  </si>
+  <si>
+    <t>シート「検証ルール」のIDを指定。検証が不要な場合は未記入</t>
+  </si>
+  <si>
+    <t>compare_server</t>
+  </si>
+  <si>
+    <t>比較対象サーバ名。verify_idの入力が必須。未記入の場合はverify_idで指定した検査ルールの比較対象サーバ設定が既定値になる</t>
+  </si>
+  <si>
+    <t>以降の行はユーザ定義パラメータの指定行となり、検査コード、検査ルールからserver_info['項目ID']パラメータで値を参照します</t>
+  </si>
+  <si>
+    <t>NumCpu</t>
+  </si>
+  <si>
+    <t>CPU割り当て数</t>
+  </si>
+  <si>
+    <t>MemoryGB</t>
+  </si>
+  <si>
+    <t>メモリ割り当て</t>
+  </si>
+  <si>
+    <t>ESXiHost</t>
+  </si>
+  <si>
+    <t>ESXiホスト</t>
+  </si>
+  <si>
+    <t>HDDType</t>
+  </si>
+  <si>
+    <t>ストレージ構成</t>
   </si>
   <si>
     <t xml:space="preserve">* IDが "filesystem.*", "user.*", "service.*", "packages.*" の行はカスタム項目となります。システム構成／要件に合わせて項目の削除、追加、変更をしてください。  </t>
   </si>
   <si>
-    <t xml:space="preserve">Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">項目</t>
-  </si>
-  <si>
-    <t xml:space="preserve">分類</t>
-  </si>
-  <si>
-    <t xml:space="preserve">デバイス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">採取情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare リソース</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vCenter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare CPU,メモリ割り当て、 電源On-Off、ホストIPの検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─CPU割り当て数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">仮想マシンのCPU仮想ソケット数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PowerState</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─電源状態</t>
-  </si>
-  <si>
-    <t xml:space="preserve">電源On/Off</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─メモリ割り当て</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メモリ割り当てサイズ[GB]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMHost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ESXiホスト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESXiホスト名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cluster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─クラスター</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vCenterクラスタ名、vCenter構成でない場合は未記入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vmwaretool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare ツール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare ツールの有無、アップグレードの検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vm_timesync</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare 時刻同期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare 時刻同期の有無</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vm_iops_limit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージIOPS制限</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージリソースのIOPS制限値を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vm_storage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージ構成情報検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hostname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ホスト名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ホスト名の検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hostname_fqdn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FQDN名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FQDN名の検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OSカーネル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lsb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OSバージョン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linux OSディストリビューション情報 を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPU情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/proc/cpuinfo を検索してプロセッサ構成を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">model_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─プロセッサーモデル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPUプロセッサーモデル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mhz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─CPUクロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPUクロック数[MHz]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpu_total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─CPUスレッド数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPUスレッド数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpu_core</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─CPUコア数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPUコア数。VMの場合は未記入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpu_real</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─CPUソケット数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPUソケット数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">machineid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">サーバの識別子</t>
-  </si>
-  <si>
-    <t xml:space="preserve">以下のファイルを検索してマシンの識別子を検索
+    <t>Test</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>項目</t>
+  </si>
+  <si>
+    <t>分類</t>
+  </si>
+  <si>
+    <t>デバイス</t>
+  </si>
+  <si>
+    <t>採取情報</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>vm</t>
+  </si>
+  <si>
+    <t>VMWare リソース</t>
+  </si>
+  <si>
+    <t>vCenter</t>
+  </si>
+  <si>
+    <t>VMWare CPU,メモリ割り当て、 電源On-Off、ホストIPの検索</t>
+  </si>
+  <si>
+    <t>├─CPU割り当て数</t>
+  </si>
+  <si>
+    <t>仮想マシンのCPU仮想ソケット数</t>
+  </si>
+  <si>
+    <t>PowerState</t>
+  </si>
+  <si>
+    <t>├─電源状態</t>
+  </si>
+  <si>
+    <t>電源On/Off</t>
+  </si>
+  <si>
+    <t>├─メモリ割り当て</t>
+  </si>
+  <si>
+    <t>メモリ割り当てサイズ[GB]</t>
+  </si>
+  <si>
+    <t>VMHost</t>
+  </si>
+  <si>
+    <t>├─ESXiホスト</t>
+  </si>
+  <si>
+    <t>ESXiホスト名</t>
+  </si>
+  <si>
+    <t>Cluster</t>
+  </si>
+  <si>
+    <t>└─クラスター</t>
+  </si>
+  <si>
+    <t>vCenterクラスタ名、vCenter構成でない場合は未記入</t>
+  </si>
+  <si>
+    <t>vmwaretool</t>
+  </si>
+  <si>
+    <t>VMWare ツール</t>
+  </si>
+  <si>
+    <t>VMWare ツールの有無、アップグレードの検索</t>
+  </si>
+  <si>
+    <t>vm_timesync</t>
+  </si>
+  <si>
+    <t>VMWare 時刻同期</t>
+  </si>
+  <si>
+    <t>VMWare 時刻同期の有無</t>
+  </si>
+  <si>
+    <t>vm_iops_limit</t>
+  </si>
+  <si>
+    <t>ストレージIOPS制限</t>
+  </si>
+  <si>
+    <t>ストレージリソースのIOPS制限値を検索</t>
+  </si>
+  <si>
+    <t>vm_storage</t>
+  </si>
+  <si>
+    <t>ストレージ構成情報検索</t>
+  </si>
+  <si>
+    <t>hostname</t>
+  </si>
+  <si>
+    <t>ホスト名</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>ホスト名の検索</t>
+  </si>
+  <si>
+    <t>hostname_fqdn</t>
+  </si>
+  <si>
+    <t>FQDN名</t>
+  </si>
+  <si>
+    <t>FQDN名の検索</t>
+  </si>
+  <si>
+    <t>uname</t>
+  </si>
+  <si>
+    <t>OSカーネル</t>
+  </si>
+  <si>
+    <t>lsb</t>
+  </si>
+  <si>
+    <t>OSバージョン</t>
+  </si>
+  <si>
+    <t>Linux OSディストリビューション情報 を検索</t>
+  </si>
+  <si>
+    <t>cpu</t>
+  </si>
+  <si>
+    <t>CPU情報</t>
+  </si>
+  <si>
+    <t>/proc/cpuinfo を検索してプロセッサ構成を検索</t>
+  </si>
+  <si>
+    <t>model_name</t>
+  </si>
+  <si>
+    <t>├─プロセッサーモデル</t>
+  </si>
+  <si>
+    <t>CPUプロセッサーモデル</t>
+  </si>
+  <si>
+    <t>mhz</t>
+  </si>
+  <si>
+    <t>├─CPUクロック</t>
+  </si>
+  <si>
+    <t>CPUクロック数[MHz]</t>
+  </si>
+  <si>
+    <t>cpu_total</t>
+  </si>
+  <si>
+    <t>├─CPUスレッド数</t>
+  </si>
+  <si>
+    <t>CPUスレッド数</t>
+  </si>
+  <si>
+    <t>cpu_core</t>
+  </si>
+  <si>
+    <t>├─CPUコア数</t>
+  </si>
+  <si>
+    <t>CPUコア数。VMの場合は未記入</t>
+  </si>
+  <si>
+    <t>cpu_real</t>
+  </si>
+  <si>
+    <t>└─CPUソケット数</t>
+  </si>
+  <si>
+    <t>CPUソケット数</t>
+  </si>
+  <si>
+    <t>machineid</t>
+  </si>
+  <si>
+    <t>サーバの識別子</t>
+  </si>
+  <si>
+    <t>以下のファイルを検索してマシンの識別子を検索
     /etc/machine-id
     /var/lib/dbus/machine-id</t>
   </si>
   <si>
-    <t xml:space="preserve">meminfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メモリ情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"/proc/meminfo" ファイルを検索してメモリ構成を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mem_total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─搭載メモリ量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">物理搭載メモリ量[KB]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mem_free</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─メモリ空容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メモリ空き容量[KB]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワーク情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/sbin/ip addr'コマンドでネットワークデバイスリストを検索。詳細は別シートに登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hw_address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─MACアドレス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MACアドレス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">net_onboot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワークブート</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/etc/sysconfig/network-scripts下のファイルを検索してネットワークブート情報検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">net_route</t>
-  </si>
-  <si>
-    <t xml:space="preserve">デフォルトゲートウェイ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/sbin/ip route'コマンドを実行してデフォルトゲートウェイアドレスを検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">net_bond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NICの冗長化(bonding設定)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/etc/sysconfig/network-scripts/*-bond*ファイルを検索してNIC冗長設定情報検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">net_bond_opts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─bonding設定オプション</t>
-  </si>
-  <si>
-    <t xml:space="preserve">動作モード(mode),MII監視間隔(miimon),リンクアップ遅延(updelay)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">block_device</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージデバイス</t>
+    <t>meminfo</t>
+  </si>
+  <si>
+    <t>メモリ情報</t>
+  </si>
+  <si>
+    <t>"/proc/meminfo" ファイルを検索してメモリ構成を検索</t>
+  </si>
+  <si>
+    <t>mem_total</t>
+  </si>
+  <si>
+    <t>├─搭載メモリ量</t>
+  </si>
+  <si>
+    <t>物理搭載メモリ量[KB]</t>
+  </si>
+  <si>
+    <t>mem_free</t>
+  </si>
+  <si>
+    <t>└─メモリ空容量</t>
+  </si>
+  <si>
+    <t>メモリ空き容量[KB]</t>
+  </si>
+  <si>
+    <t>network</t>
+  </si>
+  <si>
+    <t>ネットワーク情報</t>
+  </si>
+  <si>
+    <t>/sbin/ip addr'コマンドでネットワークデバイスリストを検索。詳細は別シートに登録</t>
+  </si>
+  <si>
+    <t>hw_address</t>
+  </si>
+  <si>
+    <t>└─MACアドレス</t>
+  </si>
+  <si>
+    <t>MACアドレス</t>
+  </si>
+  <si>
+    <t>net_onboot</t>
+  </si>
+  <si>
+    <t>ネットワークブート</t>
+  </si>
+  <si>
+    <t>/etc/sysconfig/network-scripts下のファイルを検索してネットワークブート情報検索</t>
+  </si>
+  <si>
+    <t>net_route</t>
+  </si>
+  <si>
+    <t>デフォルトゲートウェイ</t>
+  </si>
+  <si>
+    <t>/sbin/ip route'コマンドを実行してデフォルトゲートウェイアドレスを検索</t>
+  </si>
+  <si>
+    <t>net_bond</t>
+  </si>
+  <si>
+    <t>NICの冗長化(bonding設定)</t>
+  </si>
+  <si>
+    <t>/etc/sysconfig/network-scripts/*-bond*ファイルを検索してNIC冗長設定情報検索</t>
+  </si>
+  <si>
+    <t>net_bond_opts</t>
+  </si>
+  <si>
+    <t>└─bonding設定オプション</t>
+  </si>
+  <si>
+    <t>動作モード(mode),MII監視間隔(miimon),リンクアップ遅延(updelay)</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>block_device</t>
+  </si>
+  <si>
+    <t>ストレージデバイス</t>
   </si>
   <si>
     <t xml:space="preserve">/sys/block/下を検索し、各デバイスのベンダー情報、タイムアウト値、キューサイズを検索
 </t>
   </si>
   <si>
-    <t xml:space="preserve">mdadb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ディスクRAID</t>
+    <t>mdadb</t>
+  </si>
+  <si>
+    <t>ディスクRAID</t>
   </si>
   <si>
     <t xml:space="preserve">"/proc/mdstat" ファイルを探して、md([0-9]+)デバイスを取得。"mdadm --detail /dev/#{device}" を実行して、結果を取得。
 </t>
   </si>
   <si>
-    <t xml:space="preserve">filesystem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ファイルシステム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"/bin/lsblk -i"コマンドを実行して行数を検索。詳細は別シートに登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filesystem./</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ルート(/)マウントポイント</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ルート(/)マウントポイント容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filesystem.[SWAP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─スワップ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">スワップ容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filesystem./boot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─/boot マウントポイント</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/boot マウントポイント容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fstab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自動マウントの設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/etc/fstab から設定値が/dev/から始まるパスで、defaultになっている自動マウントされたデバイスを検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lvm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">論理ボリューム情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mountコマンドで、/dev/mapper/{ボリュームグループ名}-{論理ボリューム名}を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ユーザ情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"/etc/passwd" を検索して、ユーザ名を検索。詳細は別シートに登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user.zabbix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─zabbix ユーザ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zabbix ユーザの有無</t>
-  </si>
-  <si>
-    <t xml:space="preserve">logon_test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ログオンテスト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">config.groovyに記述したログオン検査用ユーザでssh疎通を確認</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fips</t>
-  </si>
-  <si>
-    <t xml:space="preserve">データの暗号化</t>
-  </si>
-  <si>
-    <t xml:space="preserve">以下ファイルを読んで、データ暗号化の有無を確認
+    <t>filesystem</t>
+  </si>
+  <si>
+    <t>ファイルシステム</t>
+  </si>
+  <si>
+    <t>"/bin/lsblk -i"コマンドを実行して行数を検索。詳細は別シートに登録</t>
+  </si>
+  <si>
+    <t>filesystem./</t>
+  </si>
+  <si>
+    <t>├─ルート(/)マウントポイント</t>
+  </si>
+  <si>
+    <t>ルート(/)マウントポイント容量</t>
+  </si>
+  <si>
+    <t>filesystem.[SWAP]</t>
+  </si>
+  <si>
+    <t>├─スワップ</t>
+  </si>
+  <si>
+    <t>スワップ容量</t>
+  </si>
+  <si>
+    <t>filesystem./boot</t>
+  </si>
+  <si>
+    <t>└─/boot マウントポイント</t>
+  </si>
+  <si>
+    <t>/boot マウントポイント容量</t>
+  </si>
+  <si>
+    <t>fstab</t>
+  </si>
+  <si>
+    <t>自動マウントの設定</t>
+  </si>
+  <si>
+    <t>/etc/fstab から設定値が/dev/から始まるパスで、defaultになっている自動マウントされたデバイスを検索</t>
+  </si>
+  <si>
+    <t>lvm</t>
+  </si>
+  <si>
+    <t>論理ボリューム情報</t>
+  </si>
+  <si>
+    <t>mountコマンドで、/dev/mapper/{ボリュームグループ名}-{論理ボリューム名}を検索</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>ユーザ情報</t>
+  </si>
+  <si>
+    <t>"/etc/passwd" を検索して、ユーザ名を検索。詳細は別シートに登録</t>
+  </si>
+  <si>
+    <t>user.zabbix</t>
+  </si>
+  <si>
+    <t>└─zabbix ユーザ</t>
+  </si>
+  <si>
+    <t>zabbix ユーザの有無</t>
+  </si>
+  <si>
+    <t>logon_test</t>
+  </si>
+  <si>
+    <t>ログオンテスト</t>
+  </si>
+  <si>
+    <t>config.groovyに記述したログオン検査用ユーザでssh疎通を確認</t>
+  </si>
+  <si>
+    <t>fips</t>
+  </si>
+  <si>
+    <t>データの暗号化</t>
+  </si>
+  <si>
+    <t>以下ファイルを読んで、データ暗号化の有無を確認
 /proc/sys/crypto/fips_enabled</t>
   </si>
   <si>
-    <t xml:space="preserve">virturization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">仮想化プラットフォーム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XEN, KVM, Virtualbox など Linux の仮想化プラットフォームの検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">サービス構成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chkconfig --list コマンドで、サービス数を検索、詳細は別シートに登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.kdump</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─Kdumpクラッシュリカバリ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kdump クラッシュリカバリーサービスの自動起動設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.iptables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ファイヤーウォール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iptables ファイヤーウォールの自動起動設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.ip6tables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─IPv6ファイヤーウォール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ip6tables ファイヤーウォールの自動起動設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.restorecond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─SELinux運用サポート</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELinux の運用サポートデーモンの自動起動設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.NetworkManager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ネットワークマネージャー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワーク管理の自動起動設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.wdaemon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─wdaemon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wacom タブレットのホットプラグ機能の自動起動設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.vncserver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─VNCサービス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VNCサーバの自動起動設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">packages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">パッケージ構成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rpm -qa でパッケージ情報取得</t>
-  </si>
-  <si>
-    <t xml:space="preserve">packages.gcc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─gcc コンパイラ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gcc パッケージ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">packages.httpd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─Apache HTTPサービス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">httpd パッケージ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">packages.mysql</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─MySQLデータベース</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mysql パッケージ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">packages.net-snmp-utils</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─NetSNMPユーティリティ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNMPマネージャコマンドラインプログラム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">packages.lm_sensors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─lm_sensors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">温度・電圧・ファンを監視するためのツール(Linux monitoring sensors)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">packages.mt-st</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─mt-st</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magnetic tape control tools for Linux SCSI tapes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">packages.e4fsprogs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─e4fsprogs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ext4 ファイルシステムユーティリティ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">requiement_for_oracle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─Oracle必須パッケージ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oracle必須パッケージがインストールされているか。'compat-libcap1','compat-libstdc++-33','libstdc++-devel', 'gcc-c++','ksh','libaio-devel'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mount_iso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISOマウントの有無</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mount コマンドで.isoファイルのマウント情報取得</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proxy_global</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yumコマンドプロキシ設定有無</t>
+    <t>virturization</t>
+  </si>
+  <si>
+    <t>仮想化プラットフォーム</t>
+  </si>
+  <si>
+    <t>XEN, KVM, Virtualbox など Linux の仮想化プラットフォームの検索</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>サービス構成</t>
+  </si>
+  <si>
+    <t>chkconfig --list コマンドで、サービス数を検索、詳細は別シートに登録</t>
+  </si>
+  <si>
+    <t>service.kdump</t>
+  </si>
+  <si>
+    <t>├─Kdumpクラッシュリカバリ</t>
+  </si>
+  <si>
+    <t>kdump クラッシュリカバリーサービスの自動起動設定</t>
+  </si>
+  <si>
+    <t>service.iptables</t>
+  </si>
+  <si>
+    <t>├─ファイヤーウォール</t>
+  </si>
+  <si>
+    <t>iptables ファイヤーウォールの自動起動設定</t>
+  </si>
+  <si>
+    <t>service.ip6tables</t>
+  </si>
+  <si>
+    <t>├─IPv6ファイヤーウォール</t>
+  </si>
+  <si>
+    <t>ip6tables ファイヤーウォールの自動起動設定</t>
+  </si>
+  <si>
+    <t>service.restorecond</t>
+  </si>
+  <si>
+    <t>├─SELinux運用サポート</t>
+  </si>
+  <si>
+    <t>SELinux の運用サポートデーモンの自動起動設定</t>
+  </si>
+  <si>
+    <t>service.NetworkManager</t>
+  </si>
+  <si>
+    <t>├─ネットワークマネージャー</t>
+  </si>
+  <si>
+    <t>ネットワーク管理の自動起動設定</t>
+  </si>
+  <si>
+    <t>service.wdaemon</t>
+  </si>
+  <si>
+    <t>├─wdaemon</t>
+  </si>
+  <si>
+    <t>Wacom タブレットのホットプラグ機能の自動起動設定</t>
+  </si>
+  <si>
+    <t>service.vncserver</t>
+  </si>
+  <si>
+    <t>└─VNCサービス</t>
+  </si>
+  <si>
+    <t>VNCサーバの自動起動設定</t>
+  </si>
+  <si>
+    <t>packages</t>
+  </si>
+  <si>
+    <t>パッケージ構成</t>
+  </si>
+  <si>
+    <t>rpm -qa でパッケージ情報取得</t>
+  </si>
+  <si>
+    <t>packages.gcc</t>
+  </si>
+  <si>
+    <t>├─gcc コンパイラ</t>
+  </si>
+  <si>
+    <t>gcc パッケージ</t>
+  </si>
+  <si>
+    <t>packages.httpd</t>
+  </si>
+  <si>
+    <t>├─Apache HTTPサービス</t>
+  </si>
+  <si>
+    <t>httpd パッケージ</t>
+  </si>
+  <si>
+    <t>packages.mysql</t>
+  </si>
+  <si>
+    <t>├─MySQLデータベース</t>
+  </si>
+  <si>
+    <t>mysql パッケージ</t>
+  </si>
+  <si>
+    <t>packages.net-snmp-utils</t>
+  </si>
+  <si>
+    <t>├─NetSNMPユーティリティ</t>
+  </si>
+  <si>
+    <t>SNMPマネージャコマンドラインプログラム</t>
+  </si>
+  <si>
+    <t>packages.lm_sensors</t>
+  </si>
+  <si>
+    <t>├─lm_sensors</t>
+  </si>
+  <si>
+    <t>温度・電圧・ファンを監視するためのツール(Linux monitoring sensors)</t>
+  </si>
+  <si>
+    <t>packages.mt-st</t>
+  </si>
+  <si>
+    <t>├─mt-st</t>
+  </si>
+  <si>
+    <t>Magnetic tape control tools for Linux SCSI tapes</t>
+  </si>
+  <si>
+    <t>packages.e4fsprogs</t>
+  </si>
+  <si>
+    <t>├─e4fsprogs</t>
+  </si>
+  <si>
+    <t>ext4 ファイルシステムユーティリティ</t>
+  </si>
+  <si>
+    <t>requiement_for_oracle</t>
+  </si>
+  <si>
+    <t>└─Oracle必須パッケージ</t>
+  </si>
+  <si>
+    <t>Oracle必須パッケージがインストールされているか。'compat-libcap1','compat-libstdc++-33','libstdc++-devel', 'gcc-c++','ksh','libaio-devel'</t>
+  </si>
+  <si>
+    <t>mount_iso</t>
+  </si>
+  <si>
+    <t>ISOマウントの有無</t>
+  </si>
+  <si>
+    <t>mount コマンドで.isoファイルのマウント情報取得</t>
+  </si>
+  <si>
+    <t>proxy_global</t>
+  </si>
+  <si>
+    <t>yumコマンドプロキシ設定有無</t>
   </si>
   <si>
     <t xml:space="preserve"> /etc/yum.conf から、proxyサーバ定義を検索</t>
   </si>
   <si>
-    <t xml:space="preserve">crash_size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">クラッシュダンプサイズ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/sys/kernel/kexec_crash_size を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">runlevel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ランレベル</t>
+    <t>crash_size</t>
+  </si>
+  <si>
+    <t>クラッシュダンプサイズ</t>
+  </si>
+  <si>
+    <t>/sys/kernel/kexec_crash_size を検索</t>
+  </si>
+  <si>
+    <t>runlevel</t>
+  </si>
+  <si>
+    <t>ランレベル</t>
   </si>
   <si>
     <t xml:space="preserve">OS起動時のランレベルからコンソール設定(3 : CUIコンソール、5 : GUIコンソール)を検索
 </t>
   </si>
   <si>
-    <t xml:space="preserve">resolve_conf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNS設定</t>
+    <t>resolve_conf</t>
+  </si>
+  <si>
+    <t>DNS設定</t>
   </si>
   <si>
     <t xml:space="preserve">/etc/resolve.conf から nameserver を検索
 </t>
   </si>
   <si>
-    <t xml:space="preserve">nameservers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─DNSサーバ名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNSサーバの検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ntp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTPサーバ名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTPサーバの検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ntp_slew</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTP slewモードの検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/etc/sysconfig/ntpd から、OPTIONSを検索。設定しない＝「-u」、設定する「-x」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snmp_trap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNMPトラップ情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'/etc/snmp/snmpd.confから、trapsink &lt;管理サーバ&gt; &lt;コミュニティ名&gt; &lt;ポート番号&gt; 行を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sestatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELinuxステータス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sestatus コマンドからステータス検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">se_mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─SELinux モード</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELinuxモードの検索。SELinuxが無効の場合は空白</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oracle_module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oracleインストーラの有無</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/root/packageの下にOracleインストールファイルがあるか</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oracle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oracleモジュールの有無</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"ls -d /opt/oracle/app/product/*/*" でOracleのバージョン、サーバ/クライアントを検索</t>
+    <t>nameservers</t>
+  </si>
+  <si>
+    <t>└─DNSサーバ名</t>
+  </si>
+  <si>
+    <t>DNSサーバの検索</t>
+  </si>
+  <si>
+    <t>ntp</t>
+  </si>
+  <si>
+    <t>NTPサーバ名</t>
+  </si>
+  <si>
+    <t>NTPサーバの検索</t>
+  </si>
+  <si>
+    <t>ntp_slew</t>
+  </si>
+  <si>
+    <t>NTP slewモードの検索</t>
+  </si>
+  <si>
+    <t>/etc/sysconfig/ntpd から、OPTIONSを検索。設定しない＝「-u」、設定する「-x」</t>
+  </si>
+  <si>
+    <t>snmp_trap</t>
+  </si>
+  <si>
+    <t>SNMPトラップ情報</t>
+  </si>
+  <si>
+    <t>'/etc/snmp/snmpd.confから、trapsink &lt;管理サーバ&gt; &lt;コミュニティ名&gt; &lt;ポート番号&gt; 行を検索</t>
+  </si>
+  <si>
+    <t>sestatus</t>
+  </si>
+  <si>
+    <t>SELinuxステータス</t>
+  </si>
+  <si>
+    <t>sestatus コマンドからステータス検索</t>
+  </si>
+  <si>
+    <t>se_mode</t>
+  </si>
+  <si>
+    <t>└─SELinux モード</t>
+  </si>
+  <si>
+    <t>SELinuxモードの検索。SELinuxが無効の場合は空白</t>
+  </si>
+  <si>
+    <t>oracle_module</t>
+  </si>
+  <si>
+    <t>Oracleインストーラの有無</t>
+  </si>
+  <si>
+    <t>/root/packageの下にOracleインストールファイルがあるか</t>
+  </si>
+  <si>
+    <t>oracle</t>
+  </si>
+  <si>
+    <t>Oracleモジュールの有無</t>
+  </si>
+  <si>
+    <t>"ls -d /opt/oracle/app/product/*/*" でOracleのバージョン、サーバ/クライアントを検索</t>
   </si>
   <si>
     <t xml:space="preserve">* IDが "filesystem.*", "user.*", "service.*" の行はカスタム項目となります。システム構成／要件に合わせて項目の削除、追加、変更をしてください。 </t>
   </si>
   <si>
-    <t xml:space="preserve">Windows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_Processor オブジェクトからCPU情報を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─スレッド数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_OperatingSystemから、メモリ情報を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total_visible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─物理メモリ量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total_virtual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─仮想メモリ量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">仮想メモリ量[KB]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">free_physical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─空きメモリ量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">システム情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_ComputerSystemから、システム情報を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ドメイン名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ドメイン名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufacturer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─メーカー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メーカー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─モデル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">モデル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─コンピューター名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コンピューター名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">os</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OS情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_OperatingSystemから、OS情報を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">os_caption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─OS名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OS名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">os_csd_version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─サービスパック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">サービスパック名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">os_architecture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─アーキテクチャ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アーキテクチャ(32bit/64bit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">os_product_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─製品タイプ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:ワークステーション 2:ドメインコントローラ 3:サーバー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">driver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ドライバー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_PnPSignedDriverから、ドライバー登録件数を検索。詳細は、別シートに登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ディスク容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_LogicalDiskから、ストレージ容量を検索。詳細は、別シートに登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filesystem.C:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─Cドライブ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cドライブ容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filesystem.D:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─Dドライブ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dドライブ容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_UserAccount から、アカウント情報を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">config.groovyに記述したログオン検査用ユーザでPowerShellリモート疎通を確認</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get-Service から、サービスのステータスを検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.VMTools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─VMTools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMware Tools サービス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.wuauserv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─wuauserv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windows Update サービス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">パッケージ情報取得</t>
-  </si>
-  <si>
-    <t xml:space="preserve">システム暗号化</t>
-  </si>
-  <si>
-    <t xml:space="preserve">システム暗号化ポリシー。Enabled の値を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワーク構成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_NetworkAdapterConfiguration。IP,GW,Indexを検索。詳細は、別シートに登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nic_teaming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NICチーミング(NetLBFO)設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NICチーミング(NetLBFO)名を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remote_desktop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">リモートデスクトップ接続許可設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">リモートデスクトップ接続の許可設定を検索。0：利用可能、1：利用不可【既定】</t>
-  </si>
-  <si>
-    <t xml:space="preserve">firewall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ファイヤーウォール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windows Firewall の受信規制リストを検索。詳細は、別シートに登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNSサーバ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">virturalization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_ComputerSystemから仮想化プラットフォームを検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">storage_timeout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージタイムアウト値</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージタイムアウト[秒]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTPサーバ情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ホスト情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vCenter情報のホスト情報を検索します</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPUコア数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CpuTotalMhz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPUクロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MemoryTotalGB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─メモリ容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メモリ容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LicenseKey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ライセンス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ライセンス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProcessorType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─プロセッサタイプ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">プロセッサタイプ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─バージョン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">バージョン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Build</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ビルド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ビルド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FirewallDefaultPolicy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ファイヤーウォールポリシー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ファイヤーウォールポリシー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HyperthreadingActive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ハイパースレッディング</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ハイパースレッディング</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TimeZone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─タイムゾーン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">タイムゾーン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">電源状態</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMSwapfilePolicy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─スワップポリシー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">スワップポリシー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StorageInfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ストレージ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NetworkInfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─ネットワーク</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワーク</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アカウント情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アカウント数を検索し、別シートに詳細情報を登録します</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NetworkAdapter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワーク構成数を検索し、別シートに詳細情報を登録します</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ディスク構成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ディスク構成数を検索し、別シートに詳細情報を登録します</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DiskPartition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ディスクパーティション</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ディスクパーティション数を検索し、別シートに詳細情報を登録します</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datastore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">データストア</t>
-  </si>
-  <si>
-    <t xml:space="preserve">データストア数を検索し、別シートに詳細情報を登録します</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RuleAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RuleDB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">結果を比較する対象サーバ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">win2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ostrich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compare_source</t>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>Win32_Processor オブジェクトからCPU情報を検索</t>
+  </si>
+  <si>
+    <t>└─スレッド数</t>
+  </si>
+  <si>
+    <t>memory</t>
+  </si>
+  <si>
+    <t>Win32_OperatingSystemから、メモリ情報を検索</t>
+  </si>
+  <si>
+    <t>total_visible</t>
+  </si>
+  <si>
+    <t>├─物理メモリ量</t>
+  </si>
+  <si>
+    <t>total_virtual</t>
+  </si>
+  <si>
+    <t>├─仮想メモリ量</t>
+  </si>
+  <si>
+    <t>仮想メモリ量[KB]</t>
+  </si>
+  <si>
+    <t>free_physical</t>
+  </si>
+  <si>
+    <t>└─空きメモリ量</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>システム情報</t>
+  </si>
+  <si>
+    <t>Win32_ComputerSystemから、システム情報を検索</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>├─ドメイン名</t>
+  </si>
+  <si>
+    <t>ドメイン名</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>├─メーカー</t>
+  </si>
+  <si>
+    <t>メーカー</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>├─モデル</t>
+  </si>
+  <si>
+    <t>モデル</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>└─コンピューター名</t>
+  </si>
+  <si>
+    <t>コンピューター名</t>
+  </si>
+  <si>
+    <t>os</t>
+  </si>
+  <si>
+    <t>OS情報</t>
+  </si>
+  <si>
+    <t>Win32_OperatingSystemから、OS情報を検索</t>
+  </si>
+  <si>
+    <t>os_caption</t>
+  </si>
+  <si>
+    <t>├─OS名</t>
+  </si>
+  <si>
+    <t>OS名称</t>
+  </si>
+  <si>
+    <t>os_csd_version</t>
+  </si>
+  <si>
+    <t>├─サービスパック</t>
+  </si>
+  <si>
+    <t>サービスパック名</t>
+  </si>
+  <si>
+    <t>os_architecture</t>
+  </si>
+  <si>
+    <t>├─アーキテクチャ</t>
+  </si>
+  <si>
+    <t>アーキテクチャ(32bit/64bit)</t>
+  </si>
+  <si>
+    <t>os_product_type</t>
+  </si>
+  <si>
+    <t>└─製品タイプ</t>
+  </si>
+  <si>
+    <t>1:ワークステーション 2:ドメインコントローラ 3:サーバー</t>
+  </si>
+  <si>
+    <t>driver</t>
+  </si>
+  <si>
+    <t>ドライバー</t>
+  </si>
+  <si>
+    <t>Win32_PnPSignedDriverから、ドライバー登録件数を検索。詳細は、別シートに登録</t>
+  </si>
+  <si>
+    <t>ディスク容量</t>
+  </si>
+  <si>
+    <t>Win32_LogicalDiskから、ストレージ容量を検索。詳細は、別シートに登録</t>
+  </si>
+  <si>
+    <t>filesystem.C:</t>
+  </si>
+  <si>
+    <t>├─Cドライブ</t>
+  </si>
+  <si>
+    <t>Cドライブ容量</t>
+  </si>
+  <si>
+    <t>filesystem.D:</t>
+  </si>
+  <si>
+    <t>└─Dドライブ</t>
+  </si>
+  <si>
+    <t>Dドライブ容量</t>
+  </si>
+  <si>
+    <t>Win32_UserAccount から、アカウント情報を検索</t>
+  </si>
+  <si>
+    <t>config.groovyに記述したログオン検査用ユーザでPowerShellリモート疎通を確認</t>
+  </si>
+  <si>
+    <t>Get-Service から、サービスのステータスを検索</t>
+  </si>
+  <si>
+    <t>service.VMTools</t>
+  </si>
+  <si>
+    <t>├─VMTools</t>
+  </si>
+  <si>
+    <t>VMware Tools サービス</t>
+  </si>
+  <si>
+    <t>service.wuauserv</t>
+  </si>
+  <si>
+    <t>└─wuauserv</t>
+  </si>
+  <si>
+    <t>Windows Update サービス</t>
+  </si>
+  <si>
+    <t>パッケージ情報取得</t>
+  </si>
+  <si>
+    <t>システム暗号化</t>
+  </si>
+  <si>
+    <t>システム暗号化ポリシー。Enabled の値を検索</t>
+  </si>
+  <si>
+    <t>ネットワーク構成</t>
+  </si>
+  <si>
+    <t>Win32_NetworkAdapterConfiguration。IP,GW,Indexを検索。詳細は、別シートに登録</t>
+  </si>
+  <si>
+    <t>nic_teaming</t>
+  </si>
+  <si>
+    <t>NICチーミング(NetLBFO)設定</t>
+  </si>
+  <si>
+    <t>NICチーミング(NetLBFO)名を検索</t>
+  </si>
+  <si>
+    <t>remote_desktop</t>
+  </si>
+  <si>
+    <t>リモートデスクトップ接続許可設定</t>
+  </si>
+  <si>
+    <t>リモートデスクトップ接続の許可設定を検索。0：利用可能、1：利用不可【既定】</t>
+  </si>
+  <si>
+    <t>firewall</t>
+  </si>
+  <si>
+    <t>ファイヤーウォール</t>
+  </si>
+  <si>
+    <t>Windows Firewall の受信規制リストを検索。詳細は、別シートに登録</t>
+  </si>
+  <si>
+    <t>dns</t>
+  </si>
+  <si>
+    <t>DNSサーバ</t>
+  </si>
+  <si>
+    <t>virturalization</t>
+  </si>
+  <si>
+    <t>Win32_ComputerSystemから仮想化プラットフォームを検索</t>
+  </si>
+  <si>
+    <t>storage_timeout</t>
+  </si>
+  <si>
+    <t>ストレージタイムアウト値</t>
+  </si>
+  <si>
+    <t>ストレージタイムアウト[秒]</t>
+  </si>
+  <si>
+    <t>NTPサーバ情報</t>
+  </si>
+  <si>
+    <t>ホスト情報</t>
+  </si>
+  <si>
+    <t>vCenter情報のホスト情報を検索します</t>
+  </si>
+  <si>
+    <t>CPUコア数</t>
+  </si>
+  <si>
+    <t>CpuTotalMhz</t>
+  </si>
+  <si>
+    <t>CPUクロック</t>
+  </si>
+  <si>
+    <t>MemoryTotalGB</t>
+  </si>
+  <si>
+    <t>├─メモリ容量</t>
+  </si>
+  <si>
+    <t>メモリ容量</t>
+  </si>
+  <si>
+    <t>LicenseKey</t>
+  </si>
+  <si>
+    <t>├─ライセンス</t>
+  </si>
+  <si>
+    <t>ライセンス</t>
+  </si>
+  <si>
+    <t>ProcessorType</t>
+  </si>
+  <si>
+    <t>├─プロセッサタイプ</t>
+  </si>
+  <si>
+    <t>プロセッサタイプ</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>├─バージョン</t>
+  </si>
+  <si>
+    <t>バージョン</t>
+  </si>
+  <si>
+    <t>Build</t>
+  </si>
+  <si>
+    <t>├─ビルド</t>
+  </si>
+  <si>
+    <t>ビルド</t>
+  </si>
+  <si>
+    <t>FirewallDefaultPolicy</t>
+  </si>
+  <si>
+    <t>├─ファイヤーウォールポリシー</t>
+  </si>
+  <si>
+    <t>ファイヤーウォールポリシー</t>
+  </si>
+  <si>
+    <t>HyperthreadingActive</t>
+  </si>
+  <si>
+    <t>├─ハイパースレッディング</t>
+  </si>
+  <si>
+    <t>ハイパースレッディング</t>
+  </si>
+  <si>
+    <t>TimeZone</t>
+  </si>
+  <si>
+    <t>├─タイムゾーン</t>
+  </si>
+  <si>
+    <t>タイムゾーン</t>
+  </si>
+  <si>
+    <t>電源状態</t>
+  </si>
+  <si>
+    <t>VMSwapfilePolicy</t>
+  </si>
+  <si>
+    <t>├─スワップポリシー</t>
+  </si>
+  <si>
+    <t>スワップポリシー</t>
+  </si>
+  <si>
+    <t>StorageInfo</t>
+  </si>
+  <si>
+    <t>├─ストレージ</t>
+  </si>
+  <si>
+    <t>ストレージ</t>
+  </si>
+  <si>
+    <t>NetworkInfo</t>
+  </si>
+  <si>
+    <t>└─ネットワーク</t>
+  </si>
+  <si>
+    <t>ネットワーク</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>アカウント情報</t>
+  </si>
+  <si>
+    <t>アカウント数を検索し、別シートに詳細情報を登録します</t>
+  </si>
+  <si>
+    <t>NetworkAdapter</t>
+  </si>
+  <si>
+    <t>ネットワーク構成数を検索し、別シートに詳細情報を登録します</t>
+  </si>
+  <si>
+    <t>Disk</t>
+  </si>
+  <si>
+    <t>ディスク構成</t>
+  </si>
+  <si>
+    <t>ディスク構成数を検索し、別シートに詳細情報を登録します</t>
+  </si>
+  <si>
+    <t>DiskPartition</t>
+  </si>
+  <si>
+    <t>ディスクパーティション</t>
+  </si>
+  <si>
+    <t>ディスクパーティション数を検索し、別シートに詳細情報を登録します</t>
+  </si>
+  <si>
+    <t>Datastore</t>
+  </si>
+  <si>
+    <t>データストア</t>
+  </si>
+  <si>
+    <t>データストア数を検索し、別シートに詳細情報を登録します</t>
+  </si>
+  <si>
+    <t>RuleAP</t>
+  </si>
+  <si>
+    <t>RuleDB</t>
+  </si>
+  <si>
+    <t>結果を比較する対象サーバ</t>
+  </si>
+  <si>
+    <t>win2012</t>
+  </si>
+  <si>
+    <t>ostrich</t>
+  </si>
+  <si>
+    <t>compare_source</t>
   </si>
   <si>
     <r>
@@ -1247,7 +1246,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">結果を比較するソース。</t>
+      <t>結果を比較するソース。</t>
     </r>
     <r>
       <rPr>
@@ -1257,7 +1256,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">actual:</t>
+      <t>actual:</t>
     </r>
     <r>
       <rPr>
@@ -1267,7 +1266,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">実行結果から、</t>
+      <t>実行結果から、</t>
     </r>
     <r>
       <rPr>
@@ -1277,7 +1276,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">local:node</t>
+      <t>local:node</t>
     </r>
     <r>
       <rPr>
@@ -1287,7 +1286,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">ディレクトリから、</t>
+      <t>ディレクトリから、</t>
     </r>
     <r>
       <rPr>
@@ -1297,7 +1296,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">db:</t>
+      <t>db:</t>
     </r>
     <r>
       <rPr>
@@ -1311,67 +1310,156 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">actual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">local</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare リソース割り当て</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x == NumberUtils.toDouble(server_info['NumCpu'])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x == NumberUtils.toDouble(server_info['MemoryGB'])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x.indexOf(server_info['ESXiHost']) != -1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">クラスター</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x.minus(" ") == server_info['HDDType'].minus(" ")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">スレッド数</t>
+    <t>actual</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>VMWare リソース割り当て</t>
+  </si>
+  <si>
+    <t>x == NumberUtils.toDouble(server_info['NumCpu'])</t>
+  </si>
+  <si>
+    <t>x == NumberUtils.toDouble(server_info['MemoryGB'])</t>
+  </si>
+  <si>
+    <t>x.indexOf(server_info['ESXiHost']) != -1</t>
+  </si>
+  <si>
+    <t>クラスター</t>
+  </si>
+  <si>
+    <t>x.minus(" ") == server_info['HDDType'].minus(" ")</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>スレッド数</t>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>cron</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Cron定義一覧</t>
+    <rPh sb="4" eb="6">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Linux</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>resource_limits</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>リソースリミット値</t>
+    <rPh sb="8" eb="9">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>yum</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Yumリポジトリ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>task_scheduler</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>タスクスケジューラ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Windows</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>スケジュール化されたタスクスケジュール一覧を検索</t>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>patch_lists</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>適用パッチ</t>
+    <rPh sb="0" eb="2">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>etc_hosts</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ホストファイル</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ホストリストの読み込み</t>
+    <rPh sb="7" eb="8">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>net_accounts</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>セキュリティポリシー</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Windowsセキュリティポリシーの読込</t>
+    <rPh sb="18" eb="20">
+      <t>ヨミコミ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
       <charset val="128"/>
     </font>
     <font>
@@ -1392,8 +1480,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1423,6 +1510,12 @@
       <family val="3"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1439,291 +1532,555 @@
     </fill>
   </fills>
   <borders count="5">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="true" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
-      <diagonal style="hair"/>
+    <border diagonalUp="1">
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="hair">
+        <color auto="1"/>
+      </diagonal>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="25">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+  <cellStyles count="2">
+    <cellStyle name="説明文" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A42:F42 A3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" activeCellId="1" sqref="A42:F42 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.3659793814433"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7731958762887"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.8247422680412"/>
-    <col collapsed="false" hidden="false" max="8" min="4" style="0" width="13.3659793814433"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.2731958762887"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="7.3659793814433"/>
+    <col min="1" max="1" width="7.375"/>
+    <col min="2" max="2" width="16.75"/>
+    <col min="3" max="3" width="36.875"/>
+    <col min="4" max="8" width="13.375"/>
+    <col min="9" max="9" width="12.25"/>
+    <col min="10" max="1025" width="7.375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="52.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="2" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="2:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="3">
         <v>2</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="3">
         <v>3</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" s="3">
         <v>4</v>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H4" s="3">
         <v>5</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="I4" s="3">
         <v>6</v>
       </c>
-      <c r="J4" s="3" t="n">
+      <c r="J4" s="3">
         <v>7</v>
       </c>
-      <c r="K4" s="3" t="n">
+      <c r="K4" s="3">
         <v>8</v>
       </c>
-      <c r="L4" s="3" t="n">
+      <c r="L4" s="3">
         <v>9</v>
       </c>
-      <c r="M4" s="3" t="n">
+      <c r="M4" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="65.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:13" ht="57" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1741,7 +2098,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
@@ -1759,7 +2116,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1767,47 +2124,47 @@
         <v>9</v>
       </c>
       <c r="D7" s="4" t="str">
-        <f aca="false">IF(OR(D$5="Linux",D$5="Windows",D$5="VMHost"),"サーバ名を入力してください","")</f>
+        <f t="shared" ref="D7:M7" si="0">IF(OR(D$5="Linux",D$5="Windows",D$5="VMHost"),"サーバ名を入力してください","")</f>
         <v/>
       </c>
       <c r="E7" s="4" t="str">
-        <f aca="false">IF(OR(E$5="Linux",E$5="Windows",E$5="VMHost"),"サーバ名を入力してください","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F7" s="4" t="str">
-        <f aca="false">IF(OR(F$5="Linux",F$5="Windows",F$5="VMHost"),"サーバ名を入力してください","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G7" s="4" t="str">
-        <f aca="false">IF(OR(G$5="Linux",G$5="Windows",G$5="VMHost"),"サーバ名を入力してください","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H7" s="4" t="str">
-        <f aca="false">IF(OR(H$5="Linux",H$5="Windows",H$5="VMHost"),"サーバ名を入力してください","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I7" s="4" t="str">
-        <f aca="false">IF(OR(I$5="Linux",I$5="Windows",I$5="VMHost"),"サーバ名を入力してください","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J7" s="4" t="str">
-        <f aca="false">IF(OR(J$5="Linux",J$5="Windows",J$5="VMHost"),"サーバ名を入力してください","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K7" s="4" t="str">
-        <f aca="false">IF(OR(K$5="Linux",K$5="Windows",K$5="VMHost"),"サーバ名を入力してください","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L7" s="4" t="str">
-        <f aca="false">IF(OR(L$5="Linux",L$5="Windows",L$5="VMHost"),"サーバ名を入力してください","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="M7" s="4" t="str">
-        <f aca="false">IF(OR(M$5="Linux",M$5="Windows",M$5="VMHost"),"サーバ名を入力してください","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1815,47 +2172,47 @@
         <v>11</v>
       </c>
       <c r="D8" s="4" t="str">
-        <f aca="false">IF(OR(D$5="Linux",D$5="Windows",D$5="VMHost"),"IPアドレスを入力してください","")</f>
+        <f t="shared" ref="D8:M8" si="1">IF(OR(D$5="Linux",D$5="Windows",D$5="VMHost"),"IPアドレスを入力してください","")</f>
         <v/>
       </c>
       <c r="E8" s="4" t="str">
-        <f aca="false">IF(OR(E$5="Linux",E$5="Windows",E$5="VMHost"),"IPアドレスを入力してください","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F8" s="4" t="str">
-        <f aca="false">IF(OR(F$5="Linux",F$5="Windows",F$5="VMHost"),"IPアドレスを入力してください","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G8" s="4" t="str">
-        <f aca="false">IF(OR(G$5="Linux",G$5="Windows",G$5="VMHost"),"IPアドレスを入力してください","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H8" s="4" t="str">
-        <f aca="false">IF(OR(H$5="Linux",H$5="Windows",H$5="VMHost"),"IPアドレスを入力してください","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I8" s="4" t="str">
-        <f aca="false">IF(OR(I$5="Linux",I$5="Windows",I$5="VMHost"),"IPアドレスを入力してください","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J8" s="4" t="str">
-        <f aca="false">IF(OR(J$5="Linux",J$5="Windows",J$5="VMHost"),"IPアドレスを入力してください","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K8" s="4" t="str">
-        <f aca="false">IF(OR(K$5="Linux",K$5="Windows",K$5="VMHost"),"IPアドレスを入力してください","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L8" s="4" t="str">
-        <f aca="false">IF(OR(L$5="Linux",L$5="Windows",L$5="VMHost"),"IPアドレスを入力してください","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="M8" s="4" t="str">
-        <f aca="false">IF(OR(M$5="Linux",M$5="Windows",M$5="VMHost"),"IPアドレスを入力してください","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="65.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="2:13" ht="57" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
@@ -1863,47 +2220,47 @@
         <v>13</v>
       </c>
       <c r="D9" s="4" t="str">
-        <f aca="false">IF(OR(D$5="Linux",D$5="Windows",D$5="VMHost"),"OSアカウントIDを入力してください","")</f>
+        <f t="shared" ref="D9:M9" si="2">IF(OR(D$5="Linux",D$5="Windows",D$5="VMHost"),"OSアカウントIDを入力してください","")</f>
         <v/>
       </c>
       <c r="E9" s="4" t="str">
-        <f aca="false">IF(OR(E$5="Linux",E$5="Windows",E$5="VMHost"),"OSアカウントIDを入力してください","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F9" s="4" t="str">
-        <f aca="false">IF(OR(F$5="Linux",F$5="Windows",F$5="VMHost"),"OSアカウントIDを入力してください","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G9" s="4" t="str">
-        <f aca="false">IF(OR(G$5="Linux",G$5="Windows",G$5="VMHost"),"OSアカウントIDを入力してください","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H9" s="4" t="str">
-        <f aca="false">IF(OR(H$5="Linux",H$5="Windows",H$5="VMHost"),"OSアカウントIDを入力してください","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I9" s="4" t="str">
-        <f aca="false">IF(OR(I$5="Linux",I$5="Windows",I$5="VMHost"),"OSアカウントIDを入力してください","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J9" s="4" t="str">
-        <f aca="false">IF(OR(J$5="Linux",J$5="Windows",J$5="VMHost"),"OSアカウントIDを入力してください","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K9" s="4" t="str">
-        <f aca="false">IF(OR(K$5="Linux",K$5="Windows",K$5="VMHost"),"OSアカウントIDを入力してください","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L9" s="4" t="str">
-        <f aca="false">IF(OR(L$5="Linux",L$5="Windows",L$5="VMHost"),"OSアカウントIDを入力してください","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M9" s="4" t="str">
-        <f aca="false">IF(OR(M$5="Linux",M$5="Windows",M$5="VMHost"),"OSアカウントIDを入力してください","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="52.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
@@ -1911,47 +2268,47 @@
         <v>15</v>
       </c>
       <c r="D10" s="4" t="str">
-        <f aca="false">IF(OR(D$6="VM"),"vCenterアカウントIDを入力してください","")</f>
+        <f t="shared" ref="D10:M10" si="3">IF(OR(D$6="VM"),"vCenterアカウントIDを入力してください","")</f>
         <v/>
       </c>
       <c r="E10" s="4" t="str">
-        <f aca="false">IF(OR(E$6="VM"),"vCenterアカウントIDを入力してください","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F10" s="4" t="str">
-        <f aca="false">IF(OR(F$6="VM"),"vCenterアカウントIDを入力してください","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G10" s="4" t="str">
-        <f aca="false">IF(OR(G$6="VM"),"vCenterアカウントIDを入力してください","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H10" s="4" t="str">
-        <f aca="false">IF(OR(H$6="VM"),"vCenterアカウントIDを入力してください","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I10" s="4" t="str">
-        <f aca="false">IF(OR(I$6="VM"),"vCenterアカウントIDを入力してください","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J10" s="4" t="str">
-        <f aca="false">IF(OR(J$6="VM"),"vCenterアカウントIDを入力してください","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K10" s="4" t="str">
-        <f aca="false">IF(OR(K$6="VM"),"vCenterアカウントIDを入力してください","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L10" s="4" t="str">
-        <f aca="false">IF(OR(L$6="VM"),"vCenterアカウントIDを入力してください","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M10" s="4" t="str">
-        <f aca="false">IF(OR(M$6="VM"),"vCenterアカウントIDを入力してください","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
@@ -1959,47 +2316,47 @@
         <v>17</v>
       </c>
       <c r="D11" s="4" t="str">
-        <f aca="false">IF(OR(D$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
+        <f t="shared" ref="D11:M11" si="4">IF(OR(D$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
         <v/>
       </c>
       <c r="E11" s="4" t="str">
-        <f aca="false">IF(OR(E$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F11" s="4" t="str">
-        <f aca="false">IF(OR(F$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G11" s="4" t="str">
-        <f aca="false">IF(OR(G$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H11" s="4" t="str">
-        <f aca="false">IF(OR(H$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I11" s="4" t="str">
-        <f aca="false">IF(OR(I$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J11" s="4" t="str">
-        <f aca="false">IF(OR(J$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K11" s="4" t="str">
-        <f aca="false">IF(OR(K$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L11" s="4" t="str">
-        <f aca="false">IF(OR(L$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M11" s="4" t="str">
-        <f aca="false">IF(OR(M$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
@@ -2017,7 +2374,7 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="2:13" ht="36" x14ac:dyDescent="0.15">
       <c r="B13" s="6" t="s">
         <v>20</v>
       </c>
@@ -2035,7 +2392,7 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B14" s="3"/>
       <c r="C14" s="4" t="s">
         <v>22</v>
@@ -2051,7 +2408,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B15" s="8" t="s">
         <v>23</v>
       </c>
@@ -2069,7 +2426,7 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B16" s="8" t="s">
         <v>25</v>
       </c>
@@ -2087,7 +2444,7 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
@@ -2105,7 +2462,7 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>29</v>
       </c>
@@ -2123,7 +2480,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -2141,50 +2498,43 @@
   <mergeCells count="1">
     <mergeCell ref="B2:M2"/>
   </mergeCells>
+  <phoneticPr fontId="8"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D5:M5" type="list">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="D5:M5">
       <formula1>"選択してください,Linux,Windows,VMHost"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D6:M6" type="list">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="D6:M6">
       <formula1>"選択してください,オンプレ,VM"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C37" activeCellId="1" sqref="A42:F42 C37"/>
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:XFD76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.3659793814433"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3659793814433"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.9587628865979"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.41237113402062"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.41237113402062"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="54.8247422680412"/>
-    <col collapsed="false" hidden="false" max="10" min="7" style="0" width="13.3659793814433"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="7.3659793814433"/>
+    <col min="1" max="1" width="7.375"/>
+    <col min="2" max="2" width="19.375"/>
+    <col min="3" max="3" width="28"/>
+    <col min="4" max="4" width="9.375"/>
+    <col min="5" max="5" width="6.375"/>
+    <col min="6" max="6" width="54.875"/>
+    <col min="7" max="10" width="13.375"/>
+    <col min="11" max="1025" width="7.375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -2192,7 +2542,7 @@
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
         <v>31</v>
       </c>
@@ -2202,7 +2552,7 @@
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -2210,7 +2560,7 @@
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>32</v>
       </c>
@@ -2230,7 +2580,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
         <v>38</v>
       </c>
@@ -2248,7 +2598,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="13"/>
       <c r="B6" s="9" t="s">
         <v>23</v>
@@ -2264,7 +2614,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
       <c r="B7" s="9" t="s">
         <v>45</v>
@@ -2280,7 +2630,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="13"/>
       <c r="B8" s="9" t="s">
         <v>25</v>
@@ -2296,7 +2646,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="13"/>
       <c r="B9" s="9" t="s">
         <v>50</v>
@@ -2312,7 +2662,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="13"/>
       <c r="B10" s="9" t="s">
         <v>53</v>
@@ -2328,7 +2678,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="13" t="s">
         <v>38</v>
       </c>
@@ -2346,7 +2696,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="13" t="s">
         <v>38</v>
       </c>
@@ -2364,7 +2714,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="13" t="s">
         <v>38</v>
       </c>
@@ -2382,7 +2732,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="13" t="s">
         <v>38</v>
       </c>
@@ -2402,7 +2752,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="13" t="s">
         <v>38</v>
       </c>
@@ -2420,7 +2770,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="13" t="s">
         <v>38</v>
       </c>
@@ -2438,7 +2788,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="13" t="s">
         <v>38</v>
       </c>
@@ -2456,7 +2806,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="13" t="s">
         <v>38</v>
       </c>
@@ -2474,7 +2824,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="13" t="s">
         <v>38</v>
       </c>
@@ -2492,7 +2842,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="13"/>
       <c r="B20" s="9" t="s">
         <v>82</v>
@@ -2508,7 +2858,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="13"/>
       <c r="B21" s="9" t="s">
         <v>85</v>
@@ -2524,7 +2874,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="13"/>
       <c r="B22" s="9" t="s">
         <v>88</v>
@@ -2540,7 +2890,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="13"/>
       <c r="B23" s="9" t="s">
         <v>91</v>
@@ -2556,7 +2906,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="13"/>
       <c r="B24" s="9" t="s">
         <v>94</v>
@@ -2572,7 +2922,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A25" s="13" t="s">
         <v>38</v>
       </c>
@@ -2590,7 +2940,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="13" t="s">
         <v>38</v>
       </c>
@@ -2608,7 +2958,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="13"/>
       <c r="B27" s="9" t="s">
         <v>103</v>
@@ -2624,7 +2974,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="13"/>
       <c r="B28" s="9" t="s">
         <v>106</v>
@@ -2640,7 +2990,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="13" t="s">
         <v>38</v>
       </c>
@@ -2660,7 +3010,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="13"/>
       <c r="B30" s="9" t="s">
         <v>112</v>
@@ -2676,7 +3026,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A31" s="13" t="s">
         <v>38</v>
       </c>
@@ -2694,7 +3044,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="13" t="s">
         <v>38</v>
       </c>
@@ -2712,7 +3062,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A33" s="13" t="s">
         <v>38</v>
       </c>
@@ -2732,7 +3082,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="13"/>
       <c r="B34" s="9" t="s">
         <v>124</v>
@@ -2748,7 +3098,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A35" s="13" t="s">
         <v>127</v>
       </c>
@@ -2766,7 +3116,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A36" s="13" t="s">
         <v>38</v>
       </c>
@@ -2784,7 +3134,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="13" t="s">
         <v>38</v>
       </c>
@@ -2804,7 +3154,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="13"/>
       <c r="B38" s="9" t="s">
         <v>137</v>
@@ -2820,7 +3170,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="13"/>
       <c r="B39" s="9" t="s">
         <v>140</v>
@@ -2836,7 +3186,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="9"/>
       <c r="B40" s="9" t="s">
         <v>143</v>
@@ -2852,7 +3202,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A41" s="9" t="s">
         <v>38</v>
       </c>
@@ -2870,7 +3220,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
         <v>38</v>
       </c>
@@ -2890,7 +3240,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="9" t="s">
         <v>38</v>
       </c>
@@ -2910,7 +3260,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="9"/>
       <c r="B44" s="9" t="s">
         <v>155</v>
@@ -2926,7 +3276,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>38</v>
       </c>
@@ -2944,7 +3294,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A46" s="9" t="s">
         <v>38</v>
       </c>
@@ -2962,7 +3312,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
         <v>38</v>
       </c>
@@ -2980,7 +3330,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="9" t="s">
         <v>38</v>
       </c>
@@ -3000,7 +3350,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="9"/>
       <c r="B49" s="9" t="s">
         <v>170</v>
@@ -3016,7 +3366,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="9"/>
       <c r="B50" s="9" t="s">
         <v>173</v>
@@ -3032,7 +3382,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="9"/>
       <c r="B51" s="9" t="s">
         <v>176</v>
@@ -3048,7 +3398,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A52" s="9"/>
       <c r="B52" s="9" t="s">
         <v>179</v>
@@ -3064,7 +3414,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A53" s="9"/>
       <c r="B53" s="9" t="s">
         <v>182</v>
@@ -3080,7 +3430,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A54" s="9"/>
       <c r="B54" s="9" t="s">
         <v>185</v>
@@ -3096,7 +3446,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A55" s="9"/>
       <c r="B55" s="9" t="s">
         <v>188</v>
@@ -3112,7 +3462,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
         <v>38</v>
       </c>
@@ -3132,7 +3482,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A57" s="9"/>
       <c r="B57" s="9" t="s">
         <v>194</v>
@@ -3148,7 +3498,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A58" s="9"/>
       <c r="B58" s="9" t="s">
         <v>197</v>
@@ -3164,7 +3514,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A59" s="9"/>
       <c r="B59" s="9" t="s">
         <v>200</v>
@@ -3180,7 +3530,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A60" s="9"/>
       <c r="B60" s="9" t="s">
         <v>203</v>
@@ -3196,7 +3546,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A61" s="9"/>
       <c r="B61" s="9" t="s">
         <v>206</v>
@@ -3212,7 +3562,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A62" s="9"/>
       <c r="B62" s="9" t="s">
         <v>209</v>
@@ -3228,7 +3578,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A63" s="13"/>
       <c r="B63" s="13" t="s">
         <v>212</v>
@@ -3244,7 +3594,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A64" s="13"/>
       <c r="B64" s="13" t="s">
         <v>215</v>
@@ -3260,7 +3610,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A65" s="13" t="s">
         <v>38</v>
       </c>
@@ -3278,7 +3628,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A66" s="13" t="s">
         <v>38</v>
       </c>
@@ -3296,7 +3646,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A67" s="13" t="s">
         <v>38</v>
       </c>
@@ -3314,7 +3664,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A68" s="13" t="s">
         <v>38</v>
       </c>
@@ -3332,7 +3682,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A69" s="13" t="s">
         <v>38</v>
       </c>
@@ -3350,7 +3700,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A70" s="13"/>
       <c r="B70" s="13" t="s">
         <v>233</v>
@@ -3366,7 +3716,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A71" s="13" t="s">
         <v>38</v>
       </c>
@@ -3384,7 +3734,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A72" s="9" t="s">
         <v>38</v>
       </c>
@@ -3402,7 +3752,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A73" s="9" t="s">
         <v>38</v>
       </c>
@@ -3420,111 +3770,164 @@
         <v>244</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A74" s="9" t="s">
-        <v>38</v>
+        <v>412</v>
       </c>
       <c r="B74" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A75" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A76" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A77" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B77" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C77" s="9" t="s">
         <v>246</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E74" s="9"/>
-      <c r="F74" s="12" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="9"/>
-      <c r="B75" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E75" s="9"/>
-      <c r="F75" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E76" s="9"/>
-      <c r="F76" s="12" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>255</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="12" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A78" s="9"/>
+      <c r="B78" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="9"/>
+      <c r="F78" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A79" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="9"/>
+      <c r="F79" s="12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A80" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="9"/>
+      <c r="F80" s="12" t="s">
         <v>256</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="8"/>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A42" activeCellId="0" sqref="A42:F42"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:XFD50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.3659793814433"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3659793814433"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.5051546391753"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.4123711340206"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.41237113402062"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="55.3711340206186"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.3659793814433"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="7.3659793814433"/>
+    <col min="1" max="1" width="7.375"/>
+    <col min="2" max="2" width="16.375"/>
+    <col min="3" max="3" width="25.5"/>
+    <col min="4" max="4" width="15.375"/>
+    <col min="5" max="5" width="6.375"/>
+    <col min="6" max="6" width="55.375"/>
+    <col min="7" max="7" width="13.375"/>
+    <col min="8" max="1025" width="7.375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -3532,7 +3935,7 @@
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
         <v>257</v>
       </c>
@@ -3542,7 +3945,7 @@
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -3550,7 +3953,7 @@
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
@@ -3570,7 +3973,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
         <v>38</v>
       </c>
@@ -3588,7 +3991,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="13"/>
       <c r="B6" s="3" t="s">
         <v>23</v>
@@ -3604,7 +4007,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
       <c r="B7" s="3" t="s">
         <v>45</v>
@@ -3620,7 +4023,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="13"/>
       <c r="B8" s="3" t="s">
         <v>25</v>
@@ -3636,7 +4039,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="13"/>
       <c r="B9" s="3" t="s">
         <v>50</v>
@@ -3652,7 +4055,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="13"/>
       <c r="B10" s="3" t="s">
         <v>53</v>
@@ -3668,7 +4071,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="13" t="s">
         <v>38</v>
       </c>
@@ -3686,7 +4089,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="13" t="s">
         <v>38</v>
       </c>
@@ -3704,7 +4107,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="13" t="s">
         <v>38</v>
       </c>
@@ -3722,7 +4125,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="13" t="s">
         <v>38</v>
       </c>
@@ -3742,7 +4145,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="13" t="s">
         <v>38</v>
       </c>
@@ -3760,7 +4163,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="13"/>
       <c r="B16" s="3" t="s">
         <v>82</v>
@@ -3776,7 +4179,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="13"/>
       <c r="B17" s="3" t="s">
         <v>85</v>
@@ -3792,7 +4195,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="13"/>
       <c r="B18" s="3" t="s">
         <v>88</v>
@@ -3808,7 +4211,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="13" t="s">
         <v>38</v>
       </c>
@@ -3826,7 +4229,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="13"/>
       <c r="B20" s="3" t="s">
         <v>263</v>
@@ -3842,7 +4245,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="13"/>
       <c r="B21" s="3" t="s">
         <v>265</v>
@@ -3858,7 +4261,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="13"/>
       <c r="B22" s="3" t="s">
         <v>268</v>
@@ -3874,7 +4277,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="13" t="s">
         <v>38</v>
       </c>
@@ -3892,7 +4295,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="13"/>
       <c r="B24" s="3" t="s">
         <v>273</v>
@@ -3908,7 +4311,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="13"/>
       <c r="B25" s="3" t="s">
         <v>276</v>
@@ -3924,7 +4327,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="13"/>
       <c r="B26" s="3" t="s">
         <v>279</v>
@@ -3940,7 +4343,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
         <v>282</v>
@@ -3956,7 +4359,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>38</v>
       </c>
@@ -3974,7 +4377,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
         <v>288</v>
@@ -3990,7 +4393,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
         <v>291</v>
@@ -4006,7 +4409,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
         <v>294</v>
@@ -4022,7 +4425,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
         <v>297</v>
@@ -4038,7 +4441,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A33" s="13" t="s">
         <v>38</v>
       </c>
@@ -4058,7 +4461,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="13" t="s">
         <v>38</v>
       </c>
@@ -4078,7 +4481,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="16"/>
       <c r="B35" s="17" t="s">
         <v>305</v>
@@ -4094,7 +4497,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="16"/>
       <c r="B36" s="17" t="s">
         <v>308</v>
@@ -4110,7 +4513,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="13" t="s">
         <v>38</v>
       </c>
@@ -4130,7 +4533,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>38</v>
       </c>
@@ -4148,7 +4551,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="13" t="s">
         <v>38</v>
       </c>
@@ -4168,7 +4571,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="16"/>
       <c r="B40" s="17" t="s">
         <v>314</v>
@@ -4184,7 +4587,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="16"/>
       <c r="B41" s="17" t="s">
         <v>317</v>
@@ -4200,7 +4603,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
         <v>38</v>
       </c>
@@ -4220,7 +4623,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="13" t="s">
         <v>38</v>
       </c>
@@ -4238,7 +4641,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A44" s="13" t="s">
         <v>38</v>
       </c>
@@ -4258,7 +4661,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="13" t="s">
         <v>38</v>
       </c>
@@ -4278,7 +4681,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="13" t="s">
         <v>38</v>
       </c>
@@ -4296,7 +4699,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="13" t="s">
         <v>38</v>
       </c>
@@ -4316,7 +4719,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="13" t="s">
         <v>38</v>
       </c>
@@ -4334,134 +4737,207 @@
         <v>235</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="13" t="s">
-        <v>38</v>
+        <v>412</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A50" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A51" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="12" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="12" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>341</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>258</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="12" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A52" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E52" s="3"/>
+      <c r="F52" s="12" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A53" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A54" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A55" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E55" s="3"/>
+      <c r="F55" s="12" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="13"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="12"/>
-    </row>
-    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="12"/>
-    </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="12"/>
-    </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="12"/>
-    </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="9"/>
+    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A56" s="13"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
       <c r="F56" s="12"/>
     </row>
+    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="12"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="12"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="12"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="12"/>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="8"/>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A42:F42 A1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCellId="1" sqref="A42:F42 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.5"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.2783505154639"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.9123711340206"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.77319587628866"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.3659793814433"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="49.6443298969072"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="7.77319587628866"/>
+    <col min="1" max="1" width="4.5"/>
+    <col min="2" max="2" width="21.25"/>
+    <col min="3" max="3" width="22.875"/>
+    <col min="4" max="4" width="7.75"/>
+    <col min="5" max="5" width="7.375"/>
+    <col min="6" max="6" width="49.625"/>
+    <col min="7" max="1025" width="7.75"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -4469,7 +4945,7 @@
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -4477,7 +4953,7 @@
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -4485,7 +4961,7 @@
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
@@ -4505,7 +4981,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>38</v>
       </c>
@@ -4523,7 +4999,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
         <v>23</v>
@@ -4539,7 +5015,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
       <c r="B7" s="3" t="s">
         <v>345</v>
@@ -4555,7 +5031,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8" s="3" t="s">
         <v>347</v>
@@ -4571,7 +5047,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="3" t="s">
         <v>350</v>
@@ -4587,7 +5063,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
         <v>353</v>
@@ -4603,7 +5079,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
         <v>356</v>
@@ -4619,7 +5095,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
         <v>359</v>
@@ -4635,7 +5111,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
         <v>362</v>
@@ -4651,7 +5127,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
         <v>365</v>
@@ -4667,7 +5143,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
         <v>368</v>
@@ -4683,7 +5159,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
         <v>45</v>
@@ -4699,7 +5175,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
         <v>372</v>
@@ -4715,7 +5191,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
         <v>276</v>
@@ -4731,7 +5207,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
         <v>375</v>
@@ -4747,7 +5223,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
         <v>378</v>
@@ -4763,7 +5239,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>38</v>
       </c>
@@ -4783,7 +5259,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>38</v>
       </c>
@@ -4803,7 +5279,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>38</v>
       </c>
@@ -4823,7 +5299,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>38</v>
       </c>
@@ -4843,7 +5319,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>38</v>
       </c>
@@ -4863,7 +5339,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="5"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4871,7 +5347,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="5"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4879,7 +5355,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4887,7 +5363,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4895,7 +5371,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4903,7 +5379,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4911,7 +5387,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4919,7 +5395,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4927,7 +5403,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4935,7 +5411,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4943,7 +5419,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4951,7 +5427,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4959,7 +5435,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4967,7 +5443,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -4975,7 +5451,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -4983,7 +5459,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -4991,7 +5467,7 @@
       <c r="E41" s="5"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -4999,7 +5475,7 @@
       <c r="E42" s="5"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -5007,7 +5483,7 @@
       <c r="E43" s="5"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -5015,7 +5491,7 @@
       <c r="E44" s="5"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -5023,7 +5499,7 @@
       <c r="E45" s="5"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -5031,7 +5507,7 @@
       <c r="E46" s="5"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -5039,7 +5515,7 @@
       <c r="E47" s="5"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -5047,7 +5523,7 @@
       <c r="E48" s="5"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -5055,7 +5531,7 @@
       <c r="E49" s="5"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -5063,7 +5539,7 @@
       <c r="E50" s="5"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -5072,10 +5548,10 @@
       <c r="F51" s="20"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <phoneticPr fontId="8"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
@@ -5083,28 +5559,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="A42:F42 C1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" activeCellId="1" sqref="A42:F42 C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.3659793814433"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3659793814433"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.9587628865979"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.41237113402062"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.0927835051546"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.2319587628866"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="7.3659793814433"/>
+    <col min="1" max="1" width="7.375"/>
+    <col min="2" max="2" width="16.375"/>
+    <col min="3" max="3" width="28"/>
+    <col min="4" max="4" width="9.375"/>
+    <col min="5" max="5" width="16.125"/>
+    <col min="6" max="6" width="16.25"/>
+    <col min="7" max="1025" width="7.375"/>
   </cols>
   <sheetData>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="21"/>
       <c r="B4" s="8" t="s">
         <v>33</v>
@@ -5122,7 +5595,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="21"/>
       <c r="B5" s="22" t="s">
         <v>20</v>
@@ -5138,7 +5611,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="49.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
         <v>400</v>
@@ -5154,7 +5627,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="21"/>
       <c r="B7" s="8" t="s">
         <v>39</v>
@@ -5168,7 +5641,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="52.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" ht="57" x14ac:dyDescent="0.15">
       <c r="A8" s="21"/>
       <c r="B8" s="8" t="s">
         <v>23</v>
@@ -5186,7 +5659,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="52.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6" ht="57" x14ac:dyDescent="0.15">
       <c r="A9" s="21"/>
       <c r="B9" s="8" t="s">
         <v>25</v>
@@ -5204,7 +5677,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A10" s="21"/>
       <c r="B10" s="8" t="s">
         <v>50</v>
@@ -5222,7 +5695,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="21"/>
       <c r="B11" s="8" t="s">
         <v>53</v>
@@ -5236,7 +5709,7 @@
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="21"/>
       <c r="B12" s="8" t="s">
         <v>56</v>
@@ -5250,7 +5723,7 @@
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="21"/>
       <c r="B13" s="8" t="s">
         <v>59</v>
@@ -5264,7 +5737,7 @@
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" customFormat="false" ht="52.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A14" s="21"/>
       <c r="B14" s="9" t="s">
         <v>65</v>
@@ -5282,7 +5755,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="21"/>
       <c r="B15" s="8" t="s">
         <v>67</v>
@@ -5296,7 +5769,7 @@
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="21"/>
       <c r="B16" s="8" t="s">
         <v>74</v>
@@ -5310,7 +5783,7 @@
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="21"/>
       <c r="B17" s="8" t="s">
         <v>76</v>
@@ -5324,7 +5797,7 @@
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="21"/>
       <c r="B18" s="8" t="s">
         <v>88</v>
@@ -5338,7 +5811,7 @@
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="21"/>
       <c r="B19" s="8" t="s">
         <v>410</v>
@@ -5352,7 +5825,7 @@
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="21"/>
       <c r="B20" s="8" t="s">
         <v>79</v>
@@ -5366,7 +5839,7 @@
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="21"/>
       <c r="B21" s="8" t="s">
         <v>261</v>
@@ -5380,7 +5853,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="21"/>
       <c r="B22" s="8" t="s">
         <v>300</v>
@@ -5394,7 +5867,7 @@
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="21"/>
       <c r="B23" s="8" t="s">
         <v>134</v>
@@ -5408,7 +5881,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="21"/>
       <c r="B24" s="8" t="s">
         <v>161</v>
@@ -5422,7 +5895,7 @@
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="21"/>
       <c r="B25" s="8" t="s">
         <v>109</v>
@@ -5436,7 +5909,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="21"/>
       <c r="B26" s="8" t="s">
         <v>336</v>
@@ -5451,12 +5924,8 @@
       <c r="F26" s="9"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="8"/>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/check_sheet.xlsx
+++ b/check_sheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="430">
   <si>
     <t xml:space="preserve">* 5行目、D列以降のセルに検査対象サーバ接続情報を入力してください。'server_name'と'platform'は必須です。</t>
   </si>
@@ -47,30 +47,54 @@
     <t xml:space="preserve">チェックシートのID。検査対象がESXiホストの場合は'VMHost'を、ゲストOSの場合は、'Windows'または'Linux'を記入。設定ファイル内evidence.sheet_name_specのIDを指定</t>
   </si>
   <si>
+    <t xml:space="preserve">Windows</t>
+  </si>
+  <si>
     <t xml:space="preserve">virtualization</t>
   </si>
   <si>
     <t xml:space="preserve">'VM’か’オンプレサーバ’かを選択</t>
   </si>
   <si>
+    <t xml:space="preserve">オンプレ</t>
+  </si>
+  <si>
     <t xml:space="preserve">server_name</t>
   </si>
   <si>
     <t xml:space="preserve">検査対象サーバ名。検査シート内で一意となる名称を記入してください。</t>
   </si>
   <si>
+    <t xml:space="preserve">win2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">win2016</t>
+  </si>
+  <si>
     <t xml:space="preserve">ip</t>
   </si>
   <si>
     <t xml:space="preserve">SSH接続、PowerShell内コマンドで接続するIPアドレス</t>
   </si>
   <si>
+    <t xml:space="preserve">192.168.0.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.0.25</t>
+  </si>
+  <si>
     <t xml:space="preserve">os_account_id</t>
   </si>
   <si>
     <t xml:space="preserve">ローカル採取で使用するアカウントID。OSの情報採取の場合、対象サーバのOSアカウントを指定し、設定ファイル内パラメータaccount.{ドメイン}.{ID}のIDを指定する。リモート採取の場合は未記入</t>
   </si>
   <si>
+    <t xml:space="preserve">Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test2</t>
+  </si>
+  <si>
     <t xml:space="preserve">remote_account_id</t>
   </si>
   <si>
@@ -123,9 +147,6 @@
   </si>
   <si>
     <t xml:space="preserve">* IDが "filesystem.*", "user.*", "service.*", "packages.*" の行はカスタム項目となります。システム構成／要件に合わせて項目の削除、追加、変更をしてください。  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test</t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
@@ -744,6 +765,24 @@
     <t xml:space="preserve">DNSサーバの検索</t>
   </si>
   <si>
+    <t xml:space="preserve">keyboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">キーボード配列</t>
+  </si>
+  <si>
+    <t xml:space="preserve">language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OS言語</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timezone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">タイムゾーン</t>
+  </si>
+  <si>
     <t xml:space="preserve">ntp</t>
   </si>
   <si>
@@ -789,6 +828,15 @@
     <t xml:space="preserve">SELinuxモードの検索。SELinuxが無効の場合は空白</t>
   </si>
   <si>
+    <t xml:space="preserve">error_messages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syslogエラー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syslogメッセージでerror,warning,failedを含む行を抽出</t>
+  </si>
+  <si>
     <t xml:space="preserve">oracle_module</t>
   </si>
   <si>
@@ -810,9 +858,6 @@
     <t xml:space="preserve">* IDが "filesystem.*", "user.*", "service.*" の行はカスタム項目となります。システム構成／要件に合わせて項目の削除、追加、変更をしてください。 </t>
   </si>
   <si>
-    <t xml:space="preserve">Windows</t>
-  </si>
-  <si>
     <t xml:space="preserve">Win32_Processor オブジェクトからCPU情報を検索</t>
   </si>
   <si>
@@ -1020,6 +1065,15 @@
     <t xml:space="preserve">NICチーミング(NetLBFO)名を検索</t>
   </si>
   <si>
+    <t xml:space="preserve">network_profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ネットワークプロファイル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ネットワークプロファイル。0:パブリック,1:プライベート,2:ドメイン認証</t>
+  </si>
+  <si>
     <t xml:space="preserve">remote_desktop</t>
   </si>
   <si>
@@ -1062,6 +1116,21 @@
     <t xml:space="preserve">NTPサーバ情報</t>
   </si>
   <si>
+    <t xml:space="preserve">ie_version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InternetExplorerバージョン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows機能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">インストールされたWindows機能</t>
+  </si>
+  <si>
     <t xml:space="preserve">ホスト情報</t>
   </si>
   <si>
@@ -1146,9 +1215,6 @@
     <t xml:space="preserve">├─タイムゾーン</t>
   </si>
   <si>
-    <t xml:space="preserve">タイムゾーン</t>
-  </si>
-  <si>
     <t xml:space="preserve">電源状態</t>
   </si>
   <si>
@@ -1228,12 +1294,6 @@
   </si>
   <si>
     <t xml:space="preserve">結果を比較する対象サーバ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">win2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ostrich</t>
   </si>
   <si>
     <t xml:space="preserve">compare_source</t>
@@ -1309,12 +1369,6 @@
       </rPr>
       <t xml:space="preserve">データベースから </t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">actual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">local</t>
   </si>
   <si>
     <t xml:space="preserve">VMWare リソース割り当て</t>
@@ -1626,13 +1680,13 @@
   <dimension ref="B1:M19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A42:F42 A3"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.3659793814433"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7731958762887"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.5"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.8247422680412"/>
     <col collapsed="false" hidden="false" max="8" min="4" style="0" width="13.3659793814433"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.2731958762887"/>
@@ -1730,8 +1784,12 @@
       <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -1743,13 +1801,17 @@
     </row>
     <row r="6" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -1759,20 +1821,18 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f aca="false">IF(OR(D$5="Linux",D$5="Windows",D$5="VMHost"),"サーバ名を入力してください","")</f>
-        <v/>
-      </c>
-      <c r="E7" s="4" t="str">
-        <f aca="false">IF(OR(E$5="Linux",E$5="Windows",E$5="VMHost"),"サーバ名を入力してください","")</f>
-        <v/>
+        <v>11</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="F7" s="4" t="str">
         <f aca="false">IF(OR(F$5="Linux",F$5="Windows",F$5="VMHost"),"サーバ名を入力してください","")</f>
@@ -1807,20 +1867,18 @@
         <v/>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="4" t="str">
-        <f aca="false">IF(OR(D$5="Linux",D$5="Windows",D$5="VMHost"),"IPアドレスを入力してください","")</f>
-        <v/>
-      </c>
-      <c r="E8" s="4" t="str">
-        <f aca="false">IF(OR(E$5="Linux",E$5="Windows",E$5="VMHost"),"IPアドレスを入力してください","")</f>
-        <v/>
+        <v>15</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="F8" s="4" t="str">
         <f aca="false">IF(OR(F$5="Linux",F$5="Windows",F$5="VMHost"),"IPアドレスを入力してください","")</f>
@@ -1855,20 +1913,18 @@
         <v/>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="65.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="4" t="str">
-        <f aca="false">IF(OR(D$5="Linux",D$5="Windows",D$5="VMHost"),"OSアカウントIDを入力してください","")</f>
-        <v/>
-      </c>
-      <c r="E9" s="4" t="str">
-        <f aca="false">IF(OR(E$5="Linux",E$5="Windows",E$5="VMHost"),"OSアカウントIDを入力してください","")</f>
-        <v/>
+        <v>19</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="F9" s="4" t="str">
         <f aca="false">IF(OR(F$5="Linux",F$5="Windows",F$5="VMHost"),"OSアカウントIDを入力してください","")</f>
@@ -1905,10 +1961,10 @@
     </row>
     <row r="10" customFormat="false" ht="52.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D10" s="4" t="str">
         <f aca="false">IF(OR(D$6="VM"),"vCenterアカウントIDを入力してください","")</f>
@@ -1953,10 +2009,10 @@
     </row>
     <row r="11" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D11" s="4" t="str">
         <f aca="false">IF(OR(D$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
@@ -2001,10 +2057,10 @@
     </row>
     <row r="12" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -2019,10 +2075,10 @@
     </row>
     <row r="13" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="6" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -2038,7 +2094,7 @@
     <row r="14" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="3"/>
       <c r="C14" s="4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -2053,10 +2109,10 @@
     </row>
     <row r="15" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="8" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -2071,10 +2127,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="8" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -2089,10 +2145,10 @@
     </row>
     <row r="17" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -2107,10 +2163,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -2166,10 +2222,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C37" activeCellId="1" sqref="A42:F42 C37"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E79" activeCellId="0" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2194,7 +2250,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -2212,1282 +2268,1356 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="12" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13"/>
       <c r="B6" s="9" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="12" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="13"/>
       <c r="B7" s="9" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="12" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13"/>
       <c r="B8" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>41</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="12" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13"/>
       <c r="B9" s="9" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="12" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13"/>
       <c r="B10" s="9" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="12" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="12" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="12" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="12" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="D14" s="9" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="12" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="12" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="12" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="12" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="12" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="13"/>
       <c r="B20" s="9" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="12" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13"/>
       <c r="B21" s="9" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="12" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13"/>
       <c r="B22" s="9" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="12" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13"/>
       <c r="B23" s="9" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="12" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13"/>
       <c r="B24" s="9" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="12" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="12" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="12" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="13"/>
       <c r="B27" s="9" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="12" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="13"/>
       <c r="B28" s="9" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="12" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="13"/>
       <c r="B30" s="9" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="12" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="12" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="12" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="13"/>
       <c r="B34" s="9" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="12" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="13" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="12" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="12" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="13"/>
       <c r="B38" s="9" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="12" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="13"/>
       <c r="B39" s="9" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="12" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9"/>
       <c r="B40" s="9" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="12" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="12" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="9"/>
       <c r="B44" s="9" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="12" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="4" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="12" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="12" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9"/>
       <c r="B49" s="9" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="12" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9"/>
       <c r="B50" s="9" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="12" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9"/>
       <c r="B51" s="9" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="12" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="9"/>
       <c r="B52" s="9" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="12" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="9"/>
       <c r="B53" s="9" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="9"/>
       <c r="B54" s="9" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="12" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="9"/>
       <c r="B55" s="9" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="9" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="9"/>
       <c r="B57" s="9" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="12" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="9"/>
       <c r="B58" s="9" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="12" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="9"/>
       <c r="B59" s="9" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="9"/>
       <c r="B60" s="9" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="12" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="9"/>
       <c r="B61" s="9" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="12" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="9"/>
       <c r="B62" s="9" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="12" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="13"/>
       <c r="B63" s="13" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E63" s="13"/>
       <c r="F63" s="12" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="13"/>
       <c r="B64" s="13" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E64" s="13"/>
       <c r="F64" s="12" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E65" s="13"/>
       <c r="F65" s="12" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E66" s="13"/>
       <c r="F66" s="12" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E67" s="13"/>
       <c r="F67" s="12" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E68" s="13"/>
       <c r="F68" s="12" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E69" s="13"/>
       <c r="F69" s="12" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="13"/>
       <c r="B70" s="13" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E70" s="13"/>
       <c r="F70" s="12" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E71" s="14"/>
-      <c r="F71" s="15" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E72" s="9"/>
-      <c r="F72" s="12" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E73" s="9"/>
-      <c r="F73" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13" t="s">
         <v>244</v>
       </c>
     </row>
+    <row r="72" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13" t="s">
+        <v>248</v>
+      </c>
+    </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E74" s="9"/>
-      <c r="F74" s="12" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="9"/>
+      <c r="A74" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E74" s="14"/>
+      <c r="F74" s="15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B75" s="9" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="9" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="12" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="9" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="12" t="s">
-        <v>256</v>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="9"/>
+      <c r="B78" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E78" s="9"/>
+      <c r="F78" s="12" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E80" s="9"/>
+      <c r="F80" s="12" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E81" s="9"/>
+      <c r="F81" s="12" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -3506,10 +3636,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A42" activeCellId="0" sqref="A42:F42"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B43" activeCellId="0" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3534,7 +3664,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -3552,865 +3682,899 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="12" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13"/>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="12" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="13"/>
       <c r="B7" s="3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="12" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13"/>
       <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="12" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13"/>
       <c r="B9" s="3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="12" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13"/>
       <c r="B10" s="3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="12" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="12" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="12" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="12" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>258</v>
+        <v>6</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="12" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13"/>
       <c r="B16" s="3" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>258</v>
+        <v>6</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="12" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13"/>
       <c r="B17" s="3" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>258</v>
+        <v>6</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="12" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13"/>
       <c r="B18" s="3" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>258</v>
+        <v>6</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="12" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>258</v>
+        <v>6</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="12" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="13"/>
       <c r="B20" s="3" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>258</v>
+        <v>6</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="12" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13"/>
       <c r="B21" s="3" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>258</v>
+        <v>6</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="12" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13"/>
       <c r="B22" s="3" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>258</v>
+        <v>6</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="12" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>258</v>
+        <v>6</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="12" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13"/>
       <c r="B24" s="3" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>258</v>
+        <v>6</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="4" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13"/>
       <c r="B25" s="3" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>258</v>
+        <v>6</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="4" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="13"/>
       <c r="B26" s="3" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>258</v>
+        <v>6</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="4" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>258</v>
+        <v>6</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="4" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>258</v>
+        <v>6</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="12" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>258</v>
+        <v>6</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="4" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>258</v>
+        <v>6</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="4" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>258</v>
+        <v>6</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="4" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>258</v>
+        <v>6</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="4" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>258</v>
+        <v>6</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>258</v>
+        <v>6</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="16"/>
       <c r="B35" s="17" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>258</v>
+        <v>6</v>
       </c>
       <c r="E35" s="17"/>
       <c r="F35" s="18" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="16"/>
       <c r="B36" s="17" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>258</v>
+        <v>6</v>
       </c>
       <c r="E36" s="17"/>
       <c r="F36" s="18" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>258</v>
+        <v>6</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>258</v>
+        <v>6</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="4" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>258</v>
+        <v>6</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="16"/>
       <c r="B40" s="17" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>258</v>
+        <v>6</v>
       </c>
       <c r="E40" s="17"/>
       <c r="F40" s="18" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="16"/>
       <c r="B41" s="17" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>258</v>
+        <v>6</v>
       </c>
       <c r="E41" s="17"/>
       <c r="F41" s="18" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>258</v>
+        <v>6</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>258</v>
+        <v>6</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="12" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>258</v>
+        <v>6</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>258</v>
+        <v>6</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>328</v>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>343</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E46" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="F46" s="12" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>38</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E47" s="3"/>
       <c r="F47" s="12" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E48" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="F48" s="12" t="s">
-        <v>235</v>
+        <v>351</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>165</v>
+        <v>353</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>258</v>
+        <v>6</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="12" t="s">
-        <v>337</v>
+        <v>242</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>339</v>
+        <v>172</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>258</v>
+        <v>6</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="12" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>236</v>
+        <v>356</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>258</v>
+        <v>6</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="12" t="s">
-        <v>237</v>
+        <v>358</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="13"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="12"/>
-    </row>
-    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
+      <c r="A52" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="3"/>
+      <c r="F52" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="E53" s="9"/>
-      <c r="F53" s="12"/>
-    </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="12"/>
+      <c r="F53" s="9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="9"/>
@@ -4427,6 +4591,14 @@
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
       <c r="F56" s="12"/>
+    </row>
+    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4447,18 +4619,18 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A42:F42 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.5"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.3659793814433"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.2783505154639"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.9123711340206"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.77319587628866"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.639175257732"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.5"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.3659793814433"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="49.6443298969072"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="7.77319587628866"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="7.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4487,380 +4659,380 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>343</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>344</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5"/>
       <c r="B7" s="3" t="s">
-        <v>345</v>
+        <v>368</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5"/>
       <c r="B8" s="3" t="s">
-        <v>347</v>
+        <v>370</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>348</v>
+        <v>371</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>349</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5"/>
       <c r="B9" s="3" t="s">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>352</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
-        <v>353</v>
+        <v>376</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>355</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>356</v>
+        <v>379</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>357</v>
+        <v>380</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>358</v>
+        <v>381</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>359</v>
+        <v>382</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>362</v>
+        <v>385</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>367</v>
+        <v>390</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>370</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>371</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>372</v>
+        <v>394</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>374</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>375</v>
+        <v>397</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>376</v>
+        <v>398</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>377</v>
+        <v>399</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>380</v>
+        <v>402</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>381</v>
+        <v>403</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>385</v>
+        <v>407</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>388</v>
+        <v>410</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>389</v>
+        <v>411</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>390</v>
+        <v>412</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>391</v>
+        <v>413</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>392</v>
+        <v>414</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>393</v>
+        <v>415</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5090,7 +5262,7 @@
   <dimension ref="A4:F26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="A42:F42 C1"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5107,63 +5279,55 @@
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="21"/>
       <c r="B4" s="8" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>395</v>
+        <v>417</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="21"/>
       <c r="B5" s="22" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>397</v>
+        <v>419</v>
       </c>
       <c r="D5" s="23"/>
-      <c r="E5" s="24" t="s">
-        <v>398</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="49.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+    </row>
+    <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>401</v>
+        <v>421</v>
       </c>
       <c r="D6" s="23"/>
-      <c r="E6" s="24" t="s">
-        <v>402</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>403</v>
-      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
     </row>
     <row r="7" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="21"/>
       <c r="B7" s="8" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -5171,67 +5335,67 @@
     <row r="8" customFormat="false" ht="52.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="21"/>
       <c r="B8" s="8" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="52.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="21"/>
       <c r="B9" s="8" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="21"/>
       <c r="B10" s="8" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="21"/>
       <c r="B11" s="8" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>408</v>
+        <v>426</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -5239,13 +5403,13 @@
     <row r="12" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="21"/>
       <c r="B12" s="8" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -5253,13 +5417,13 @@
     <row r="13" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="21"/>
       <c r="B13" s="8" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -5267,31 +5431,31 @@
     <row r="14" customFormat="false" ht="52.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="21"/>
       <c r="B14" s="9" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="21"/>
       <c r="B15" s="8" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
@@ -5299,13 +5463,13 @@
     <row r="16" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="21"/>
       <c r="B16" s="8" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
@@ -5313,13 +5477,13 @@
     <row r="17" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="21"/>
       <c r="B17" s="8" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -5327,13 +5491,13 @@
     <row r="18" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="21"/>
       <c r="B18" s="8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
@@ -5341,13 +5505,13 @@
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="21"/>
       <c r="B19" s="8" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>258</v>
+        <v>6</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
@@ -5355,13 +5519,13 @@
     <row r="20" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="21"/>
       <c r="B20" s="8" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>258</v>
+        <v>6</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
@@ -5369,13 +5533,13 @@
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="21"/>
       <c r="B21" s="8" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>258</v>
+        <v>6</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
@@ -5383,13 +5547,13 @@
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="21"/>
       <c r="B22" s="8" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>258</v>
+        <v>6</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
@@ -5397,13 +5561,13 @@
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="21"/>
       <c r="B23" s="8" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>258</v>
+        <v>6</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
@@ -5411,13 +5575,13 @@
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="21"/>
       <c r="B24" s="8" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>258</v>
+        <v>6</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
@@ -5425,13 +5589,13 @@
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="21"/>
       <c r="B25" s="8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>258</v>
+        <v>6</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
@@ -5439,13 +5603,13 @@
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="21"/>
       <c r="B26" s="8" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>258</v>
+        <v>6</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>

--- a/check_sheet.xlsx
+++ b/check_sheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="436">
   <si>
     <t xml:space="preserve">* 5行目、D列以降のセルに検査対象サーバ接続情報を入力してください。'server_name'と'platform'は必須です。</t>
   </si>
@@ -1129,6 +1129,24 @@
   </si>
   <si>
     <t xml:space="preserve">インストールされたWindows機能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">system_log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windowsシステムイベントログ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windowsシステムイベントログからエラーを抽出</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apps_log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windowsアプリイベントログ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windowsアプリイベントログから、エラーを抽出</t>
   </si>
   <si>
     <t xml:space="preserve">ホスト情報</t>
@@ -1680,13 +1698,13 @@
   <dimension ref="B1:M19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="1" sqref="A55:F56 E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.3659793814433"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3659793814433"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.8247422680412"/>
     <col collapsed="false" hidden="false" max="8" min="4" style="0" width="13.3659793814433"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.2731958762887"/>
@@ -2225,7 +2243,7 @@
   <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E79" activeCellId="0" sqref="E79"/>
+      <selection pane="topLeft" activeCell="E79" activeCellId="1" sqref="A55:F56 E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3639,7 +3657,7 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B43" activeCellId="0" sqref="B43"/>
+      <selection pane="topLeft" activeCell="A55" activeCellId="0" sqref="A55:F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4576,21 +4594,45 @@
         <v>364</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="12"/>
-    </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="12"/>
+    <row r="55" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="9"/>
@@ -4619,18 +4661,17 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A55:F56 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.3659793814433"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.2783505154639"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.639175257732"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.3659793814433"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.5051546391753"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="7.3659793814433"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="49.6443298969072"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="7.5"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="7.3659793814433"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4685,14 +4726,14 @@
         <v>57</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4708,13 +4749,13 @@
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5"/>
       <c r="B7" s="3" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>93</v>
@@ -4724,128 +4765,128 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5"/>
       <c r="B8" s="3" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5"/>
       <c r="B9" s="3" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>57</v>
@@ -4868,23 +4909,23 @@
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4906,33 +4947,33 @@
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4940,10 +4981,10 @@
         <v>45</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>57</v>
@@ -4952,7 +4993,7 @@
         <v>45</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4960,7 +5001,7 @@
         <v>45</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>338</v>
@@ -4972,7 +5013,7 @@
         <v>45</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4980,10 +5021,10 @@
         <v>45</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>57</v>
@@ -4992,7 +5033,7 @@
         <v>45</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5000,10 +5041,10 @@
         <v>45</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>57</v>
@@ -5012,7 +5053,7 @@
         <v>45</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5020,10 +5061,10 @@
         <v>45</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>57</v>
@@ -5032,7 +5073,7 @@
         <v>45</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5262,7 +5303,7 @@
   <dimension ref="A4:F26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="1" sqref="A55:F56 C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5288,10 +5329,10 @@
         <v>42</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5300,7 +5341,7 @@
         <v>28</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="24"/>
@@ -5309,10 +5350,10 @@
     <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="24"/>
@@ -5324,7 +5365,7 @@
         <v>46</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>48</v>
@@ -5344,10 +5385,10 @@
         <v>48</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="52.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5362,10 +5403,10 @@
         <v>48</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5380,10 +5421,10 @@
         <v>48</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5392,7 +5433,7 @@
         <v>60</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>48</v>
@@ -5440,10 +5481,10 @@
         <v>48</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5505,10 +5546,10 @@
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="21"/>
       <c r="B19" s="8" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>6</v>

--- a/check_sheet.xlsx
+++ b/check_sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Target" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="CheckSheet(VMHost)" sheetId="4" r:id="rId4"/>
     <sheet name="Rule" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="454">
   <si>
     <t>* 5行目、D列以降のセルに検査対象サーバ接続情報を入力してください。'server_name'と'platform'は必須です。</t>
   </si>
@@ -55,33 +55,18 @@
     <t>'VM’か’オンプレサーバ’かを選択</t>
   </si>
   <si>
-    <t>オンプレ</t>
-  </si>
-  <si>
     <t>server_name</t>
   </si>
   <si>
     <t>検査対象サーバ名。検査シート内で一意となる名称を記入してください。</t>
   </si>
   <si>
-    <t>win2012</t>
-  </si>
-  <si>
-    <t>win2016</t>
-  </si>
-  <si>
     <t>ip</t>
   </si>
   <si>
     <t>SSH接続、PowerShell内コマンドで接続するIPアドレス</t>
   </si>
   <si>
-    <t>192.168.0.19</t>
-  </si>
-  <si>
-    <t>192.168.0.25</t>
-  </si>
-  <si>
     <t>os_account_id</t>
   </si>
   <si>
@@ -89,9 +74,6 @@
   </si>
   <si>
     <t>Test</t>
-  </si>
-  <si>
-    <t>Test2</t>
   </si>
   <si>
     <t>remote_account_id</t>
@@ -1468,6 +1450,68 @@
     <rPh sb="8" eb="9">
       <t>ヨウ</t>
     </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>packages.hpsmh</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>├─HPE SMHユーティリティ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>HP Systems Insight Manager（SIM）にプラグインとして統合されているサーバー構成の統合管理ツール</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>packages.sos</t>
+  </si>
+  <si>
+    <t>packages.sysstat</t>
+  </si>
+  <si>
+    <t>packages.dmidecode</t>
+  </si>
+  <si>
+    <t>packages.net-snmp</t>
+  </si>
+  <si>
+    <t>Linux システムから設定と診断情報を取得するツール</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>├─sos</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>├─sysstat</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>├─dmidecode</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>├─NetSNMP</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>sarコマンドが入っているパッケージ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ハードウェア構成情報のレポートツール</t>
+    <rPh sb="6" eb="8">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>SNMPマネージャライブラリ</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -2003,8 +2047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2108,12 +2152,8 @@
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -2130,12 +2170,8 @@
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -2147,19 +2183,21 @@
     </row>
     <row r="7" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>13</v>
+      <c r="D7" s="3" t="str">
+        <f t="shared" ref="D7:M7" si="0">IF(OR(D$5="Linux",D$5="Windows",D$5="VMHost"),"サーバ名を入力してください","")</f>
+        <v/>
+      </c>
+      <c r="E7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="F7" s="3" t="str">
-        <f t="shared" ref="F7:M7" si="0">IF(OR(F$5="Linux",F$5="Windows",F$5="VMHost"),"サーバ名を入力してください","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G7" s="3" t="str">
@@ -2193,19 +2231,21 @@
     </row>
     <row r="8" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f t="shared" ref="D8:M8" si="1">IF(OR(D$5="Linux",D$5="Windows",D$5="VMHost"),"IPアドレスを入力してください","")</f>
+        <v/>
+      </c>
+      <c r="E8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="F8" s="3" t="str">
-        <f t="shared" ref="F8:M8" si="1">IF(OR(F$5="Linux",F$5="Windows",F$5="VMHost"),"IPアドレスを入力してください","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G8" s="3" t="str">
@@ -2239,19 +2279,21 @@
     </row>
     <row r="9" spans="2:13" ht="57" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f t="shared" ref="D9:M9" si="2">IF(OR(D$5="Linux",D$5="Windows",D$5="VMHost"),"OSアカウントIDを入力してください","")</f>
+        <v/>
+      </c>
+      <c r="E9" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="F9" s="3" t="str">
-        <f t="shared" ref="F9:M9" si="2">IF(OR(F$5="Linux",F$5="Windows",F$5="VMHost"),"OSアカウントIDを入力してください","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G9" s="3" t="str">
@@ -2285,10 +2327,10 @@
     </row>
     <row r="10" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" ref="D10:M10" si="3">IF(OR(D$6="VM"),"vCenterアカウントIDを入力してください","")</f>
@@ -2333,10 +2375,10 @@
     </row>
     <row r="11" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" ref="D11:M11" si="4">IF(OR(D$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
@@ -2381,10 +2423,10 @@
     </row>
     <row r="12" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -2399,10 +2441,10 @@
     </row>
     <row r="13" spans="2:13" ht="36" x14ac:dyDescent="0.15">
       <c r="B13" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -2418,7 +2460,7 @@
     <row r="14" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B14" s="2"/>
       <c r="C14" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -2433,10 +2475,10 @@
     </row>
     <row r="15" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B15" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -2451,10 +2493,10 @@
     </row>
     <row r="16" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B16" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -2469,10 +2511,10 @@
     </row>
     <row r="17" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -2487,10 +2529,10 @@
     </row>
     <row r="18" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
@@ -2539,10 +2581,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2567,7 +2609,7 @@
     </row>
     <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -2585,1404 +2627,1484 @@
     </row>
     <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="12"/>
       <c r="B6" s="8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="12"/>
       <c r="B7" s="8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="12"/>
       <c r="B8" s="8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="12"/>
       <c r="B9" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="11" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="12"/>
       <c r="B10" s="8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="11" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="11" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="11" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="11" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="11" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="11" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="11" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="12"/>
       <c r="B20" s="8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="12"/>
       <c r="B21" s="8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="11" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="12"/>
       <c r="B22" s="8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="11" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="12"/>
       <c r="B23" s="8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="11" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="12"/>
       <c r="B24" s="8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="11" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A25" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="11" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="11" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="12"/>
       <c r="B27" s="8" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="11" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="12"/>
       <c r="B28" s="8" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="12"/>
       <c r="B30" s="8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="11" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A31" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="11" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A33" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="12"/>
       <c r="B34" s="8" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="11" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A35" s="12" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="11" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A36" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="11" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="12"/>
       <c r="B38" s="8" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="11" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="12"/>
       <c r="B39" s="8" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="11" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="8"/>
       <c r="B40" s="8" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="11" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A41" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="11" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="8"/>
       <c r="B44" s="8" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="11" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A46" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="11" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E47" s="8"/>
       <c r="F47" s="11" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="8"/>
       <c r="B49" s="8" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="11" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="8"/>
       <c r="B50" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E50" s="8"/>
       <c r="F50" s="11" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="8"/>
       <c r="B51" s="8" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="11" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A52" s="8"/>
       <c r="B52" s="8" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="11" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A53" s="8"/>
       <c r="B53" s="8" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="11" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A54" s="8"/>
       <c r="B54" s="8" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="11" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A55" s="8"/>
       <c r="B55" s="8" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="11" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A56" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A57" s="8"/>
       <c r="B57" s="8" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="11" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A58" s="8"/>
       <c r="B58" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E58" s="8"/>
       <c r="F58" s="11" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A59" s="8"/>
       <c r="B59" s="8" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="11" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A60" s="8"/>
       <c r="B60" s="8" t="s">
-        <v>210</v>
+        <v>442</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>211</v>
+        <v>447</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="11" t="s">
-        <v>212</v>
+        <v>446</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A61" s="8"/>
       <c r="B61" s="8" t="s">
-        <v>213</v>
+        <v>443</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>214</v>
+        <v>448</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="11" t="s">
-        <v>215</v>
+        <v>451</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A62" s="8"/>
       <c r="B62" s="8" t="s">
-        <v>216</v>
+        <v>444</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>217</v>
+        <v>449</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="11" t="s">
-        <v>218</v>
+        <v>452</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A63" s="12"/>
-      <c r="B63" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E63" s="12"/>
+      <c r="A63" s="8"/>
+      <c r="B63" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E63" s="8"/>
       <c r="F63" s="11" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A64" s="12"/>
-      <c r="B64" s="12" t="s">
-        <v>222</v>
+        <v>453</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8" t="s">
+        <v>204</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E64" s="12"/>
+        <v>205</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E64" s="8"/>
       <c r="F64" s="11" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="57" x14ac:dyDescent="0.15">
-      <c r="A65" s="12"/>
-      <c r="B65" s="12" t="s">
-        <v>436</v>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E65" s="12"/>
+        <v>440</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E65" s="8"/>
       <c r="F65" s="11" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A66" s="12"/>
-      <c r="B66" s="12" t="s">
-        <v>437</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E66" s="12"/>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E66" s="8"/>
       <c r="F66" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A67" s="12"/>
-      <c r="B67" s="12" t="s">
-        <v>439</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>440</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E67" s="12"/>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E67" s="8"/>
       <c r="F67" s="11" t="s">
-        <v>442</v>
+        <v>212</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A68" s="12" t="s">
-        <v>45</v>
-      </c>
+      <c r="A68" s="12"/>
       <c r="B68" s="12" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E68" s="12"/>
       <c r="F68" s="11" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A69" s="12" t="s">
-        <v>45</v>
-      </c>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A69" s="12"/>
       <c r="B69" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>228</v>
+        <v>216</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>429</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E69" s="12"/>
       <c r="F69" s="11" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A70" s="12" t="s">
-        <v>45</v>
-      </c>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="57" x14ac:dyDescent="0.15">
+      <c r="A70" s="12"/>
       <c r="B70" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>231</v>
+        <v>430</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E70" s="12"/>
       <c r="F70" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A71" s="12" t="s">
-        <v>45</v>
-      </c>
+        <v>437</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A71" s="12"/>
       <c r="B71" s="12" t="s">
-        <v>233</v>
+        <v>431</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>234</v>
+        <v>432</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E71" s="12"/>
       <c r="F71" s="11" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A72" s="12" t="s">
-        <v>45</v>
-      </c>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A72" s="12"/>
       <c r="B72" s="12" t="s">
-        <v>236</v>
+        <v>433</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>237</v>
+        <v>434</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E72" s="12"/>
       <c r="F72" s="11" t="s">
-        <v>238</v>
+        <v>436</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A73" s="12"/>
+      <c r="A73" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="B73" s="12" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E73" s="12"/>
       <c r="F73" s="11" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A74" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E74" s="12"/>
-      <c r="F74" s="12" t="s">
-        <v>243</v>
+      <c r="F74" s="11" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A75" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B75" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E75" s="12"/>
+      <c r="F75" s="11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A76" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E76" s="12"/>
+      <c r="F76" s="11" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A77" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E77" s="12"/>
+      <c r="F77" s="11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A78" s="12"/>
+      <c r="B78" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E78" s="12"/>
+      <c r="F78" s="11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A79" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A80" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A81" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A82" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E82" s="13"/>
+      <c r="F82" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="C75" s="12" t="s">
+    </row>
+    <row r="83" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A83" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B83" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="D75" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A76" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B76" s="12" t="s">
+      <c r="C83" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="C76" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A77" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B77" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="D77" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E77" s="13"/>
-      <c r="F77" s="14" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A78" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E78" s="8"/>
-      <c r="F78" s="11" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A79" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E79" s="8"/>
-      <c r="F79" s="11" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A80" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E80" s="8"/>
-      <c r="F80" s="11" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A81" s="8"/>
-      <c r="B81" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E81" s="8"/>
-      <c r="F81" s="11" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A82" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F82" s="11" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A83" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>267</v>
-      </c>
       <c r="D83" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E83" s="8"/>
       <c r="F83" s="11" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A84" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E84" s="8"/>
       <c r="F84" s="11" t="s">
-        <v>271</v>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A85" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E85" s="8"/>
+      <c r="F85" s="11" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A86" s="8"/>
+      <c r="B86" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E86" s="8"/>
+      <c r="F86" s="11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A87" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F87" s="11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A88" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E88" s="8"/>
+      <c r="F88" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A89" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E89" s="8"/>
+      <c r="F89" s="11" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -3994,10 +4116,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4022,7 +4144,7 @@
     </row>
     <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -4040,947 +4162,955 @@
     </row>
     <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="12"/>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="12"/>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="12"/>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="12"/>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="11" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="12"/>
       <c r="B10" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="11" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="11" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="11" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="11" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="11" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="12"/>
       <c r="B16" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="12"/>
       <c r="B17" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="11" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="12"/>
       <c r="B18" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="11" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="11" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="12"/>
       <c r="B20" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="11" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="12"/>
       <c r="B21" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="11" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="12"/>
       <c r="B22" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="11" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="12"/>
       <c r="B24" s="2" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="12"/>
       <c r="B25" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="3" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="12"/>
       <c r="B26" s="2" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="3" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="3" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="11" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="3" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="3" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="3" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="3" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A33" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="16" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E35" s="16"/>
       <c r="F35" s="17" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="16" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D36" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E36" s="16"/>
       <c r="F36" s="17" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="15"/>
       <c r="B40" s="16" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E40" s="16"/>
       <c r="F40" s="17" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="15"/>
       <c r="B41" s="16" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E41" s="16"/>
       <c r="F41" s="17" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A43" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="11" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="11"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="E44" s="2"/>
       <c r="F44" s="11" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A45" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>339</v>
+        <v>110</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A46" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>342</v>
+      <c r="A46" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A47" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>345</v>
+      <c r="A47" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>336</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="2"/>
+      <c r="E47" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="F47" s="11" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="E48" s="2"/>
       <c r="F48" s="11" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E49" s="2"/>
+      <c r="E49" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="F49" s="11" t="s">
-        <v>241</v>
+        <v>344</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>172</v>
+        <v>346</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="11" t="s">
-        <v>354</v>
+        <v>235</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>356</v>
+        <v>166</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="11" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A52" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>248</v>
+        <v>349</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="11" t="s">
-        <v>249</v>
+        <v>351</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A53" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>360</v>
+        <v>39</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>352</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8" t="s">
-        <v>360</v>
+      <c r="E53" s="2"/>
+      <c r="F53" s="11" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A54" s="8" t="s">
-        <v>45</v>
+      <c r="A54" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="D54" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E54" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>363</v>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A55" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>366</v>
+        <v>39</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A56" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="11"/>
+      <c r="A57" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8"/>
@@ -5031,380 +5161,380 @@
     </row>
     <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="2" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="2" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="2" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="2" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="2" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -5630,7 +5760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -5648,28 +5778,28 @@
     <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="20"/>
       <c r="B4" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="20"/>
       <c r="B5" s="21" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
@@ -5678,10 +5808,10 @@
     <row r="6" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A6" s="20"/>
       <c r="B6" s="21" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="23"/>
@@ -5690,13 +5820,13 @@
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="20"/>
       <c r="B7" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -5704,67 +5834,67 @@
     <row r="8" spans="1:6" ht="57" x14ac:dyDescent="0.15">
       <c r="A8" s="20"/>
       <c r="B8" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="57" x14ac:dyDescent="0.15">
       <c r="A9" s="20"/>
       <c r="B9" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A10" s="20"/>
       <c r="B10" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="20"/>
       <c r="B11" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -5772,13 +5902,13 @@
     <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="20"/>
       <c r="B12" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
@@ -5786,13 +5916,13 @@
     <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="20"/>
       <c r="B13" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
@@ -5800,31 +5930,31 @@
     <row r="14" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A14" s="20"/>
       <c r="B14" s="8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="20"/>
       <c r="B15" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -5832,13 +5962,13 @@
     <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="20"/>
       <c r="B16" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
@@ -5846,13 +5976,13 @@
     <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="20"/>
       <c r="B17" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
@@ -5860,13 +5990,13 @@
     <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="20"/>
       <c r="B18" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -5874,10 +6004,10 @@
     <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="20"/>
       <c r="B19" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>6</v>
@@ -5888,10 +6018,10 @@
     <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="20"/>
       <c r="B20" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>6</v>
@@ -5902,10 +6032,10 @@
     <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="20"/>
       <c r="B21" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>6</v>
@@ -5916,10 +6046,10 @@
     <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="20"/>
       <c r="B22" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>6</v>
@@ -5930,10 +6060,10 @@
     <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="20"/>
       <c r="B23" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>6</v>
@@ -5944,10 +6074,10 @@
     <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="20"/>
       <c r="B24" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>6</v>
@@ -5958,10 +6088,10 @@
     <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="20"/>
       <c r="B25" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>6</v>
@@ -5972,10 +6102,10 @@
     <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="20"/>
       <c r="B26" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>6</v>

--- a/check_sheet.xlsx
+++ b/check_sheet.xlsx
@@ -13,7 +13,7 @@
     <sheet name="CheckSheet(VMHost)" sheetId="4" r:id="rId4"/>
     <sheet name="Rule" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="458">
   <si>
     <t>* 5行目、D列以降のセルに検査対象サーバ接続情報を入力してください。'server_name'と'platform'は必須です。</t>
   </si>
@@ -1512,6 +1512,21 @@
   </si>
   <si>
     <t>SNMPマネージャライブラリ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>VM</t>
+  </si>
+  <si>
+    <t>win2012</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Test</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ostrich</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -2047,8 +2062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2152,8 +2167,12 @@
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -2170,8 +2189,12 @@
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>454</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -2188,16 +2211,14 @@
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="3" t="str">
-        <f t="shared" ref="D7:M7" si="0">IF(OR(D$5="Linux",D$5="Windows",D$5="VMHost"),"サーバ名を入力してください","")</f>
-        <v/>
-      </c>
-      <c r="E7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="D7" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>457</v>
       </c>
       <c r="F7" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D7:M7" si="0">IF(OR(F$5="Linux",F$5="Windows",F$5="VMHost"),"サーバ名を入力してください","")</f>
         <v/>
       </c>
       <c r="G7" s="3" t="str">
@@ -2236,16 +2257,14 @@
       <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="3" t="str">
-        <f t="shared" ref="D8:M8" si="1">IF(OR(D$5="Linux",D$5="Windows",D$5="VMHost"),"IPアドレスを入力してください","")</f>
-        <v/>
-      </c>
-      <c r="E8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="D8" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>457</v>
       </c>
       <c r="F8" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D8:M8" si="1">IF(OR(F$5="Linux",F$5="Windows",F$5="VMHost"),"IPアドレスを入力してください","")</f>
         <v/>
       </c>
       <c r="G8" s="3" t="str">
@@ -2284,16 +2303,14 @@
       <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="3" t="str">
-        <f t="shared" ref="D9:M9" si="2">IF(OR(D$5="Linux",D$5="Windows",D$5="VMHost"),"OSアカウントIDを入力してください","")</f>
-        <v/>
-      </c>
-      <c r="E9" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="D9" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>456</v>
       </c>
       <c r="F9" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D9:M9" si="2">IF(OR(F$5="Linux",F$5="Windows",F$5="VMHost"),"OSアカウントIDを入力してください","")</f>
         <v/>
       </c>
       <c r="G9" s="3" t="str">
@@ -2332,16 +2349,14 @@
       <c r="C10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="3" t="str">
-        <f t="shared" ref="D10:M10" si="3">IF(OR(D$6="VM"),"vCenterアカウントIDを入力してください","")</f>
-        <v/>
-      </c>
-      <c r="E10" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="D10" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>456</v>
       </c>
       <c r="F10" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D10:M10" si="3">IF(OR(F$6="VM"),"vCenterアカウントIDを入力してください","")</f>
         <v/>
       </c>
       <c r="G10" s="3" t="str">
@@ -2380,16 +2395,14 @@
       <c r="C11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="3" t="str">
-        <f t="shared" ref="D11:M11" si="4">IF(OR(D$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
-        <v/>
-      </c>
-      <c r="E11" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="D11" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>457</v>
       </c>
       <c r="F11" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="D11:M11" si="4">IF(OR(F$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
         <v/>
       </c>
       <c r="G11" s="3" t="str">

--- a/check_sheet.xlsx
+++ b/check_sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Target" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="461">
   <si>
     <t xml:space="preserve">* 5行目、D列以降のセルに検査対象サーバ接続情報を入力してください。'server_name'と'platform'は必須です。</t>
   </si>
@@ -47,9 +47,6 @@
     <t xml:space="preserve">チェックシートのID。検査対象がESXiホストの場合は'VMHost'を、ゲストOSの場合は、'Windows'または'Linux'を記入。設定ファイル内evidence.sheet_name_specのIDを指定</t>
   </si>
   <si>
-    <t xml:space="preserve">Windows</t>
-  </si>
-  <si>
     <t xml:space="preserve">Linux</t>
   </si>
   <si>
@@ -59,7 +56,7 @@
     <t xml:space="preserve">'VM’か’オンプレサーバ’かを選択</t>
   </si>
   <si>
-    <t xml:space="preserve">VM</t>
+    <t xml:space="preserve">オンプレ</t>
   </si>
   <si>
     <t xml:space="preserve">server_name</t>
@@ -68,10 +65,7 @@
     <t xml:space="preserve">検査対象サーバ名。検査シート内で一意となる名称を記入してください。</t>
   </si>
   <si>
-    <t xml:space="preserve">win2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ostrich</t>
+    <t xml:space="preserve">centos7</t>
   </si>
   <si>
     <t xml:space="preserve">ip</t>
@@ -935,6 +929,9 @@
   </si>
   <si>
     <t xml:space="preserve">* IDが "filesystem.*", "user.*", "service.*" の行はカスタム項目となります。システム構成／要件に合わせて項目の削除、追加、変更をしてください。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows</t>
   </si>
   <si>
     <t xml:space="preserve">Win32_Processor オブジェクトからCPU情報を検索</t>
@@ -1780,8 +1777,8 @@
   </sheetPr>
   <dimension ref="B1:M19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="1" sqref="A11:F12 C9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1878,7 +1875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1888,9 +1885,7 @@
       <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -1900,19 +1895,17 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -1922,19 +1915,17 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="E7" s="4"/>
       <c r="F7" s="4" t="str">
         <f aca="false">IF(OR(F$5="Linux",F$5="Windows",F$5="VMHost"),"サーバ名を入力してください","")</f>
         <v/>
@@ -1968,19 +1959,17 @@
         <v/>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E8" s="4"/>
       <c r="F8" s="4" t="str">
         <f aca="false">IF(OR(F$5="Linux",F$5="Windows",F$5="VMHost"),"IPアドレスを入力してください","")</f>
         <v/>
@@ -2014,19 +2003,17 @@
         <v/>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="E9" s="4"/>
       <c r="F9" s="4" t="str">
         <f aca="false">IF(OR(F$5="Linux",F$5="Windows",F$5="VMHost"),"OSアカウントIDを入力してください","")</f>
         <v/>
@@ -2060,19 +2047,15 @@
         <v/>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="4" t="str">
         <f aca="false">IF(OR(F$6="VM"),"vCenterアカウントIDを入力してください","")</f>
         <v/>
@@ -2106,19 +2089,15 @@
         <v/>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>14</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="4" t="str">
         <f aca="false">IF(OR(F$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
         <v/>
@@ -2154,10 +2133,10 @@
     </row>
     <row r="12" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -2172,10 +2151,10 @@
     </row>
     <row r="13" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -2191,7 +2170,7 @@
     <row r="14" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="3"/>
       <c r="C14" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -2206,10 +2185,10 @@
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -2224,10 +2203,10 @@
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -2242,10 +2221,10 @@
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -2260,10 +2239,10 @@
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -2322,7 +2301,7 @@
   <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11:F12"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="1" sqref="D8 A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2347,7 +2326,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -2365,1524 +2344,1524 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="F4" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="D5" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>46</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13"/>
       <c r="B6" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="13"/>
       <c r="B7" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13"/>
       <c r="B8" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13"/>
       <c r="B9" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13"/>
       <c r="B10" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13"/>
       <c r="B22" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13"/>
       <c r="B23" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13"/>
       <c r="B24" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13"/>
       <c r="B25" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="13"/>
       <c r="B26" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="13"/>
       <c r="B29" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="13"/>
       <c r="B30" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="13"/>
       <c r="B32" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B35" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="12" t="s">
         <v>130</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="13"/>
       <c r="B36" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>138</v>
-      </c>
       <c r="D37" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B39" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="12" t="s">
         <v>143</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="13"/>
       <c r="B40" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="13"/>
       <c r="B41" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9"/>
       <c r="B42" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B44" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44" s="12" t="s">
         <v>158</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B45" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F45" s="12" t="s">
         <v>161</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9"/>
       <c r="B46" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B50" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F50" s="12" t="s">
         <v>176</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9"/>
       <c r="B51" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="9"/>
       <c r="B52" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="9"/>
       <c r="B53" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="9"/>
       <c r="B54" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="9"/>
       <c r="B55" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="9"/>
       <c r="B56" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="9"/>
       <c r="B57" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B58" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F58" s="12" t="s">
         <v>200</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F58" s="12" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="9"/>
       <c r="B59" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="9"/>
       <c r="B60" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="9"/>
       <c r="B61" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="9"/>
       <c r="B62" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="9"/>
       <c r="B63" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="9"/>
       <c r="B64" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E64" s="9"/>
       <c r="F64" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="9"/>
       <c r="B65" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="9"/>
       <c r="B66" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="9"/>
       <c r="B67" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E67" s="9"/>
       <c r="F67" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="9"/>
       <c r="B68" s="9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="9"/>
       <c r="B69" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="13"/>
       <c r="B70" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E70" s="13"/>
       <c r="F70" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="13"/>
       <c r="B71" s="13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E71" s="13"/>
       <c r="F71" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="13"/>
       <c r="B72" s="13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E72" s="13"/>
       <c r="F72" s="12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="13"/>
       <c r="B73" s="13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E73" s="13"/>
       <c r="F73" s="12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="13"/>
       <c r="B74" s="13" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E74" s="13"/>
       <c r="F74" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E75" s="13"/>
       <c r="F75" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E76" s="13"/>
       <c r="F76" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E77" s="13"/>
       <c r="F77" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E78" s="13"/>
       <c r="F78" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E79" s="13"/>
       <c r="F79" s="12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="13"/>
       <c r="B80" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E80" s="13"/>
       <c r="F80" s="12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E81" s="13"/>
       <c r="F81" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E82" s="13"/>
       <c r="F82" s="13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E83" s="13"/>
       <c r="F83" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E84" s="15"/>
       <c r="F84" s="16" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E85" s="9"/>
       <c r="F85" s="12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E86" s="9"/>
       <c r="F86" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E87" s="9"/>
       <c r="F87" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="9"/>
       <c r="B88" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E88" s="9"/>
       <c r="F88" s="12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B89" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F89" s="12" t="s">
         <v>290</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E89" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F89" s="12" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E90" s="9"/>
       <c r="F90" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E91" s="9"/>
       <c r="F91" s="12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -3903,8 +3882,8 @@
   </sheetPr>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11:F12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="1" sqref="D8 A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3929,7 +3908,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -3947,712 +3926,712 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13"/>
       <c r="B6" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="13"/>
       <c r="B7" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13"/>
       <c r="B8" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13"/>
       <c r="B9" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13"/>
       <c r="B10" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>6</v>
+        <v>298</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13"/>
       <c r="B18" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>6</v>
+        <v>298</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="13"/>
       <c r="B19" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>6</v>
+        <v>298</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="13"/>
       <c r="B20" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>6</v>
+        <v>298</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>6</v>
+        <v>298</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13"/>
       <c r="B22" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>305</v>
-      </c>
       <c r="D22" s="3" t="s">
-        <v>6</v>
+        <v>298</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13"/>
       <c r="B23" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>307</v>
-      </c>
       <c r="D23" s="3" t="s">
-        <v>6</v>
+        <v>298</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13"/>
       <c r="B24" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>310</v>
-      </c>
       <c r="D24" s="3" t="s">
-        <v>6</v>
+        <v>298</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>312</v>
-      </c>
       <c r="D25" s="3" t="s">
-        <v>6</v>
+        <v>298</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="13"/>
       <c r="B26" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>315</v>
-      </c>
       <c r="D26" s="3" t="s">
-        <v>6</v>
+        <v>298</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="13"/>
       <c r="B27" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>318</v>
-      </c>
       <c r="D27" s="3" t="s">
-        <v>6</v>
+        <v>298</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="13"/>
       <c r="B28" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>321</v>
-      </c>
       <c r="D28" s="3" t="s">
-        <v>6</v>
+        <v>298</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>324</v>
-      </c>
       <c r="D29" s="3" t="s">
-        <v>6</v>
+        <v>298</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>327</v>
-      </c>
       <c r="D30" s="3" t="s">
-        <v>6</v>
+        <v>298</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>330</v>
-      </c>
       <c r="D31" s="3" t="s">
-        <v>6</v>
+        <v>298</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>333</v>
-      </c>
       <c r="D32" s="3" t="s">
-        <v>6</v>
+        <v>298</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>336</v>
-      </c>
       <c r="D33" s="3" t="s">
-        <v>6</v>
+        <v>298</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="D34" s="3" t="s">
-        <v>6</v>
+        <v>298</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="12" t="s">
         <v>342</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" s="12" t="s">
         <v>344</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="17"/>
       <c r="B37" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="C37" s="18" t="s">
         <v>346</v>
       </c>
-      <c r="C37" s="18" t="s">
-        <v>347</v>
-      </c>
       <c r="D37" s="18" t="s">
-        <v>6</v>
+        <v>298</v>
       </c>
       <c r="E37" s="18"/>
       <c r="F37" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="17"/>
       <c r="B38" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="C38" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="C38" s="18" t="s">
-        <v>350</v>
-      </c>
       <c r="D38" s="18" t="s">
-        <v>6</v>
+        <v>298</v>
       </c>
       <c r="E38" s="18"/>
       <c r="F38" s="19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>6</v>
+        <v>298</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>6</v>
+        <v>298</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>6</v>
+        <v>298</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="17"/>
       <c r="B42" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="C42" s="18" t="s">
         <v>355</v>
       </c>
-      <c r="C42" s="18" t="s">
-        <v>356</v>
-      </c>
       <c r="D42" s="18" t="s">
-        <v>6</v>
+        <v>298</v>
       </c>
       <c r="E42" s="18"/>
       <c r="F42" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="17"/>
       <c r="B43" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="C43" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="C43" s="18" t="s">
-        <v>359</v>
-      </c>
       <c r="D43" s="18" t="s">
-        <v>6</v>
+        <v>298</v>
       </c>
       <c r="E43" s="18"/>
       <c r="F43" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>6</v>
+        <v>298</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4665,268 +4644,268 @@
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>6</v>
+        <v>298</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C47" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F47" s="12" t="s">
         <v>364</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="D48" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F48" s="12" t="s">
         <v>367</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B49" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="D49" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F49" s="12" t="s">
         <v>370</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>373</v>
-      </c>
       <c r="D50" s="3" t="s">
-        <v>6</v>
+        <v>298</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="D51" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F51" s="12" t="s">
         <v>376</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>379</v>
-      </c>
       <c r="D52" s="3" t="s">
-        <v>6</v>
+        <v>298</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>6</v>
+        <v>298</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>383</v>
-      </c>
       <c r="D54" s="3" t="s">
-        <v>6</v>
+        <v>298</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>6</v>
+        <v>298</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B56" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="C56" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="C56" s="9" t="s">
-        <v>387</v>
-      </c>
       <c r="D56" s="3" t="s">
-        <v>6</v>
+        <v>298</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B57" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="C57" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="D57" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F57" s="12" t="s">
         <v>389</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F57" s="12" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B58" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="C58" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="D58" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F58" s="9" t="s">
         <v>392</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B59" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="C59" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="D59" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F59" s="9" t="s">
         <v>395</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4956,7 +4935,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A11:F12 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D8 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4995,380 +4974,380 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5"/>
       <c r="B7" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5"/>
       <c r="B8" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>403</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5"/>
       <c r="B9" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>406</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>409</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>412</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>415</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>418</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>421</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>424</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>427</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>318</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>430</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>433</v>
-      </c>
       <c r="D20" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>436</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>438</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>441</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>444</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>447</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5598,7 +5577,7 @@
   <dimension ref="A4:F26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="1" sqref="A11:F12 E14"/>
+      <selection pane="topLeft" activeCell="E14" activeCellId="1" sqref="D8 E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5615,28 +5594,28 @@
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="22"/>
       <c r="B4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="E4" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>449</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="22"/>
       <c r="B5" s="23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="25"/>
@@ -5645,10 +5624,10 @@
     <row r="6" customFormat="false" ht="49.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="22"/>
       <c r="B6" s="23" t="s">
+        <v>451</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>453</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="25"/>
@@ -5657,13 +5636,13 @@
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="22"/>
       <c r="B7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>454</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>46</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -5671,67 +5650,67 @@
     <row r="8" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="22"/>
       <c r="B8" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="22"/>
       <c r="B9" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="22"/>
       <c r="B10" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="22"/>
       <c r="B11" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -5739,13 +5718,13 @@
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="22"/>
       <c r="B12" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -5753,13 +5732,13 @@
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="22"/>
       <c r="B13" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -5767,31 +5746,31 @@
     <row r="14" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="22"/>
       <c r="B14" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="22"/>
       <c r="B15" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
@@ -5799,13 +5778,13 @@
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="22"/>
       <c r="B16" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
@@ -5813,13 +5792,13 @@
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="22"/>
       <c r="B17" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -5827,13 +5806,13 @@
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="22"/>
       <c r="B18" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>100</v>
-      </c>
       <c r="D18" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
@@ -5841,13 +5820,13 @@
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="22"/>
       <c r="B19" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>461</v>
-      </c>
       <c r="D19" s="9" t="s">
-        <v>6</v>
+        <v>298</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
@@ -5855,13 +5834,13 @@
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="22"/>
       <c r="B20" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>6</v>
+        <v>298</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
@@ -5869,13 +5848,13 @@
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="22"/>
       <c r="B21" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>6</v>
+        <v>298</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
@@ -5883,13 +5862,13 @@
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="22"/>
       <c r="B22" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>342</v>
-      </c>
       <c r="D22" s="9" t="s">
-        <v>6</v>
+        <v>298</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
@@ -5897,13 +5876,13 @@
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="22"/>
       <c r="B23" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>6</v>
+        <v>298</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
@@ -5911,13 +5890,13 @@
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="22"/>
       <c r="B24" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>6</v>
+        <v>298</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
@@ -5925,13 +5904,13 @@
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="22"/>
       <c r="B25" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>6</v>
+        <v>298</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
@@ -5939,13 +5918,13 @@
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="22"/>
       <c r="B26" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>6</v>
+        <v>298</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>

--- a/check_sheet.xlsx
+++ b/check_sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Target" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="444">
   <si>
     <t xml:space="preserve">* 5行目、D列以降のセルに検査対象サーバ接続情報を入力してください。'server_name'と'platform'は必須です。</t>
   </si>
@@ -364,15 +364,6 @@
     <t xml:space="preserve">"/proc/meminfo" ファイルを検索してメモリ構成を検索</t>
   </si>
   <si>
-    <t xml:space="preserve">mem_total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─搭載メモリ量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">物理搭載メモリ量[KB]</t>
-  </si>
-  <si>
     <t xml:space="preserve">mem_free</t>
   </si>
   <si>
@@ -422,15 +413,6 @@
   </si>
   <si>
     <t xml:space="preserve">/etc/sysconfig/network-scripts/*-bond*ファイルを検索してNIC冗長設定情報検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">net_bond_opts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─bonding設定オプション</t>
-  </si>
-  <si>
-    <t xml:space="preserve">動作モード(mode),MII監視間隔(miimon),リンクアップ遅延(updelay)</t>
   </si>
   <si>
     <t xml:space="preserve">y</t>
@@ -574,10 +556,19 @@
     <t xml:space="preserve">kdump クラッシュリカバリーサービスの自動起動設定</t>
   </si>
   <si>
+    <t xml:space="preserve">service.firewalld</t>
+  </si>
+  <si>
+    <t xml:space="preserve">├─ファイヤーウォール(RHEL7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">firewalld ファイヤーウォールの自動起動設定</t>
+  </si>
+  <si>
     <t xml:space="preserve">service.iptables</t>
   </si>
   <si>
-    <t xml:space="preserve">├─ファイヤーウォール</t>
+    <t xml:space="preserve">├─ファイヤーウォール(RHEL6)</t>
   </si>
   <si>
     <t xml:space="preserve">iptables ファイヤーウォールの自動起動設定</t>
@@ -586,7 +577,7 @@
     <t xml:space="preserve">service.ip6tables</t>
   </si>
   <si>
-    <t xml:space="preserve">├─IPv6ファイヤーウォール</t>
+    <t xml:space="preserve">├─IPv6ファイヤーウォール(RHEL6)</t>
   </si>
   <si>
     <t xml:space="preserve">ip6tables ファイヤーウォールの自動起動設定</t>
@@ -646,33 +637,6 @@
     <t xml:space="preserve">gcc パッケージ</t>
   </si>
   <si>
-    <t xml:space="preserve">packages.httpd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─Apache HTTPサービス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">httpd パッケージ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">packages.mysql</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─MySQLデータベース</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mysql パッケージ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">packages.sos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─sos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linux システムから設定と診断情報を取得するツール</t>
-  </si>
-  <si>
     <t xml:space="preserve">packages.sysstat</t>
   </si>
   <si>
@@ -718,34 +682,7 @@
     <t xml:space="preserve">HP Systems Insight Manager（SIM）にプラグインとして統合されているサーバー構成の統合管理ツール</t>
   </si>
   <si>
-    <t xml:space="preserve">packages.lm_sensors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─lm_sensors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">温度・電圧・ファンを監視するためのツール(Linux monitoring sensors)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">packages.mt-st</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─mt-st</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magnetic tape control tools for Linux SCSI tapes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">packages.e4fsprogs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─e4fsprogs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ext4 ファイルシステムユーティリティ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">requiement_for_oracle</t>
+    <t xml:space="preserve">packages_set.oracle</t>
   </si>
   <si>
     <t xml:space="preserve">├─Oracle必須パッケージ</t>
@@ -754,7 +691,7 @@
     <t xml:space="preserve">Oracle必須パッケージがインストールされているか。'compat-libcap1','compat-libstdc++-33','libstdc++-devel', 'gcc-c++','ksh','libaio-devel'</t>
   </si>
   <si>
-    <t xml:space="preserve">requiement_for_base</t>
+    <t xml:space="preserve">packages_set.base</t>
   </si>
   <si>
     <t xml:space="preserve">├─システム管理用パッケージ</t>
@@ -764,7 +701,7 @@
 'alchemist','xinetd','tftp-server','system-config-netboot-cmd','system-config-netboot',</t>
   </si>
   <si>
-    <t xml:space="preserve">requiement_for_sophos</t>
+    <t xml:space="preserve">packages_set.sophos</t>
   </si>
   <si>
     <t xml:space="preserve">├─sophosパッケージ</t>
@@ -773,13 +710,13 @@
     <t xml:space="preserve">SOPHOS関連パッケージがインストールされているか。 'glibc', 'nss-softokn-freebl', 'libXau', 'libxcb', 'libX11', 'libXpm'</t>
   </si>
   <si>
-    <t xml:space="preserve">requiement_for_msm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─msnパッケージ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSN(MegaRAID Storage Manager)関連パッケージがインストールされているか。 'MegaRAID_Storage_Manager', 'Lib_Utils2', 'Lib_Utils', 'sas_snmp', 'sas_ir_snmp'</t>
+    <t xml:space="preserve">packages_set.msm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">└─msmパッケージ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSM(MegaRAID Storage Manager)関連パッケージがインストールされているか。 'MegaRAID_Storage_Manager', 'Lib_Utils2', 'Lib_Utils', 'sas_snmp', 'sas_ir_snmp'</t>
   </si>
   <si>
     <t xml:space="preserve">mount_iso</t>
@@ -946,12 +883,6 @@
     <t xml:space="preserve">Win32_OperatingSystemから、メモリ情報を検索</t>
   </si>
   <si>
-    <t xml:space="preserve">total_visible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─物理メモリ量</t>
-  </si>
-  <si>
     <t xml:space="preserve">total_virtual</t>
   </si>
   <si>
@@ -1130,6 +1061,24 @@
   </si>
   <si>
     <t xml:space="preserve">Win32_NetworkAdapterConfiguration。IP,GW,Indexを検索。詳細は、別シートに登録</t>
+  </si>
+  <si>
+    <t xml:space="preserve">network.gw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">├─ゲートウェイ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ネットワークゲートウェイ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">network.subnet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">└─サブネット</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ネットワークサブネット</t>
   </si>
   <si>
     <t xml:space="preserve">nic_teaming</t>
@@ -1777,8 +1726,8 @@
   </sheetPr>
   <dimension ref="B1:M19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2298,10 +2247,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="1" sqref="D8 A11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A78" activeCellId="0" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2797,27 +2746,29 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13"/>
+      <c r="A30" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="B30" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="D30" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="12" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="13"/>
+      <c r="B31" s="9" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>62</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>117</v>
@@ -2825,15 +2776,15 @@
       <c r="D31" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="9" t="s">
-        <v>41</v>
-      </c>
+      <c r="E31" s="9"/>
       <c r="F31" s="12" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13"/>
+    <row r="32" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="B32" s="9" t="s">
         <v>119</v>
       </c>
@@ -2848,7 +2799,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="13" t="s">
         <v>41</v>
       </c>
@@ -2866,7 +2817,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="13" t="s">
         <v>41</v>
       </c>
@@ -2879,50 +2830,52 @@
       <c r="D34" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="9"/>
+      <c r="E34" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="F34" s="12" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="13" t="s">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="9" t="s">
-        <v>41</v>
-      </c>
+      <c r="E35" s="9"/>
       <c r="F35" s="12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="B36" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="13" t="s">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>135</v>
@@ -2933,15 +2886,15 @@
       <c r="D37" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="9"/>
+      <c r="E37" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="F37" s="12" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="13" t="s">
-        <v>41</v>
-      </c>
+    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="13"/>
       <c r="B38" s="9" t="s">
         <v>138</v>
       </c>
@@ -2957,9 +2910,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13" t="s">
-        <v>41</v>
-      </c>
+      <c r="A39" s="13"/>
       <c r="B39" s="9" t="s">
         <v>141</v>
       </c>
@@ -2969,15 +2920,13 @@
       <c r="D39" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="9" t="s">
-        <v>41</v>
-      </c>
+      <c r="E39" s="9"/>
       <c r="F39" s="12" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13"/>
+      <c r="A40" s="9"/>
       <c r="B40" s="9" t="s">
         <v>144</v>
       </c>
@@ -2992,8 +2941,10 @@
         <v>146</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="13"/>
+    <row r="41" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="B41" s="9" t="s">
         <v>147</v>
       </c>
@@ -3008,8 +2959,10 @@
         <v>149</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="9"/>
+    <row r="42" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="B42" s="9" t="s">
         <v>150</v>
       </c>
@@ -3019,12 +2972,14 @@
       <c r="D42" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E42" s="9"/>
+      <c r="E42" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="F42" s="12" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="s">
         <v>41</v>
       </c>
@@ -3037,15 +2992,15 @@
       <c r="D43" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E43" s="9"/>
+      <c r="E43" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="F43" s="12" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="9" t="s">
-        <v>41</v>
-      </c>
+    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="9"/>
       <c r="B44" s="9" t="s">
         <v>156</v>
       </c>
@@ -3055,35 +3010,33 @@
       <c r="D44" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="9" t="s">
-        <v>41</v>
-      </c>
+      <c r="E44" s="9"/>
       <c r="F44" s="12" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B45" s="9" t="s">
+      <c r="A45" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D45" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F45" s="12" t="s">
+      <c r="D45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="9"/>
+    <row r="46" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="B46" s="9" t="s">
         <v>162</v>
       </c>
@@ -3099,24 +3052,24 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B47" s="3" t="s">
+      <c r="A47" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="4" t="s">
+      <c r="D47" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="9"/>
+      <c r="F47" s="12" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="s">
         <v>41</v>
       </c>
@@ -3129,15 +3082,15 @@
       <c r="D48" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="9"/>
+      <c r="E48" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="F48" s="12" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="9" t="s">
-        <v>41</v>
-      </c>
+    <row r="49" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="9"/>
       <c r="B49" s="9" t="s">
         <v>171</v>
       </c>
@@ -3152,10 +3105,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="9" t="s">
-        <v>41</v>
-      </c>
+    <row r="50" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="9"/>
       <c r="B50" s="9" t="s">
         <v>174</v>
       </c>
@@ -3165,14 +3116,12 @@
       <c r="D50" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E50" s="9" t="s">
-        <v>41</v>
-      </c>
+      <c r="E50" s="9"/>
       <c r="F50" s="12" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9"/>
       <c r="B51" s="9" t="s">
         <v>177</v>
@@ -3188,7 +3137,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="9"/>
       <c r="B52" s="9" t="s">
         <v>180</v>
@@ -3204,7 +3153,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="9"/>
       <c r="B53" s="9" t="s">
         <v>183</v>
@@ -3220,7 +3169,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="9"/>
       <c r="B54" s="9" t="s">
         <v>186</v>
@@ -3236,7 +3185,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="9"/>
       <c r="B55" s="9" t="s">
         <v>189</v>
@@ -3252,7 +3201,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="9"/>
       <c r="B56" s="9" t="s">
         <v>192</v>
@@ -3268,8 +3217,10 @@
         <v>194</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="9"/>
+    <row r="57" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="B57" s="9" t="s">
         <v>195</v>
       </c>
@@ -3279,15 +3230,15 @@
       <c r="D57" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E57" s="9"/>
+      <c r="E57" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="F57" s="12" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="9" t="s">
-        <v>41</v>
-      </c>
+    <row r="58" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="9"/>
       <c r="B58" s="9" t="s">
         <v>198</v>
       </c>
@@ -3297,14 +3248,12 @@
       <c r="D58" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E58" s="9" t="s">
-        <v>41</v>
-      </c>
+      <c r="E58" s="9"/>
       <c r="F58" s="12" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="9"/>
       <c r="B59" s="9" t="s">
         <v>201</v>
@@ -3320,7 +3269,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="9"/>
       <c r="B60" s="9" t="s">
         <v>204</v>
@@ -3336,7 +3285,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="9"/>
       <c r="B61" s="9" t="s">
         <v>207</v>
@@ -3352,7 +3301,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="9"/>
       <c r="B62" s="9" t="s">
         <v>210</v>
@@ -3368,7 +3317,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="9"/>
       <c r="B63" s="9" t="s">
         <v>213</v>
@@ -3384,104 +3333,110 @@
         <v>215</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="9"/>
-      <c r="B64" s="9" t="s">
+    <row r="64" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="13"/>
+      <c r="B64" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="D64" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E64" s="9"/>
+      <c r="D64" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" s="13"/>
       <c r="F64" s="12" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="9"/>
-      <c r="B65" s="9" t="s">
+    <row r="65" customFormat="false" ht="65.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="13"/>
+      <c r="B65" s="13" t="s">
         <v>219</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="D65" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E65" s="9"/>
+      <c r="D65" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" s="13"/>
       <c r="F65" s="12" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="9"/>
-      <c r="B66" s="9" t="s">
+    <row r="66" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="13"/>
+      <c r="B66" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="D66" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E66" s="9"/>
+      <c r="D66" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" s="13"/>
       <c r="F66" s="12" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="9"/>
-      <c r="B67" s="9" t="s">
+    <row r="67" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="13"/>
+      <c r="B67" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="D67" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E67" s="9"/>
+      <c r="D67" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" s="13"/>
       <c r="F67" s="12" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="9"/>
-      <c r="B68" s="9" t="s">
+      <c r="A68" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B68" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="D68" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E68" s="9"/>
+      <c r="D68" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" s="13"/>
       <c r="F68" s="12" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="9"/>
-      <c r="B69" s="9" t="s">
+      <c r="A69" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B69" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C69" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="D69" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E69" s="9"/>
+      <c r="D69" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" s="13"/>
       <c r="F69" s="12" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="13"/>
+      <c r="A70" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="B70" s="13" t="s">
         <v>234</v>
       </c>
@@ -3496,12 +3451,14 @@
         <v>236</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="13"/>
+    <row r="71" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="B71" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C71" s="13" t="s">
         <v>238</v>
       </c>
       <c r="D71" s="13" t="s">
@@ -3512,12 +3469,14 @@
         <v>239</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="13"/>
+    <row r="72" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="B72" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C72" s="13" t="s">
         <v>241</v>
       </c>
       <c r="D72" s="13" t="s">
@@ -3528,7 +3487,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="13"/>
       <c r="B73" s="13" t="s">
         <v>243</v>
@@ -3544,8 +3503,10 @@
         <v>245</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="13"/>
+    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="B74" s="13" t="s">
         <v>246</v>
       </c>
@@ -3556,8 +3517,8 @@
         <v>6</v>
       </c>
       <c r="E74" s="13"/>
-      <c r="F74" s="12" t="s">
-        <v>248</v>
+      <c r="F74" s="13" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3565,17 +3526,17 @@
         <v>41</v>
       </c>
       <c r="B75" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="C75" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="C75" s="13" t="s">
-        <v>250</v>
-      </c>
       <c r="D75" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E75" s="13"/>
-      <c r="F75" s="12" t="s">
-        <v>251</v>
+      <c r="F75" s="13" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3583,17 +3544,17 @@
         <v>41</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D76" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E76" s="13"/>
-      <c r="F76" s="12" t="s">
-        <v>254</v>
+      <c r="F76" s="13" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3601,269 +3562,152 @@
         <v>41</v>
       </c>
       <c r="B77" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" s="15"/>
+      <c r="F77" s="16" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B78" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C78" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="D77" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E77" s="13"/>
-      <c r="F77" s="12" t="s">
+      <c r="D78" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" s="9"/>
+      <c r="F78" s="12" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B78" s="13" t="s">
+    <row r="79" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B79" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="C79" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="D78" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E78" s="13"/>
-      <c r="F78" s="12" t="s">
+      <c r="D79" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" s="9"/>
+      <c r="F79" s="12" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B79" s="13" t="s">
+    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B80" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C80" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="D79" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E79" s="13"/>
-      <c r="F79" s="12" t="s">
+      <c r="D80" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" s="9"/>
+      <c r="F80" s="12" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="13"/>
-      <c r="B80" s="13" t="s">
+    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="9"/>
+      <c r="B81" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C81" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="D80" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E80" s="13"/>
-      <c r="F80" s="12" t="s">
+      <c r="D81" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81" s="9"/>
+      <c r="F81" s="12" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B81" s="13" t="s">
+    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B82" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="C81" s="13" t="s">
+      <c r="C82" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="D81" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B82" s="13" t="s">
+      <c r="D82" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F82" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="C82" s="13" t="s">
+    </row>
+    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B83" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="D82" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B83" s="13" t="s">
+      <c r="C83" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="D83" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" s="9"/>
+      <c r="F83" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="D83" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B84" s="13" t="s">
+    </row>
+    <row r="84" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B84" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C84" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="D84" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E84" s="15"/>
-      <c r="F84" s="16" t="s">
+      <c r="D84" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" s="9"/>
+      <c r="F84" s="12" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E85" s="9"/>
-      <c r="F85" s="12" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E86" s="9"/>
-      <c r="F86" s="12" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E87" s="9"/>
-      <c r="F87" s="12" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="9"/>
-      <c r="B88" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E88" s="9"/>
-      <c r="F88" s="12" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E89" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F89" s="12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E90" s="9"/>
-      <c r="F90" s="12" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E91" s="9"/>
-      <c r="F91" s="12" t="s">
-        <v>296</v>
-      </c>
-    </row>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3880,10 +3724,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="1" sqref="D8 A11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C49" activeCellId="0" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3908,7 +3752,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -4167,11 +4011,11 @@
         <v>88</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="12" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4183,7 +4027,7 @@
         <v>91</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="12" t="s">
@@ -4199,7 +4043,7 @@
         <v>94</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="12" t="s">
@@ -4212,10 +4056,10 @@
         <v>96</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="12" t="s">
@@ -4227,305 +4071,309 @@
         <v>41</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>109</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="12" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13"/>
       <c r="B22" s="3" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="12" t="s">
-        <v>113</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13"/>
       <c r="B23" s="3" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="12" t="s">
-        <v>307</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13"/>
+      <c r="A24" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="B24" s="3" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="12" t="s">
-        <v>116</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13" t="s">
-        <v>41</v>
-      </c>
+      <c r="A25" s="13"/>
       <c r="B25" s="3" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="E25" s="3"/>
-      <c r="F25" s="12" t="s">
-        <v>312</v>
+      <c r="F25" s="4" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="13"/>
       <c r="B26" s="3" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="4" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="13"/>
       <c r="B27" s="3" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="4" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13"/>
+      <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="4" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3"/>
+      <c r="A29" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="B29" s="3" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="E29" s="3"/>
-      <c r="F29" s="4" t="s">
-        <v>324</v>
+      <c r="F29" s="12" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="E30" s="3"/>
-      <c r="F30" s="12" t="s">
-        <v>327</v>
+      <c r="F30" s="4" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="4" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="4" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="4" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3"/>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="B34" s="3" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>277</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="13" t="s">
         <v>41</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>340</v>
+        <v>135</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>344</v>
+      <c r="A36" s="17"/>
+      <c r="B36" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="E36" s="18"/>
+      <c r="F36" s="19" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="17"/>
       <c r="B37" s="18" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="E37" s="18"/>
       <c r="F37" s="19" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="17"/>
-      <c r="B38" s="18" t="s">
-        <v>348</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>349</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="E38" s="18"/>
-      <c r="F38" s="19" t="s">
-        <v>350</v>
+      <c r="A38" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -4535,207 +4383,201 @@
         <v>160</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>351</v>
+        <v>277</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="4" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="13" t="s">
         <v>41</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="4" t="s">
-        <v>352</v>
+        <v>277</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>353</v>
+      <c r="A41" s="17"/>
+      <c r="B41" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="E41" s="18"/>
+      <c r="F41" s="19" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="17"/>
       <c r="B42" s="18" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="E42" s="18"/>
       <c r="F42" s="19" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="17"/>
-      <c r="B43" s="18" t="s">
-        <v>357</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>358</v>
+      <c r="A43" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>196</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="E43" s="18"/>
-      <c r="F43" s="19" t="s">
-        <v>359</v>
+        <v>277</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>360</v>
-      </c>
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="12"/>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="12"/>
-    </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="12" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="13" t="s">
         <v>41</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>168</v>
+        <v>62</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="E46" s="3"/>
+        <v>277</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="F46" s="12" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="13" t="s">
-        <v>41</v>
-      </c>
+        <v>341</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="13"/>
       <c r="B47" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>363</v>
+        <v>342</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>343</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="E47" s="3"/>
       <c r="F47" s="12" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="13" t="s">
-        <v>41</v>
-      </c>
+        <v>344</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="13"/>
       <c r="B48" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>366</v>
+        <v>345</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>346</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="E48" s="3"/>
       <c r="F48" s="12" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>368</v>
+      <c r="A49" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>348</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>371</v>
+      <c r="A50" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>351</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="E50" s="3"/>
+        <v>277</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="F50" s="12" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4743,19 +4585,17 @@
         <v>41</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="E51" s="3"/>
       <c r="F51" s="12" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4763,17 +4603,19 @@
         <v>41</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="E52" s="3"/>
+        <v>277</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="F52" s="12" t="s">
-        <v>266</v>
+        <v>359</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4781,17 +4623,17 @@
         <v>41</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>172</v>
+        <v>361</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="12" t="s">
-        <v>380</v>
+        <v>245</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4799,17 +4641,17 @@
         <v>41</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>382</v>
+        <v>166</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="12" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4817,55 +4659,53 @@
         <v>41</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>273</v>
+        <v>364</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="12" t="s">
-        <v>274</v>
+        <v>366</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B56" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>386</v>
+      <c r="B56" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>367</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9" t="s">
-        <v>386</v>
+        <v>277</v>
+      </c>
+      <c r="E56" s="3"/>
+      <c r="F56" s="12" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="13" t="s">
         <v>41</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F57" s="12" t="s">
-        <v>389</v>
+        <v>369</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4873,19 +4713,19 @@
         <v>41</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F58" s="9" t="s">
-        <v>392</v>
+      <c r="F58" s="12" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4893,28 +4733,48 @@
         <v>41</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>41</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="12"/>
+      <c r="A60" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4935,7 +4795,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D8 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5000,14 +4860,14 @@
         <v>53</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5023,13 +4883,13 @@
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5"/>
       <c r="B7" s="3" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>94</v>
@@ -5039,135 +4899,135 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5"/>
       <c r="B8" s="3" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5"/>
       <c r="B9" s="3" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5183,71 +5043,71 @@
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5255,10 +5115,10 @@
         <v>41</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>53</v>
@@ -5267,7 +5127,7 @@
         <v>41</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5275,10 +5135,10 @@
         <v>41</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>53</v>
@@ -5287,7 +5147,7 @@
         <v>41</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5295,10 +5155,10 @@
         <v>41</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>53</v>
@@ -5307,7 +5167,7 @@
         <v>41</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5315,10 +5175,10 @@
         <v>41</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>53</v>
@@ -5327,7 +5187,7 @@
         <v>41</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5335,10 +5195,10 @@
         <v>41</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>53</v>
@@ -5347,7 +5207,7 @@
         <v>41</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5577,7 +5437,7 @@
   <dimension ref="A4:F26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="1" sqref="D8 E14"/>
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5603,10 +5463,10 @@
         <v>38</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5615,7 +5475,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="25"/>
@@ -5624,10 +5484,10 @@
     <row r="6" customFormat="false" ht="49.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="22"/>
       <c r="B6" s="23" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="25"/>
@@ -5639,7 +5499,7 @@
         <v>42</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>44</v>
@@ -5659,10 +5519,10 @@
         <v>44</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5677,10 +5537,10 @@
         <v>44</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5695,10 +5555,10 @@
         <v>44</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5707,7 +5567,7 @@
         <v>56</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>44</v>
@@ -5755,10 +5615,10 @@
         <v>44</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5820,13 +5680,13 @@
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="22"/>
       <c r="B19" s="8" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
@@ -5840,7 +5700,7 @@
         <v>88</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
@@ -5848,13 +5708,13 @@
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="22"/>
       <c r="B21" s="8" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>109</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
@@ -5862,13 +5722,13 @@
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="22"/>
       <c r="B22" s="8" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
@@ -5876,13 +5736,13 @@
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="22"/>
       <c r="B23" s="8" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
@@ -5890,13 +5750,13 @@
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="22"/>
       <c r="B24" s="8" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
@@ -5907,10 +5767,10 @@
         <v>62</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
@@ -5918,13 +5778,13 @@
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="22"/>
       <c r="B26" s="8" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>

--- a/check_sheet.xlsx
+++ b/check_sheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="447">
   <si>
     <t xml:space="preserve">* 5行目、D列以降のセルに検査対象サーバ接続情報を入力してください。'server_name'と'platform'は必須です。</t>
   </si>
@@ -746,6 +746,15 @@
     <t xml:space="preserve">/sys/kernel/kexec_crash_size を検索</t>
   </si>
   <si>
+    <t xml:space="preserve">kdump_path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">クラッシュダンプパス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/etc/kdump.conf からカーネルダンプの出力先設定を検索</t>
+  </si>
+  <si>
     <t xml:space="preserve">runlevel</t>
   </si>
   <si>
@@ -1021,7 +1030,7 @@
     <t xml:space="preserve">Dドライブ容量</t>
   </si>
   <si>
-    <t xml:space="preserve">Win32_UserAccount から、アカウント情報を検索</t>
+    <t xml:space="preserve">Win32_UserAccount から、ローカルアカウントのロック情報を検索</t>
   </si>
   <si>
     <t xml:space="preserve">config.groovyに記述したログオン検査用ユーザでPowerShellリモート疎通を確認</t>
@@ -2250,7 +2259,7 @@
   <dimension ref="A1:F65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A78" activeCellId="0" sqref="A78"/>
+      <selection pane="topLeft" activeCell="A71" activeCellId="0" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3451,7 +3460,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="13" t="s">
         <v>41</v>
       </c>
@@ -3469,7 +3478,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="13" t="s">
         <v>41</v>
       </c>
@@ -3487,8 +3496,10 @@
         <v>242</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="13"/>
+    <row r="73" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="B73" s="13" t="s">
         <v>243</v>
       </c>
@@ -3504,9 +3515,7 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="13" t="s">
-        <v>41</v>
-      </c>
+      <c r="A74" s="13"/>
       <c r="B74" s="13" t="s">
         <v>246</v>
       </c>
@@ -3517,8 +3526,8 @@
         <v>6</v>
       </c>
       <c r="E74" s="13"/>
-      <c r="F74" s="13" t="s">
-        <v>247</v>
+      <c r="F74" s="12" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3526,17 +3535,17 @@
         <v>41</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D75" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E75" s="13"/>
       <c r="F75" s="13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3544,17 +3553,17 @@
         <v>41</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D76" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E76" s="13"/>
       <c r="F76" s="13" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3562,34 +3571,34 @@
         <v>41</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D77" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E77" s="15"/>
-      <c r="F77" s="16" t="s">
+      <c r="E77" s="13"/>
+      <c r="F77" s="13" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B78" s="9" t="s">
+    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B78" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C78" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="D78" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E78" s="9"/>
-      <c r="F78" s="12" t="s">
+      <c r="D78" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" s="15"/>
+      <c r="F78" s="16" t="s">
         <v>257</v>
       </c>
     </row>
@@ -3611,7 +3620,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="9" t="s">
         <v>41</v>
       </c>
@@ -3630,7 +3639,9 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="9"/>
+      <c r="A81" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="B81" s="9" t="s">
         <v>264</v>
       </c>
@@ -3646,9 +3657,7 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="9" t="s">
-        <v>41</v>
-      </c>
+      <c r="A82" s="9"/>
       <c r="B82" s="9" t="s">
         <v>267</v>
       </c>
@@ -3658,9 +3667,7 @@
       <c r="D82" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E82" s="9" t="s">
-        <v>41</v>
-      </c>
+      <c r="E82" s="9"/>
       <c r="F82" s="12" t="s">
         <v>269</v>
       </c>
@@ -3678,12 +3685,14 @@
       <c r="D83" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E83" s="9"/>
+      <c r="E83" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="F83" s="12" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="9" t="s">
         <v>41</v>
       </c>
@@ -3701,7 +3710,24 @@
         <v>275</v>
       </c>
     </row>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85" s="9"/>
+      <c r="F85" s="12" t="s">
+        <v>278</v>
+      </c>
+    </row>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3726,8 +3752,8 @@
   </sheetPr>
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C49" activeCellId="0" sqref="C49"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E38" activeCellId="0" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3752,7 +3778,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -4011,11 +4037,11 @@
         <v>88</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="12" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4027,7 +4053,7 @@
         <v>91</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="12" t="s">
@@ -4043,7 +4069,7 @@
         <v>94</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="12" t="s">
@@ -4056,10 +4082,10 @@
         <v>96</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="12" t="s">
@@ -4071,45 +4097,45 @@
         <v>41</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>109</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="12" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13"/>
       <c r="B22" s="3" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="12" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13"/>
       <c r="B23" s="3" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="12" t="s">
@@ -4121,81 +4147,81 @@
         <v>41</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13"/>
       <c r="B25" s="3" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="4" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="13"/>
       <c r="B26" s="3" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="4" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="13"/>
       <c r="B27" s="3" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="4" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="4" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4203,81 +4229,81 @@
         <v>41</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="12" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="4" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="4" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="4" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4285,19 +4311,19 @@
         <v>41</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4308,51 +4334,51 @@
         <v>135</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="17"/>
       <c r="B36" s="18" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E36" s="18"/>
       <c r="F36" s="19" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="17"/>
       <c r="B37" s="18" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E37" s="18"/>
       <c r="F37" s="19" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="13" t="s">
         <v>41</v>
       </c>
@@ -4363,13 +4389,13 @@
         <v>154</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4383,11 +4409,11 @@
         <v>160</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="4" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4401,45 +4427,45 @@
         <v>169</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="17"/>
       <c r="B41" s="18" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E41" s="18"/>
       <c r="F41" s="19" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="17"/>
       <c r="B42" s="18" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E42" s="18"/>
       <c r="F42" s="19" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4453,13 +4479,13 @@
         <v>196</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>41</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4478,14 +4504,14 @@
         <v>162</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="12" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4496,48 +4522,48 @@
         <v>62</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="13"/>
       <c r="B47" s="3" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="12" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="13"/>
       <c r="B48" s="3" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4545,19 +4571,19 @@
         <v>41</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4565,19 +4591,19 @@
         <v>41</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4585,17 +4611,17 @@
         <v>41</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="12" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4603,19 +4629,19 @@
         <v>41</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4623,17 +4649,17 @@
         <v>41</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="12" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4641,17 +4667,17 @@
         <v>41</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>166</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="12" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4659,17 +4685,17 @@
         <v>41</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="12" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4677,17 +4703,17 @@
         <v>41</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="12" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4695,17 +4721,17 @@
         <v>41</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="9" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4713,19 +4739,19 @@
         <v>41</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>41</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4733,19 +4759,19 @@
         <v>41</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>41</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4753,19 +4779,19 @@
         <v>41</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>41</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4860,14 +4886,14 @@
         <v>53</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4883,13 +4909,13 @@
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5"/>
       <c r="B7" s="3" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>94</v>
@@ -4899,135 +4925,135 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5"/>
       <c r="B8" s="3" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5"/>
       <c r="B9" s="3" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5043,71 +5069,71 @@
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5115,10 +5141,10 @@
         <v>41</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>53</v>
@@ -5127,7 +5153,7 @@
         <v>41</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5135,10 +5161,10 @@
         <v>41</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>53</v>
@@ -5147,7 +5173,7 @@
         <v>41</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5155,10 +5181,10 @@
         <v>41</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>53</v>
@@ -5167,7 +5193,7 @@
         <v>41</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5175,10 +5201,10 @@
         <v>41</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>53</v>
@@ -5187,7 +5213,7 @@
         <v>41</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5195,10 +5221,10 @@
         <v>41</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>53</v>
@@ -5207,7 +5233,7 @@
         <v>41</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5463,10 +5489,10 @@
         <v>38</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5475,7 +5501,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="25"/>
@@ -5484,10 +5510,10 @@
     <row r="6" customFormat="false" ht="49.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="22"/>
       <c r="B6" s="23" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="25"/>
@@ -5499,7 +5525,7 @@
         <v>42</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>44</v>
@@ -5519,10 +5545,10 @@
         <v>44</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5537,10 +5563,10 @@
         <v>44</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5555,10 +5581,10 @@
         <v>44</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5567,7 +5593,7 @@
         <v>56</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>44</v>
@@ -5615,10 +5641,10 @@
         <v>44</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5680,13 +5706,13 @@
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="22"/>
       <c r="B19" s="8" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
@@ -5700,7 +5726,7 @@
         <v>88</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
@@ -5708,13 +5734,13 @@
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="22"/>
       <c r="B21" s="8" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>109</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
@@ -5722,13 +5748,13 @@
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="22"/>
       <c r="B22" s="8" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
@@ -5739,10 +5765,10 @@
         <v>135</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
@@ -5753,10 +5779,10 @@
         <v>162</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
@@ -5767,10 +5793,10 @@
         <v>62</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
@@ -5778,13 +5804,13 @@
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="22"/>
       <c r="B26" s="8" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>166</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>

--- a/check_sheet.xlsx
+++ b/check_sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Target" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="449">
   <si>
     <t xml:space="preserve">* 5行目、D列以降のセルに検査対象サーバ接続情報を入力してください。'server_name'と'platform'は必須です。</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t xml:space="preserve">Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">os_specific_password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">固有のOSアカウントパスワード。未記入の場合は設定ファイルの値を反映 </t>
   </si>
   <si>
     <t xml:space="preserve">remote_account_id</t>
@@ -1733,10 +1739,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:M19"/>
+  <dimension ref="B1:M20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2005,8 +2011,8 @@
         <v/>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="3" t="s">
+    <row r="10" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -2014,40 +2020,16 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="4" t="str">
-        <f aca="false">IF(OR(F$6="VM"),"vCenterアカウントIDを入力してください","")</f>
-        <v/>
-      </c>
-      <c r="G10" s="4" t="str">
-        <f aca="false">IF(OR(G$6="VM"),"vCenterアカウントIDを入力してください","")</f>
-        <v/>
-      </c>
-      <c r="H10" s="4" t="str">
-        <f aca="false">IF(OR(H$6="VM"),"vCenterアカウントIDを入力してください","")</f>
-        <v/>
-      </c>
-      <c r="I10" s="4" t="str">
-        <f aca="false">IF(OR(I$6="VM"),"vCenterアカウントIDを入力してください","")</f>
-        <v/>
-      </c>
-      <c r="J10" s="4" t="str">
-        <f aca="false">IF(OR(J$6="VM"),"vCenterアカウントIDを入力してください","")</f>
-        <v/>
-      </c>
-      <c r="K10" s="4" t="str">
-        <f aca="false">IF(OR(K$6="VM"),"vCenterアカウントIDを入力してください","")</f>
-        <v/>
-      </c>
-      <c r="L10" s="4" t="str">
-        <f aca="false">IF(OR(L$6="VM"),"vCenterアカウントIDを入力してください","")</f>
-        <v/>
-      </c>
-      <c r="M10" s="4" t="str">
-        <f aca="false">IF(OR(M$6="VM"),"vCenterアカウントIDを入力してください","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
@@ -2057,61 +2039,85 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="str">
+        <f aca="false">IF(OR(F$6="VM"),"vCenterアカウントIDを入力してください","")</f>
+        <v/>
+      </c>
+      <c r="G11" s="4" t="str">
+        <f aca="false">IF(OR(G$6="VM"),"vCenterアカウントIDを入力してください","")</f>
+        <v/>
+      </c>
+      <c r="H11" s="4" t="str">
+        <f aca="false">IF(OR(H$6="VM"),"vCenterアカウントIDを入力してください","")</f>
+        <v/>
+      </c>
+      <c r="I11" s="4" t="str">
+        <f aca="false">IF(OR(I$6="VM"),"vCenterアカウントIDを入力してください","")</f>
+        <v/>
+      </c>
+      <c r="J11" s="4" t="str">
+        <f aca="false">IF(OR(J$6="VM"),"vCenterアカウントIDを入力してください","")</f>
+        <v/>
+      </c>
+      <c r="K11" s="4" t="str">
+        <f aca="false">IF(OR(K$6="VM"),"vCenterアカウントIDを入力してください","")</f>
+        <v/>
+      </c>
+      <c r="L11" s="4" t="str">
+        <f aca="false">IF(OR(L$6="VM"),"vCenterアカウントIDを入力してください","")</f>
+        <v/>
+      </c>
+      <c r="M11" s="4" t="str">
+        <f aca="false">IF(OR(M$6="VM"),"vCenterアカウントIDを入力してください","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="str">
         <f aca="false">IF(OR(F$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
         <v/>
       </c>
-      <c r="G11" s="4" t="str">
+      <c r="G12" s="4" t="str">
         <f aca="false">IF(OR(G$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
         <v/>
       </c>
-      <c r="H11" s="4" t="str">
+      <c r="H12" s="4" t="str">
         <f aca="false">IF(OR(H$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
         <v/>
       </c>
-      <c r="I11" s="4" t="str">
+      <c r="I12" s="4" t="str">
         <f aca="false">IF(OR(I$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
         <v/>
       </c>
-      <c r="J11" s="4" t="str">
+      <c r="J12" s="4" t="str">
         <f aca="false">IF(OR(J$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
         <v/>
       </c>
-      <c r="K11" s="4" t="str">
+      <c r="K12" s="4" t="str">
         <f aca="false">IF(OR(K$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
         <v/>
       </c>
-      <c r="L11" s="4" t="str">
+      <c r="L12" s="4" t="str">
         <f aca="false">IF(OR(L$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
         <v/>
       </c>
-      <c r="M11" s="4" t="str">
+      <c r="M12" s="4" t="str">
         <f aca="false">IF(OR(M$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
         <v/>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-    </row>
-    <row r="13" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="6" t="s">
+    <row r="13" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="4"/>
@@ -2125,10 +2131,12 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="3"/>
-      <c r="C14" s="4" t="s">
+    <row r="14" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="6" t="s">
         <v>26</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -2141,11 +2149,9 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="9" t="s">
+    <row r="15" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="3"/>
+      <c r="C15" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D15" s="4"/>
@@ -2178,7 +2184,7 @@
       <c r="M16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="9" t="s">
@@ -2202,30 +2208,48 @@
       <c r="C18" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+    </row>
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2284,7 +2308,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -2305,1427 +2329,1427 @@
         <v>17</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13"/>
       <c r="B6" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="13"/>
       <c r="B7" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13"/>
       <c r="B8" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13"/>
       <c r="B9" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13"/>
       <c r="B10" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13"/>
       <c r="B22" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13"/>
       <c r="B23" s="9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13"/>
       <c r="B24" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13"/>
       <c r="B25" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="13"/>
       <c r="B26" s="9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="13"/>
       <c r="B29" s="9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="13"/>
       <c r="B31" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="12" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="12" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="12" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="13"/>
       <c r="B38" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="12" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="13"/>
       <c r="B39" s="9" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9"/>
       <c r="B40" s="9" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="9"/>
       <c r="B44" s="9" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="12" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="12" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D48" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9"/>
       <c r="B49" s="9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D49" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="12" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9"/>
       <c r="B50" s="9" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D50" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="12" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9"/>
       <c r="B51" s="9" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="12" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="9"/>
       <c r="B52" s="9" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D52" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="12" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="9"/>
       <c r="B53" s="9" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="12" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="9"/>
       <c r="B54" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="12" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="9"/>
       <c r="B55" s="9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="12" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="9"/>
       <c r="B56" s="9" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="12" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="9"/>
       <c r="B58" s="9" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="12" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="9"/>
       <c r="B59" s="9" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="12" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="9"/>
       <c r="B60" s="9" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="12" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="9"/>
       <c r="B61" s="9" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="12" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="9"/>
       <c r="B62" s="9" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D62" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="12" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="9"/>
       <c r="B63" s="9" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="12" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="13"/>
       <c r="B64" s="13" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D64" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E64" s="13"/>
       <c r="F64" s="12" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="65.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="13"/>
       <c r="B65" s="13" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D65" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E65" s="13"/>
       <c r="F65" s="12" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="13"/>
       <c r="B66" s="13" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D66" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E66" s="13"/>
       <c r="F66" s="12" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="13"/>
       <c r="B67" s="13" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D67" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E67" s="13"/>
       <c r="F67" s="12" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D68" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E68" s="13"/>
       <c r="F68" s="12" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D69" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E69" s="13"/>
       <c r="F69" s="12" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D70" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E70" s="13"/>
       <c r="F70" s="12" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D71" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E71" s="13"/>
       <c r="F71" s="12" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D72" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E72" s="13"/>
       <c r="F72" s="12" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D73" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E73" s="13"/>
       <c r="F73" s="12" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="13"/>
       <c r="B74" s="13" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D74" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E74" s="13"/>
       <c r="F74" s="12" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D75" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E75" s="13"/>
       <c r="F75" s="13" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D76" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E76" s="13"/>
       <c r="F76" s="13" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D77" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E77" s="13"/>
       <c r="F77" s="13" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D78" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E78" s="15"/>
       <c r="F78" s="16" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E79" s="9"/>
       <c r="F79" s="12" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E80" s="9"/>
       <c r="F80" s="12" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E81" s="9"/>
       <c r="F81" s="12" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="9"/>
       <c r="B82" s="9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E82" s="9"/>
       <c r="F82" s="12" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E84" s="9"/>
       <c r="F84" s="12" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D85" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E85" s="9"/>
       <c r="F85" s="12" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3752,7 +3776,7 @@
   </sheetPr>
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E38" activeCellId="0" sqref="E38"/>
     </sheetView>
   </sheetViews>
@@ -3778,7 +3802,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -3799,693 +3823,693 @@
         <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13"/>
       <c r="B6" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="13"/>
       <c r="B7" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13"/>
       <c r="B8" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13"/>
       <c r="B9" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13"/>
       <c r="B10" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="12" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13"/>
       <c r="B18" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="13"/>
       <c r="B19" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="13"/>
       <c r="B20" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>282</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>280</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="12" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13"/>
       <c r="B22" s="3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="12" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13"/>
       <c r="B23" s="3" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="12" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13"/>
       <c r="B25" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="13"/>
       <c r="B26" s="3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="4" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="13"/>
       <c r="B27" s="3" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="12" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="4" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="17"/>
       <c r="B36" s="18" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E36" s="18"/>
       <c r="F36" s="19" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="17"/>
       <c r="B37" s="18" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E37" s="18"/>
       <c r="F37" s="19" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="4" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="17"/>
       <c r="B41" s="18" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E41" s="18"/>
       <c r="F41" s="19" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="17"/>
       <c r="B42" s="18" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E42" s="18"/>
       <c r="F42" s="19" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4498,300 +4522,300 @@
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="12" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="13"/>
       <c r="B47" s="3" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="12" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="13"/>
       <c r="B48" s="3" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="12" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="12" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="12" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="12" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="12" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="12" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="9" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4863,377 +4887,377 @@
         <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5"/>
       <c r="B7" s="3" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5"/>
       <c r="B8" s="3" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5"/>
       <c r="B9" s="3" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5480,28 +5504,28 @@
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="22"/>
       <c r="B4" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="22"/>
       <c r="B5" s="23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="25"/>
@@ -5510,10 +5534,10 @@
     <row r="6" customFormat="false" ht="49.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="22"/>
       <c r="B6" s="23" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="25"/>
@@ -5522,13 +5546,13 @@
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="22"/>
       <c r="B7" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -5536,67 +5560,67 @@
     <row r="8" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="22"/>
       <c r="B8" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="22"/>
       <c r="B9" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="22"/>
       <c r="B10" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="22"/>
       <c r="B11" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -5604,13 +5628,13 @@
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="22"/>
       <c r="B12" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -5618,13 +5642,13 @@
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="22"/>
       <c r="B13" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -5632,28 +5656,28 @@
     <row r="14" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="22"/>
       <c r="B14" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="22"/>
       <c r="B15" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>6</v>
@@ -5664,10 +5688,10 @@
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="22"/>
       <c r="B16" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>6</v>
@@ -5678,10 +5702,10 @@
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="22"/>
       <c r="B17" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>6</v>
@@ -5692,10 +5716,10 @@
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="22"/>
       <c r="B18" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>6</v>
@@ -5706,13 +5730,13 @@
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="22"/>
       <c r="B19" s="8" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
@@ -5720,13 +5744,13 @@
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="22"/>
       <c r="B20" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
@@ -5734,13 +5758,13 @@
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="22"/>
       <c r="B21" s="8" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
@@ -5748,13 +5772,13 @@
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="22"/>
       <c r="B22" s="8" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
@@ -5762,13 +5786,13 @@
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="22"/>
       <c r="B23" s="8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
@@ -5776,13 +5800,13 @@
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="22"/>
       <c r="B24" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
@@ -5790,13 +5814,13 @@
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="22"/>
       <c r="B25" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
@@ -5804,13 +5828,13 @@
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="22"/>
       <c r="B26" s="8" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>

--- a/check_sheet.xlsx
+++ b/check_sheet.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="782">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -2121,14 +2121,6 @@
   </si>
   <si>
     <t>wuauserv</t>
-  </si>
-  <si>
-    <t>jenkins4</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>Test2</t>
-    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>Y</t>
@@ -2400,6 +2392,196 @@
   </si>
   <si>
     <t>wmic qfeコマンドで、パッチリストを検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Linux</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Test</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>192.168.0.16</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>win2012</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>fstypes</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>└─ファイルシステムタイプ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>マウントポイントのファイルシステム</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>VMware Tools の時刻同期</t>
+    <rPh sb="14" eb="16">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ドウキ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>vmwaretool_timesync</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>VMWareツールの時刻同期設定</t>
+    <rPh sb="10" eb="12">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ドウキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>core_collector</t>
+  </si>
+  <si>
+    <t>コアコレクター設定</t>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Y1</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>vmware_scsi_timeout</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>VMWare SCSIタイムアウト</t>
+  </si>
+  <si>
+    <t>/etc/udev/rules.d/99-vmware-scsi-udev.rulesからVMWare SCSIタイムアウト検索</t>
+    <rPh sb="62" eb="64">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>VMNetwork.type</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>└─アダプタタイプ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ネットワークアダプタタイプ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>vm_conf</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>VMWare 設定カスタマイズ</t>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Get-VMResourceConfiguration コマンドで、VMWare リソース設定を検索</t>
+    <rPh sb="45" eb="47">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>vm_conf.limit</t>
+  </si>
+  <si>
+    <t>├─リソース制限</t>
+    <rPh sb="6" eb="8">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>CPU,メモリリソース制限設定</t>
+    <rPh sb="11" eb="13">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>vm_conf.shares_level</t>
+  </si>
+  <si>
+    <t>├─シェアレベル</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>CPU,メモリ共有レベル設定</t>
+    <rPh sb="7" eb="9">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>vm_conf.cpu_affinity</t>
+  </si>
+  <si>
+    <t>└─CPUアフィニティ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>CPUアフィニティ設定</t>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>vm_nic_limit</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ネットワークアダプタ制限</t>
+    <rPh sb="10" eb="12">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>vCenter</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Get-NetworkAdapter コマンドで、ネットワーク制限値を検索</t>
+    <rPh sb="31" eb="34">
+      <t>セイゲンチ</t>
+    </rPh>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -2944,7 +3126,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3065,14 +3247,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4631,30 +4816,30 @@
     <row r="49" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A49" s="24"/>
       <c r="B49" s="26"/>
-      <c r="C49" s="43" t="s">
+      <c r="C49" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="43"/>
-      <c r="J49" s="43" t="s">
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="K49" s="43"/>
-      <c r="L49" s="43"/>
-      <c r="M49" s="43"/>
-      <c r="N49" s="43"/>
-      <c r="O49" s="43"/>
-      <c r="P49" s="43"/>
-      <c r="Q49" s="43" t="s">
+      <c r="K49" s="44"/>
+      <c r="L49" s="44"/>
+      <c r="M49" s="44"/>
+      <c r="N49" s="44"/>
+      <c r="O49" s="44"/>
+      <c r="P49" s="44"/>
+      <c r="Q49" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="R49" s="43"/>
-      <c r="S49" s="43"/>
-      <c r="T49" s="43"/>
+      <c r="R49" s="44"/>
+      <c r="S49" s="44"/>
+      <c r="T49" s="44"/>
       <c r="U49" s="24"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.15">
@@ -6343,7 +6528,7 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6367,30 +6552,30 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44" t="s">
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
@@ -6666,15 +6851,17 @@
         <v>92</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>691</v>
+        <v>748</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>692</v>
+        <v>747</v>
       </c>
       <c r="F7" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="G7" s="26"/>
+      <c r="G7" s="26" t="s">
+        <v>749</v>
+      </c>
       <c r="H7" s="26"/>
       <c r="I7" s="4" t="s">
         <v>144</v>
@@ -7078,7 +7265,7 @@
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" fitToWidth="0" cellComments="asDisplayed"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" cellComments="asDisplayed" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
@@ -7815,10 +8002,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F97"/>
+  <dimension ref="A3:F107"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7861,351 +8048,351 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="42" t="s">
         <v>230</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="42"/>
+      <c r="F5" s="43" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="42"/>
+      <c r="B6" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="42" t="s">
         <v>234</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9" t="s">
+      <c r="E6" s="42"/>
+      <c r="F6" s="43" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="42"/>
+      <c r="B7" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="42" t="s">
         <v>237</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9" t="s">
+      <c r="E7" s="42"/>
+      <c r="F7" s="43" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="42"/>
+      <c r="B8" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="42" t="s">
         <v>239</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9" t="s">
+      <c r="E8" s="42"/>
+      <c r="F8" s="43" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="42"/>
+      <c r="B9" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="42" t="s">
         <v>241</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9" t="s">
+      <c r="E9" s="42"/>
+      <c r="F9" s="43" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="42"/>
+      <c r="B10" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="42" t="s">
         <v>244</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9" t="s">
+      <c r="E10" s="42"/>
+      <c r="F10" s="43" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="43" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="42" t="s">
         <v>247</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="43" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="42"/>
+      <c r="B13" s="42" t="s">
+        <v>762</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>763</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="E13" s="42"/>
+      <c r="F13" s="43" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B14" s="42" t="s">
         <v>250</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C14" s="42" t="s">
         <v>251</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D14" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9" t="s">
+      <c r="E14" s="42"/>
+      <c r="F14" s="43" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B15" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C15" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D15" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9" t="s">
+      <c r="E15" s="42"/>
+      <c r="F15" s="43" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="8" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B16" s="42" t="s">
+        <v>765</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>766</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="E16" s="42"/>
+      <c r="F16" s="43" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="42"/>
+      <c r="B17" s="42" t="s">
+        <v>768</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>769</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="E17" s="42"/>
+      <c r="F17" s="43" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="42"/>
+      <c r="B18" s="42" t="s">
+        <v>771</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>772</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="E18" s="42"/>
+      <c r="F18" s="43" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="42"/>
+      <c r="B19" s="42" t="s">
+        <v>774</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>775</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="E19" s="42"/>
+      <c r="F19" s="43" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="B20" s="42" t="s">
         <v>256</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C20" s="42" t="s">
         <v>257</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D20" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9" t="s">
+      <c r="E20" s="42"/>
+      <c r="F20" s="43" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="8" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="42" t="s">
+        <v>777</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>778</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>779</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>780</v>
+      </c>
+      <c r="E21" s="42"/>
+      <c r="F21" s="43" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B22" s="42" t="s">
         <v>259</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C22" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D22" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E22" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F22" s="43" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="8" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B23" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>146</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>276</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="8"/>
+      <c r="A24" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="B24" s="8" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="9" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
@@ -8213,267 +8400,265 @@
         <v>229</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="9" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="8"/>
       <c r="B26" s="8" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="8"/>
       <c r="B27" s="8" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>285</v>
+        <v>153</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
-        <v>286</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="8"/>
+      <c r="A28" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="B28" s="8" t="s">
-        <v>74</v>
+        <v>273</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="9" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="8"/>
       <c r="B29" s="8" t="s">
-        <v>289</v>
+        <v>180</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="9" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="8"/>
       <c r="B30" s="8" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
         <v>229</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="8" t="s">
-        <v>229</v>
-      </c>
+      <c r="A32" s="8"/>
       <c r="B32" s="8" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="8"/>
       <c r="B33" s="8" t="s">
-        <v>75</v>
+        <v>195</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="9" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="8"/>
       <c r="B34" s="8" t="s">
-        <v>303</v>
+        <v>74</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="9" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="8" t="s">
-        <v>229</v>
-      </c>
+      <c r="A35" s="8"/>
       <c r="B35" s="8" t="s">
-        <v>197</v>
+        <v>289</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E35" s="8" t="s">
-        <v>229</v>
-      </c>
+      <c r="E35" s="8"/>
       <c r="F35" s="9" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="8"/>
       <c r="B36" s="8" t="s">
-        <v>185</v>
+        <v>292</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="8"/>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+      <c r="A37" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="B37" s="8" t="s">
-        <v>186</v>
+        <v>295</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="9" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="8"/>
+      <c r="A38" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="B38" s="8" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="9" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="8"/>
       <c r="B39" s="8" t="s">
-        <v>314</v>
+        <v>75</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="9" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="8" t="s">
-        <v>229</v>
-      </c>
+      <c r="A40" s="8"/>
       <c r="B40" s="8" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="9" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
@@ -8481,139 +8666,139 @@
         <v>229</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E41" s="8"/>
+      <c r="E41" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="F41" s="9" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="8" t="s">
-        <v>229</v>
-      </c>
+      <c r="A42" s="8"/>
       <c r="B42" s="8" t="s">
-        <v>322</v>
+        <v>185</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E42" s="8" t="s">
-        <v>229</v>
-      </c>
+      <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
-        <v>324</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="8" t="s">
-        <v>229</v>
-      </c>
+      <c r="A43" s="8"/>
       <c r="B43" s="8" t="s">
-        <v>325</v>
+        <v>186</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="9" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A44" s="8" t="s">
-        <v>229</v>
-      </c>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="8"/>
       <c r="B44" s="8" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="9" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="8" t="s">
-        <v>229</v>
-      </c>
+      <c r="A45" s="8"/>
       <c r="B45" s="8" t="s">
-        <v>184</v>
+        <v>314</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="8"/>
+      <c r="F45" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="F45" s="9" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="8"/>
       <c r="B46" s="8" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E46" s="8"/>
-      <c r="F46" s="9"/>
+      <c r="F46" s="9" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="8"/>
+      <c r="A47" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="B47" s="8" t="s">
-        <v>335</v>
+        <v>187</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E47" s="8"/>
       <c r="F47" s="9" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A48" s="8"/>
+      <c r="A48" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="B48" s="8" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E48" s="8"/>
+      <c r="E48" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="F48" s="9" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
@@ -8621,48 +8806,46 @@
         <v>229</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="9" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A50" s="8" t="s">
         <v>229</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E50" s="8" t="s">
-        <v>229</v>
-      </c>
+      <c r="E50" s="8"/>
       <c r="F50" s="9" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="8" t="s">
-        <v>347</v>
+        <v>229</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>84</v>
@@ -8671,579 +8854,575 @@
         <v>229</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="8"/>
       <c r="B52" s="8" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E52" s="8"/>
-      <c r="F52" s="9" t="s">
-        <v>353</v>
-      </c>
+      <c r="F52" s="9"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A53" s="8" t="s">
-        <v>347</v>
-      </c>
+      <c r="A53" s="8"/>
       <c r="B53" s="8" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A54" s="8" t="s">
-        <v>347</v>
-      </c>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" s="8"/>
       <c r="B54" s="8" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="9" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="8" t="s">
-        <v>347</v>
+        <v>229</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="9" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A56" s="8" t="s">
-        <v>347</v>
-      </c>
+      <c r="A56" s="42"/>
       <c r="B56" s="8" t="s">
-        <v>363</v>
+        <v>750</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>364</v>
+        <v>751</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="8"/>
+      <c r="F56" s="9" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A57" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="F56" s="9" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A57" s="8"/>
       <c r="B57" s="8" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E57" s="8"/>
+      <c r="E57" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="F57" s="9" t="s">
-        <v>368</v>
+        <v>346</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A58" s="8"/>
+      <c r="A58" s="8" t="s">
+        <v>347</v>
+      </c>
       <c r="B58" s="8" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E58" s="8"/>
+      <c r="E58" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="F58" s="9" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="8"/>
       <c r="B59" s="8" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="9" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A60" s="8"/>
+      <c r="A60" s="8" t="s">
+        <v>347</v>
+      </c>
       <c r="B60" s="8" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="9" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A61" s="8"/>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A61" s="8" t="s">
+        <v>347</v>
+      </c>
       <c r="B61" s="8" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="9" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A62" s="8"/>
+        <v>359</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A62" s="8" t="s">
+        <v>347</v>
+      </c>
       <c r="B62" s="8" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="9" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A63" s="8"/>
+      <c r="A63" s="8" t="s">
+        <v>347</v>
+      </c>
       <c r="B63" s="8" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E63" s="8"/>
+      <c r="E63" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="F63" s="9" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="8"/>
       <c r="B64" s="8" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="9" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="8"/>
       <c r="B65" s="8" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="9" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A66" s="8" t="s">
-        <v>347</v>
-      </c>
+      <c r="A66" s="8"/>
       <c r="B66" s="8" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E66" s="8" t="s">
-        <v>229</v>
-      </c>
+      <c r="E66" s="8"/>
       <c r="F66" s="9" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="8"/>
       <c r="B67" s="8" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E67" s="8"/>
       <c r="F67" s="9" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="8"/>
       <c r="B68" s="8" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="9" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="8"/>
       <c r="B69" s="8" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E69" s="8"/>
       <c r="F69" s="9" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="8"/>
       <c r="B70" s="8" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E70" s="8"/>
       <c r="F70" s="9" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="8"/>
       <c r="B71" s="8" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E71" s="8"/>
       <c r="F71" s="9" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="8"/>
       <c r="B72" s="8" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E72" s="8"/>
       <c r="F72" s="9" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A73" s="8"/>
+        <v>392</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A73" s="8" t="s">
+        <v>347</v>
+      </c>
       <c r="B73" s="8" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E73" s="8"/>
+      <c r="E73" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="F73" s="9" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="8"/>
       <c r="B74" s="8" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E74" s="8"/>
       <c r="F74" s="9" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="48" x14ac:dyDescent="0.15">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="8"/>
       <c r="B75" s="8" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E75" s="8"/>
       <c r="F75" s="9" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="8"/>
       <c r="B76" s="8" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E76" s="8"/>
       <c r="F76" s="9" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="8"/>
       <c r="B77" s="8" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E77" s="8"/>
       <c r="F77" s="9" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A78" s="8" t="s">
-        <v>347</v>
-      </c>
+      <c r="A78" s="8"/>
       <c r="B78" s="8" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E78" s="8"/>
       <c r="F78" s="9" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A79" s="8" t="s">
-        <v>347</v>
-      </c>
+      <c r="A79" s="8"/>
       <c r="B79" s="8" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E79" s="8"/>
       <c r="F79" s="9" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A80" s="8" t="s">
-        <v>347</v>
-      </c>
+        <v>413</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A80" s="8"/>
       <c r="B80" s="8" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E80" s="8"/>
       <c r="F80" s="9" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A81" s="8" t="s">
-        <v>347</v>
-      </c>
+        <v>416</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A81" s="8"/>
       <c r="B81" s="8" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E81" s="8"/>
       <c r="F81" s="9" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A82" s="8" t="s">
-        <v>347</v>
-      </c>
+        <v>419</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="48" x14ac:dyDescent="0.15">
+      <c r="A82" s="8"/>
       <c r="B82" s="8" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E82" s="8"/>
       <c r="F82" s="9" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A83" s="8" t="s">
-        <v>347</v>
-      </c>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A83" s="8"/>
       <c r="B83" s="8" t="s">
-        <v>190</v>
+        <v>423</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>445</v>
+        <v>84</v>
       </c>
       <c r="E83" s="8"/>
       <c r="F83" s="9" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A84" s="8" t="s">
-        <v>347</v>
-      </c>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+      <c r="A84" s="8"/>
       <c r="B84" s="8" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E84" s="8"/>
       <c r="F84" s="9" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A85" s="8"/>
+      <c r="A85" s="8" t="s">
+        <v>347</v>
+      </c>
       <c r="B85" s="8" t="s">
-        <v>450</v>
+        <v>429</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E85" s="8"/>
       <c r="F85" s="9" t="s">
-        <v>452</v>
+        <v>431</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
@@ -9251,17 +9430,17 @@
         <v>347</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>453</v>
+        <v>432</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>454</v>
+        <v>433</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E86" s="8"/>
       <c r="F86" s="9" t="s">
-        <v>455</v>
+        <v>434</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
@@ -9269,17 +9448,17 @@
         <v>347</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E87" s="8"/>
       <c r="F87" s="9" t="s">
-        <v>458</v>
+        <v>437</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
@@ -9287,53 +9466,51 @@
         <v>347</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>459</v>
+        <v>438</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E88" s="8"/>
       <c r="F88" s="9" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A89" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E89" s="8"/>
-      <c r="F89" s="9" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A89" s="42"/>
+      <c r="B89" s="42" t="s">
+        <v>756</v>
+      </c>
+      <c r="C89" s="42" t="s">
+        <v>757</v>
+      </c>
+      <c r="D89" s="42" t="s">
+        <v>746</v>
+      </c>
+      <c r="E89" s="42"/>
+      <c r="F89" s="43" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A90" s="8" t="s">
         <v>347</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>201</v>
+        <v>441</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>465</v>
+        <v>442</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E90" s="8"/>
       <c r="F90" s="9" t="s">
-        <v>466</v>
+        <v>443</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
@@ -9341,124 +9518,302 @@
         <v>347</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>467</v>
+        <v>190</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>468</v>
+        <v>444</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>84</v>
+        <v>445</v>
       </c>
       <c r="E91" s="8"/>
       <c r="F91" s="9" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="8" t="s">
         <v>347</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>470</v>
+        <v>447</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>471</v>
+        <v>448</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E92" s="8"/>
       <c r="F92" s="9" t="s">
-        <v>472</v>
+        <v>449</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A93" s="8" t="s">
-        <v>347</v>
-      </c>
+      <c r="A93" s="8"/>
       <c r="B93" s="8" t="s">
-        <v>473</v>
+        <v>450</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>474</v>
+        <v>451</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E93" s="8"/>
       <c r="F93" s="9" t="s">
-        <v>475</v>
+        <v>452</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A94" s="8"/>
+      <c r="A94" s="8" t="s">
+        <v>347</v>
+      </c>
       <c r="B94" s="8" t="s">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>477</v>
+        <v>454</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E94" s="8"/>
       <c r="F94" s="9" t="s">
-        <v>478</v>
+        <v>455</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="8" t="s">
-        <v>479</v>
+        <v>347</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E95" s="8" t="s">
-        <v>229</v>
-      </c>
+      <c r="E95" s="8"/>
       <c r="F95" s="9" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="8" t="s">
-        <v>479</v>
+        <v>347</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E96" s="8"/>
       <c r="F96" s="9" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="8" t="s">
-        <v>479</v>
+        <v>347</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>486</v>
+        <v>462</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E97" s="8"/>
       <c r="F97" s="9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A98" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E98" s="8"/>
+      <c r="F98" s="9" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A99" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E99" s="8"/>
+      <c r="F99" s="9" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A100" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E100" s="8"/>
+      <c r="F100" s="9" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A101" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E101" s="8"/>
+      <c r="F101" s="9" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A102" s="8"/>
+      <c r="B102" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E102" s="8"/>
+      <c r="F102" s="9" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A103" s="42" t="s">
+        <v>758</v>
+      </c>
+      <c r="B103" s="42" t="s">
+        <v>754</v>
+      </c>
+      <c r="C103" s="42" t="s">
+        <v>753</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E103" s="42"/>
+      <c r="F103" s="43" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A104" s="42" t="s">
+        <v>758</v>
+      </c>
+      <c r="B104" s="42" t="s">
+        <v>759</v>
+      </c>
+      <c r="C104" s="42" t="s">
+        <v>760</v>
+      </c>
+      <c r="D104" s="42" t="s">
+        <v>746</v>
+      </c>
+      <c r="E104" s="42"/>
+      <c r="F104" s="43" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A105" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A106" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E106" s="8"/>
+      <c r="F106" s="9" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A107" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E107" s="8"/>
+      <c r="F107" s="9" t="s">
         <v>488</v>
       </c>
     </row>
@@ -9483,11 +9838,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:F83"/>
+  <dimension ref="A4:F89"/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -9521,713 +9874,703 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="39" t="s">
+    <row r="5" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="42" t="s">
         <v>230</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40" t="s">
+      <c r="E5" s="42"/>
+      <c r="F5" s="43" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39" t="s">
+    <row r="6" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="42"/>
+      <c r="B6" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="42" t="s">
         <v>234</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40" t="s">
+      <c r="E6" s="42"/>
+      <c r="F6" s="43" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39" t="s">
+    <row r="7" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="42"/>
+      <c r="B7" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="42" t="s">
         <v>237</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="40" t="s">
+      <c r="E7" s="42"/>
+      <c r="F7" s="43" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39" t="s">
+    <row r="8" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="42"/>
+      <c r="B8" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="42" t="s">
         <v>239</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="40" t="s">
+      <c r="E8" s="42"/>
+      <c r="F8" s="43" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39" t="s">
+    <row r="9" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="42"/>
+      <c r="B9" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="42" t="s">
         <v>241</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="40" t="s">
+      <c r="E9" s="42"/>
+      <c r="F9" s="43" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39" t="s">
+    <row r="10" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="42"/>
+      <c r="B10" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="42" t="s">
         <v>244</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="40" t="s">
+      <c r="E10" s="42"/>
+      <c r="F10" s="43" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="39" t="s">
+    <row r="11" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="43" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A12" s="39" t="s">
+    <row r="12" spans="1:6" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="A12" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="42" t="s">
         <v>247</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="43" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="39" t="s">
+    <row r="13" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="42"/>
+      <c r="B13" s="42" t="s">
+        <v>762</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>763</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="E13" s="42"/>
+      <c r="F13" s="43" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B14" s="42" t="s">
         <v>250</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C14" s="42" t="s">
         <v>251</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D14" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="40" t="s">
+      <c r="E14" s="42"/>
+      <c r="F14" s="43" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="39" t="s">
+    <row r="15" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B15" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C15" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D15" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="40" t="s">
+      <c r="E15" s="42"/>
+      <c r="F15" s="43" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A15" s="39" t="s">
+    <row r="16" spans="1:6" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="A16" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B16" s="42" t="s">
+        <v>765</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>766</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="E16" s="42"/>
+      <c r="F16" s="43" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="42"/>
+      <c r="B17" s="42" t="s">
+        <v>768</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>769</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="E17" s="42"/>
+      <c r="F17" s="43" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="42"/>
+      <c r="B18" s="42" t="s">
+        <v>771</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>772</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="E18" s="42"/>
+      <c r="F18" s="43" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="42"/>
+      <c r="B19" s="42" t="s">
+        <v>774</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>775</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="E19" s="42"/>
+      <c r="F19" s="43" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="A20" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="B20" s="42" t="s">
         <v>256</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C20" s="42" t="s">
         <v>257</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D20" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="40" t="s">
+      <c r="E20" s="42"/>
+      <c r="F20" s="43" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="39" t="s">
+    <row r="21" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="42" t="s">
+        <v>777</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>778</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>779</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>780</v>
+      </c>
+      <c r="E21" s="42"/>
+      <c r="F21" s="43" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B22" s="42" t="s">
         <v>259</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C22" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D22" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E22" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="F16" s="40" t="s">
+      <c r="F22" s="43" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="39" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B23" s="39" t="s">
         <v>279</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C23" s="39" t="s">
         <v>280</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="41" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39" t="s">
-        <v>282</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>283</v>
-      </c>
-      <c r="D18" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="41" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="39"/>
-      <c r="B19" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>285</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="41" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="39"/>
-      <c r="B20" s="39" t="s">
-        <v>194</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>490</v>
-      </c>
-      <c r="D20" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E20" s="39"/>
-      <c r="F20" s="41" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="39"/>
-      <c r="B21" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="39" t="s">
-        <v>491</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" s="39"/>
-      <c r="F21" s="41" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="39" t="s">
-        <v>229</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>492</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>299</v>
-      </c>
-      <c r="D22" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="41" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="39"/>
-      <c r="B23" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>494</v>
       </c>
       <c r="D23" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E23" s="39"/>
-      <c r="F23" s="41" t="s">
-        <v>495</v>
+      <c r="F23" s="40" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="39"/>
       <c r="B24" s="39" t="s">
-        <v>496</v>
+        <v>282</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>497</v>
+        <v>283</v>
       </c>
       <c r="D24" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E24" s="39"/>
-      <c r="F24" s="41" t="s">
-        <v>498</v>
+      <c r="F24" s="40" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="39"/>
       <c r="B25" s="39" t="s">
-        <v>499</v>
+        <v>183</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>500</v>
+        <v>285</v>
       </c>
       <c r="D25" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E25" s="39"/>
-      <c r="F25" s="41" t="s">
-        <v>501</v>
+      <c r="F25" s="40" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="39" t="s">
-        <v>229</v>
-      </c>
+      <c r="A26" s="39"/>
       <c r="B26" s="39" t="s">
-        <v>502</v>
+        <v>194</v>
       </c>
       <c r="C26" s="39" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="D26" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E26" s="39"/>
-      <c r="F26" s="41" t="s">
-        <v>504</v>
+      <c r="F26" s="40" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="39"/>
       <c r="B27" s="39" t="s">
-        <v>505</v>
+        <v>74</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="D27" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E27" s="39"/>
-      <c r="F27" s="41" t="s">
-        <v>507</v>
+      <c r="F27" s="40" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="39"/>
+      <c r="A28" s="39" t="s">
+        <v>229</v>
+      </c>
       <c r="B28" s="39" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>509</v>
+        <v>299</v>
       </c>
       <c r="D28" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E28" s="39"/>
-      <c r="F28" s="41" t="s">
-        <v>510</v>
+      <c r="F28" s="40" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="39"/>
       <c r="B29" s="39" t="s">
-        <v>511</v>
+        <v>196</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>512</v>
+        <v>494</v>
       </c>
       <c r="D29" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E29" s="39"/>
-      <c r="F29" s="41" t="s">
-        <v>513</v>
+      <c r="F29" s="40" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="39"/>
       <c r="B30" s="39" t="s">
-        <v>514</v>
+        <v>496</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>515</v>
+        <v>497</v>
       </c>
       <c r="D30" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E30" s="39"/>
-      <c r="F30" s="41" t="s">
-        <v>516</v>
+      <c r="F30" s="40" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="39" t="s">
-        <v>229</v>
-      </c>
+      <c r="A31" s="39"/>
       <c r="B31" s="39" t="s">
-        <v>180</v>
+        <v>499</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="D31" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E31" s="39"/>
-      <c r="F31" s="41" t="s">
-        <v>518</v>
+      <c r="F31" s="40" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="39"/>
+      <c r="A32" s="39" t="s">
+        <v>229</v>
+      </c>
       <c r="B32" s="39" t="s">
-        <v>192</v>
+        <v>502</v>
       </c>
       <c r="C32" s="39" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="D32" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E32" s="39"/>
-      <c r="F32" s="41" t="s">
-        <v>520</v>
+      <c r="F32" s="40" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="39"/>
       <c r="B33" s="39" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="D33" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E33" s="39"/>
-      <c r="F33" s="41" t="s">
-        <v>523</v>
+      <c r="F33" s="40" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="39"/>
       <c r="B34" s="39" t="s">
-        <v>193</v>
+        <v>508</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="D34" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E34" s="39"/>
-      <c r="F34" s="41" t="s">
-        <v>525</v>
+      <c r="F34" s="40" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="39"/>
       <c r="B35" s="39" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="D35" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E35" s="39"/>
-      <c r="F35" s="41" t="s">
-        <v>528</v>
+      <c r="F35" s="40" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="39" t="s">
-        <v>693</v>
-      </c>
+      <c r="A36" s="39"/>
       <c r="B36" s="39" t="s">
-        <v>694</v>
+        <v>514</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>695</v>
+        <v>515</v>
       </c>
       <c r="D36" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E36" s="39"/>
-      <c r="F36" s="41"/>
+      <c r="F36" s="40" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="39"/>
+      <c r="A37" s="39" t="s">
+        <v>229</v>
+      </c>
       <c r="B37" s="39" t="s">
-        <v>696</v>
+        <v>180</v>
       </c>
       <c r="C37" s="39" t="s">
-        <v>697</v>
+        <v>517</v>
       </c>
       <c r="D37" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E37" s="39"/>
-      <c r="F37" s="39" t="s">
-        <v>698</v>
+      <c r="F37" s="40" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="39"/>
       <c r="B38" s="39" t="s">
-        <v>699</v>
+        <v>192</v>
       </c>
       <c r="C38" s="39" t="s">
-        <v>700</v>
+        <v>519</v>
       </c>
       <c r="D38" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E38" s="39"/>
-      <c r="F38" s="39" t="s">
-        <v>701</v>
+      <c r="F38" s="40" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="39"/>
       <c r="B39" s="39" t="s">
-        <v>702</v>
+        <v>521</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>703</v>
+        <v>522</v>
       </c>
       <c r="D39" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E39" s="39"/>
-      <c r="F39" s="39" t="s">
-        <v>704</v>
+      <c r="F39" s="40" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="42" t="s">
-        <v>347</v>
-      </c>
+      <c r="A40" s="39"/>
       <c r="B40" s="39" t="s">
-        <v>529</v>
+        <v>193</v>
       </c>
       <c r="C40" s="39" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="D40" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E40" s="39" t="s">
-        <v>229</v>
-      </c>
-      <c r="F40" s="41" t="s">
-        <v>531</v>
+      <c r="E40" s="39"/>
+      <c r="F40" s="40" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="39" t="s">
-        <v>229</v>
-      </c>
+      <c r="A41" s="39"/>
       <c r="B41" s="39" t="s">
-        <v>184</v>
+        <v>526</v>
       </c>
       <c r="C41" s="39" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D41" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E41" s="39" t="s">
-        <v>229</v>
-      </c>
-      <c r="F41" s="41" t="s">
-        <v>533</v>
+      <c r="E41" s="39"/>
+      <c r="F41" s="40" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="39"/>
+      <c r="A42" s="39" t="s">
+        <v>691</v>
+      </c>
       <c r="B42" s="39" t="s">
-        <v>534</v>
+        <v>692</v>
       </c>
       <c r="C42" s="39" t="s">
-        <v>535</v>
+        <v>693</v>
       </c>
       <c r="D42" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E42" s="39"/>
-      <c r="F42" s="41" t="s">
-        <v>536</v>
-      </c>
+      <c r="F42" s="40"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="39"/>
       <c r="B43" s="39" t="s">
-        <v>537</v>
+        <v>694</v>
       </c>
       <c r="C43" s="39" t="s">
-        <v>538</v>
+        <v>695</v>
       </c>
       <c r="D43" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E43" s="39"/>
-      <c r="F43" s="41" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A44" s="39" t="s">
-        <v>229</v>
-      </c>
+      <c r="F43" s="39" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="39"/>
       <c r="B44" s="39" t="s">
-        <v>348</v>
+        <v>697</v>
       </c>
       <c r="C44" s="39" t="s">
-        <v>349</v>
+        <v>698</v>
       </c>
       <c r="D44" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E44" s="39" t="s">
-        <v>229</v>
-      </c>
-      <c r="F44" s="41" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A45" s="39" t="s">
-        <v>229</v>
-      </c>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" s="39"/>
       <c r="B45" s="39" t="s">
-        <v>354</v>
+        <v>700</v>
       </c>
       <c r="C45" s="39" t="s">
-        <v>355</v>
+        <v>701</v>
       </c>
       <c r="D45" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E45" s="39"/>
-      <c r="F45" s="41" t="s">
-        <v>541</v>
+      <c r="F45" s="39" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="42" t="s">
+      <c r="A46" s="41" t="s">
         <v>347</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>363</v>
+        <v>529</v>
       </c>
       <c r="C46" s="39" t="s">
-        <v>364</v>
+        <v>530</v>
       </c>
       <c r="D46" s="39" t="s">
         <v>91</v>
@@ -10235,157 +10578,161 @@
       <c r="E46" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="F46" s="41" t="s">
-        <v>542</v>
+      <c r="F46" s="40" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="39"/>
+      <c r="A47" s="39" t="s">
+        <v>229</v>
+      </c>
       <c r="B47" s="39" t="s">
-        <v>543</v>
+        <v>184</v>
       </c>
       <c r="C47" s="39" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="D47" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E47" s="39"/>
-      <c r="F47" s="41" t="s">
-        <v>545</v>
+      <c r="E47" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="F47" s="40" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="39"/>
       <c r="B48" s="39" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="C48" s="39" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="D48" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E48" s="39"/>
-      <c r="F48" s="41" t="s">
-        <v>548</v>
+      <c r="F48" s="40" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="42" t="s">
-        <v>347</v>
-      </c>
+      <c r="A49" s="39"/>
       <c r="B49" s="39" t="s">
-        <v>393</v>
+        <v>537</v>
       </c>
       <c r="C49" s="39" t="s">
-        <v>394</v>
+        <v>538</v>
       </c>
       <c r="D49" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E49" s="39" t="s">
+      <c r="E49" s="39"/>
+      <c r="F49" s="40" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A50" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="F49" s="41" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="36" x14ac:dyDescent="0.15">
-      <c r="A50" s="42" t="s">
-        <v>347</v>
-      </c>
       <c r="B50" s="39" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="C50" s="39" t="s">
-        <v>550</v>
+        <v>349</v>
       </c>
       <c r="D50" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E50" s="39"/>
-      <c r="F50" s="41" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E50" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="F50" s="40" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A51" s="39" t="s">
         <v>229</v>
       </c>
       <c r="B51" s="39" t="s">
-        <v>197</v>
+        <v>354</v>
       </c>
       <c r="C51" s="39" t="s">
-        <v>159</v>
+        <v>355</v>
       </c>
       <c r="D51" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E51" s="39" t="s">
-        <v>229</v>
-      </c>
-      <c r="F51" s="41" t="s">
-        <v>552</v>
+      <c r="E51" s="39"/>
+      <c r="F51" s="40" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" s="39"/>
+      <c r="A52" s="41" t="s">
+        <v>347</v>
+      </c>
       <c r="B52" s="39" t="s">
-        <v>553</v>
+        <v>363</v>
       </c>
       <c r="C52" s="39" t="s">
-        <v>308</v>
+        <v>364</v>
       </c>
       <c r="D52" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E52" s="39"/>
-      <c r="F52" s="41" t="s">
-        <v>28</v>
+      <c r="E52" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="F52" s="40" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="39"/>
       <c r="B53" s="39" t="s">
-        <v>199</v>
+        <v>543</v>
       </c>
       <c r="C53" s="39" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="D53" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E53" s="39"/>
-      <c r="F53" s="41" t="s">
-        <v>555</v>
+      <c r="F53" s="40" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="39"/>
       <c r="B54" s="39" t="s">
-        <v>198</v>
+        <v>546</v>
       </c>
       <c r="C54" s="39" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="D54" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E54" s="39"/>
-      <c r="F54" s="41" t="s">
-        <v>557</v>
+      <c r="F54" s="40" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A55" s="39" t="s">
-        <v>229</v>
+      <c r="A55" s="41" t="s">
+        <v>347</v>
       </c>
       <c r="B55" s="39" t="s">
-        <v>200</v>
+        <v>393</v>
       </c>
       <c r="C55" s="39" t="s">
-        <v>558</v>
+        <v>394</v>
       </c>
       <c r="D55" s="39" t="s">
         <v>91</v>
@@ -10393,39 +10740,37 @@
       <c r="E55" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="F55" s="41" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A56" s="39" t="s">
-        <v>229</v>
+      <c r="F55" s="40" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+      <c r="A56" s="41" t="s">
+        <v>347</v>
       </c>
       <c r="B56" s="39" t="s">
-        <v>560</v>
+        <v>357</v>
       </c>
       <c r="C56" s="39" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="D56" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E56" s="39" t="s">
-        <v>229</v>
-      </c>
-      <c r="F56" s="41" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="E56" s="39"/>
+      <c r="F56" s="40" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="39" t="s">
         <v>229</v>
       </c>
       <c r="B57" s="39" t="s">
-        <v>705</v>
+        <v>197</v>
       </c>
       <c r="C57" s="39" t="s">
-        <v>706</v>
+        <v>159</v>
       </c>
       <c r="D57" s="39" t="s">
         <v>91</v>
@@ -10433,56 +10778,56 @@
       <c r="E57" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="F57" s="41" t="s">
-        <v>707</v>
+      <c r="F57" s="40" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="39"/>
       <c r="B58" s="39" t="s">
-        <v>708</v>
+        <v>553</v>
       </c>
       <c r="C58" s="39" t="s">
-        <v>709</v>
+        <v>308</v>
       </c>
       <c r="D58" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E58" s="39"/>
-      <c r="F58" s="41" t="s">
-        <v>710</v>
+      <c r="F58" s="40" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="39"/>
       <c r="B59" s="39" t="s">
-        <v>711</v>
+        <v>199</v>
       </c>
       <c r="C59" s="39" t="s">
-        <v>712</v>
+        <v>554</v>
       </c>
       <c r="D59" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E59" s="39"/>
-      <c r="F59" s="41" t="s">
-        <v>713</v>
+      <c r="F59" s="40" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="39"/>
       <c r="B60" s="39" t="s">
-        <v>714</v>
+        <v>198</v>
       </c>
       <c r="C60" s="39" t="s">
-        <v>715</v>
+        <v>556</v>
       </c>
       <c r="D60" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E60" s="39"/>
-      <c r="F60" s="41" t="s">
-        <v>716</v>
+      <c r="F60" s="40" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
@@ -10490,10 +10835,10 @@
         <v>229</v>
       </c>
       <c r="B61" s="39" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="C61" s="39" t="s">
-        <v>717</v>
+        <v>558</v>
       </c>
       <c r="D61" s="39" t="s">
         <v>91</v>
@@ -10501,375 +10846,367 @@
       <c r="E61" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="F61" s="41" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A62" s="39"/>
+      <c r="F61" s="40" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A62" s="39" t="s">
+        <v>229</v>
+      </c>
       <c r="B62" s="39" t="s">
-        <v>719</v>
+        <v>560</v>
       </c>
       <c r="C62" s="39" t="s">
-        <v>720</v>
+        <v>561</v>
       </c>
       <c r="D62" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E62" s="39"/>
-      <c r="F62" s="41" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A63" s="39"/>
+      <c r="E62" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="F62" s="40" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A63" s="39" t="s">
+        <v>229</v>
+      </c>
       <c r="B63" s="39" t="s">
-        <v>722</v>
+        <v>703</v>
       </c>
       <c r="C63" s="39" t="s">
-        <v>723</v>
+        <v>704</v>
       </c>
       <c r="D63" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E63" s="39"/>
-      <c r="F63" s="41" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A64" s="39" t="s">
+      <c r="E63" s="39" t="s">
         <v>229</v>
       </c>
+      <c r="F63" s="40" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A64" s="39"/>
       <c r="B64" s="39" t="s">
-        <v>725</v>
+        <v>706</v>
       </c>
       <c r="C64" s="39" t="s">
-        <v>726</v>
+        <v>707</v>
       </c>
       <c r="D64" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E64" s="39"/>
-      <c r="F64" s="41" t="s">
-        <v>727</v>
+      <c r="F64" s="40" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="39"/>
       <c r="B65" s="39" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C65" s="39" t="s">
-        <v>729</v>
+        <v>710</v>
       </c>
       <c r="D65" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E65" s="39"/>
-      <c r="F65" s="39" t="s">
-        <v>730</v>
+      <c r="F65" s="40" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="39"/>
       <c r="B66" s="39" t="s">
-        <v>731</v>
+        <v>712</v>
       </c>
       <c r="C66" s="39" t="s">
-        <v>732</v>
+        <v>713</v>
       </c>
       <c r="D66" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E66" s="39"/>
-      <c r="F66" s="39" t="s">
-        <v>733</v>
+      <c r="F66" s="40" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A67" s="39"/>
+      <c r="A67" s="39" t="s">
+        <v>229</v>
+      </c>
       <c r="B67" s="39" t="s">
-        <v>734</v>
+        <v>185</v>
       </c>
       <c r="C67" s="39" t="s">
-        <v>735</v>
+        <v>715</v>
       </c>
       <c r="D67" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E67" s="39"/>
-      <c r="F67" s="39" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="36" x14ac:dyDescent="0.15">
-      <c r="A68" s="42" t="s">
-        <v>347</v>
-      </c>
+      <c r="E67" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="F67" s="40" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A68" s="39"/>
       <c r="B68" s="39" t="s">
-        <v>563</v>
+        <v>717</v>
       </c>
       <c r="C68" s="39" t="s">
-        <v>564</v>
+        <v>718</v>
       </c>
       <c r="D68" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E68" s="39"/>
-      <c r="F68" s="41" t="s">
-        <v>565</v>
+      <c r="F68" s="40" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A69" s="42" t="s">
-        <v>347</v>
-      </c>
+      <c r="A69" s="39"/>
       <c r="B69" s="39" t="s">
-        <v>566</v>
+        <v>720</v>
       </c>
       <c r="C69" s="39" t="s">
-        <v>567</v>
+        <v>721</v>
       </c>
       <c r="D69" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E69" s="39" t="s">
+      <c r="E69" s="39"/>
+      <c r="F69" s="40" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A70" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="F69" s="41" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A70" s="42" t="s">
-        <v>347</v>
-      </c>
       <c r="B70" s="39" t="s">
-        <v>569</v>
+        <v>723</v>
       </c>
       <c r="C70" s="39" t="s">
-        <v>570</v>
+        <v>724</v>
       </c>
       <c r="D70" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E70" s="39"/>
-      <c r="F70" s="41" t="s">
-        <v>571</v>
+      <c r="F70" s="40" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A71" s="42" t="s">
-        <v>347</v>
-      </c>
+      <c r="A71" s="39"/>
       <c r="B71" s="39" t="s">
-        <v>572</v>
+        <v>726</v>
       </c>
       <c r="C71" s="39" t="s">
-        <v>361</v>
+        <v>727</v>
       </c>
       <c r="D71" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E71" s="39"/>
-      <c r="F71" s="41" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A72" s="39" t="s">
-        <v>229</v>
-      </c>
+      <c r="F71" s="39" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A72" s="39"/>
       <c r="B72" s="39" t="s">
-        <v>574</v>
+        <v>729</v>
       </c>
       <c r="C72" s="39" t="s">
-        <v>575</v>
+        <v>730</v>
       </c>
       <c r="D72" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E72" s="39"/>
-      <c r="F72" s="41" t="s">
-        <v>576</v>
+      <c r="F72" s="39" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A73" s="42" t="s">
-        <v>737</v>
-      </c>
+      <c r="A73" s="39"/>
       <c r="B73" s="39" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="C73" s="39" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="D73" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E73" s="39"/>
-      <c r="F73" s="41" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A74" s="42"/>
+      <c r="F73" s="39" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+      <c r="A74" s="41" t="s">
+        <v>347</v>
+      </c>
       <c r="B74" s="39" t="s">
-        <v>741</v>
+        <v>563</v>
       </c>
       <c r="C74" s="39" t="s">
-        <v>742</v>
+        <v>564</v>
       </c>
       <c r="D74" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E74" s="39"/>
-      <c r="F74" s="39" t="s">
-        <v>742</v>
+      <c r="F74" s="40" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A75" s="42"/>
+      <c r="A75" s="41" t="s">
+        <v>347</v>
+      </c>
       <c r="B75" s="39" t="s">
-        <v>743</v>
+        <v>566</v>
       </c>
       <c r="C75" s="39" t="s">
-        <v>744</v>
+        <v>567</v>
       </c>
       <c r="D75" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E75" s="39"/>
-      <c r="F75" s="39" t="s">
-        <v>744</v>
+      <c r="E75" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="F75" s="40" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A76" s="42" t="s">
+      <c r="A76" s="41" t="s">
         <v>347</v>
       </c>
       <c r="B76" s="39" t="s">
-        <v>745</v>
+        <v>569</v>
       </c>
       <c r="C76" s="39" t="s">
-        <v>746</v>
+        <v>570</v>
       </c>
       <c r="D76" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E76" s="39" t="s">
-        <v>229</v>
-      </c>
-      <c r="F76" s="41" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="36" x14ac:dyDescent="0.15">
-      <c r="A77" s="42" t="s">
+      <c r="E76" s="39"/>
+      <c r="F76" s="40" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A77" s="41" t="s">
         <v>347</v>
       </c>
       <c r="B77" s="39" t="s">
-        <v>189</v>
+        <v>572</v>
       </c>
       <c r="C77" s="39" t="s">
-        <v>577</v>
+        <v>361</v>
       </c>
       <c r="D77" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E77" s="39"/>
-      <c r="F77" s="41" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A78" s="42" t="s">
-        <v>347</v>
+      <c r="F77" s="40" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A78" s="39" t="s">
+        <v>229</v>
       </c>
       <c r="B78" s="39" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="C78" s="39" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="D78" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E78" s="39" t="s">
-        <v>229</v>
-      </c>
-      <c r="F78" s="41" t="s">
-        <v>581</v>
+      <c r="E78" s="39"/>
+      <c r="F78" s="40" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A79" s="42" t="s">
-        <v>347</v>
+      <c r="A79" s="41" t="s">
+        <v>735</v>
       </c>
       <c r="B79" s="39" t="s">
-        <v>582</v>
+        <v>736</v>
       </c>
       <c r="C79" s="39" t="s">
-        <v>583</v>
+        <v>737</v>
       </c>
       <c r="D79" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E79" s="39" t="s">
-        <v>229</v>
-      </c>
-      <c r="F79" s="41" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A80" s="42" t="s">
-        <v>347</v>
-      </c>
+      <c r="E79" s="39"/>
+      <c r="F79" s="40" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A80" s="41"/>
       <c r="B80" s="39" t="s">
-        <v>585</v>
+        <v>739</v>
       </c>
       <c r="C80" s="39" t="s">
-        <v>586</v>
+        <v>740</v>
       </c>
       <c r="D80" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E80" s="39"/>
-      <c r="F80" s="41" t="s">
-        <v>587</v>
+      <c r="F80" s="39" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A81" s="42" t="s">
-        <v>347</v>
-      </c>
+      <c r="A81" s="41"/>
       <c r="B81" s="39" t="s">
-        <v>588</v>
+        <v>741</v>
       </c>
       <c r="C81" s="39" t="s">
-        <v>589</v>
+        <v>742</v>
       </c>
       <c r="D81" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E81" s="39" t="s">
-        <v>229</v>
-      </c>
-      <c r="F81" s="41" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A82" s="42" t="s">
-        <v>479</v>
+      <c r="E81" s="39"/>
+      <c r="F81" s="39" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A82" s="41" t="s">
+        <v>347</v>
       </c>
       <c r="B82" s="39" t="s">
-        <v>591</v>
+        <v>743</v>
       </c>
       <c r="C82" s="39" t="s">
-        <v>592</v>
+        <v>744</v>
       </c>
       <c r="D82" s="39" t="s">
         <v>91</v>
@@ -10877,27 +11214,143 @@
       <c r="E82" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="F82" s="41" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A83" s="42" t="s">
-        <v>479</v>
+      <c r="F82" s="40" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+      <c r="A83" s="41" t="s">
+        <v>347</v>
       </c>
       <c r="B83" s="39" t="s">
-        <v>594</v>
+        <v>189</v>
       </c>
       <c r="C83" s="39" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="D83" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E83" s="39" t="s">
+      <c r="E83" s="39"/>
+      <c r="F83" s="40" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A84" s="41" t="s">
+        <v>347</v>
+      </c>
+      <c r="B84" s="39" t="s">
+        <v>579</v>
+      </c>
+      <c r="C84" s="39" t="s">
+        <v>580</v>
+      </c>
+      <c r="D84" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E84" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="F83" s="41" t="s">
+      <c r="F84" s="40" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A85" s="41" t="s">
+        <v>347</v>
+      </c>
+      <c r="B85" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C85" s="39" t="s">
+        <v>583</v>
+      </c>
+      <c r="D85" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E85" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="F85" s="40" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A86" s="41" t="s">
+        <v>347</v>
+      </c>
+      <c r="B86" s="39" t="s">
+        <v>585</v>
+      </c>
+      <c r="C86" s="39" t="s">
+        <v>586</v>
+      </c>
+      <c r="D86" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E86" s="39"/>
+      <c r="F86" s="40" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A87" s="41" t="s">
+        <v>347</v>
+      </c>
+      <c r="B87" s="39" t="s">
+        <v>588</v>
+      </c>
+      <c r="C87" s="39" t="s">
+        <v>589</v>
+      </c>
+      <c r="D87" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E87" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="F87" s="40" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A88" s="41" t="s">
+        <v>479</v>
+      </c>
+      <c r="B88" s="39" t="s">
+        <v>591</v>
+      </c>
+      <c r="C88" s="39" t="s">
+        <v>592</v>
+      </c>
+      <c r="D88" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E88" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="F88" s="40" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A89" s="41" t="s">
+        <v>479</v>
+      </c>
+      <c r="B89" s="39" t="s">
+        <v>594</v>
+      </c>
+      <c r="C89" s="39" t="s">
+        <v>595</v>
+      </c>
+      <c r="D89" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E89" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="F89" s="40" t="s">
         <v>596</v>
       </c>
     </row>
